--- a/GII.xlsx
+++ b/GII.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,23 +539,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Insulin Pump Market Size, Share, Growth Analysis, By Type (Patch Pumps, And Tethered Pumps), By Product (MiniMed, Accu-Chek), By Accessories (Insulin Reservoir or Cartridges, Insulin Set Insertion Devices), By End Use (Hospitals &amp; Clinics, Homecare), By Region - Industry Forecast 2024-2031</t>
+          <t>Propolis Market Size, Share, Growth Analysis, By Product Type (Capsules and Tablets, Liquids), By Distribution Channel (Retail Store, Online), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG35A2135</t>
+          <t>SQMIG35A2163</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/insulin-pump-market</t>
+          <t>https://www.skyquestt.com/report/propolis-market</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -576,20 +576,361 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Global Propolis Market size was valued at USD 651.57 million in 2022 and is poised to grow from USD 666.69 million in 2023 to USD 800.96 million by 2031, growing at a CAGR of 2.32% during the forecast period (2024-2031).
+The global propolis market is experiencing robust growth driven by increasing consumer demand for natural health products, leveraging its rich composition of flavonoids, phenolic acids, and terpenes known for their antimicrobial, anti-inflammatory, and antioxidant properties. Propolis has proven effective in addressing various health issues, including colds, sore throats, dental cavities, and skin injuries, although potential allergic reactions necessitate cautious use. Its versatility results in widespread applications across food and beverages, pharmaceuticals, and cosmetics, further amplifying its market appeal. As health consciousness rises, consumers are increasingly prioritizing natural products, propelling market expansion. Key players predominantly hail from Brazil, China, and Europe, where a mix of large, established companies and numerous small-scale producers create a fragmented market landscape. North America is poised to take the lead in market share, fueled by the rising demand for natural and organic offerings. Meanwhile, the Asia-Pacific region is expected to experience the fastest growth rate, driven by heightened awareness regarding propolis's health benefits, increased disposable incomes, and surging interest in natural personal care and healthcare solutions in countries like China, Japan, and India. The convergence of these factors not only underlines propolis's relevance in contemporary health trends but also highlights promising opportunities for stakeholders within this dynamic sector.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Propolis market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Propolis Market Segmental Analysis
+Global Propolis Market is segmented by Product Type, Distribution Channel, and Region. Based on Product Type, the market is segmented into Capsules and Tablets, Liquids, and Others. Based on Distribution Channel, the market is segmented into Retail Store, Online, and Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Global Propolis Market
+The global propolis market is significantly driven by the rising consumer preference for natural and organic products across diverse sectors such as food and beverage, cosmetics, and healthcare. As awareness of the health benefits associated with propolis increases, consumers are gravitating towards products that incorporate this natural ingredient, leading to heightened demand. Propolis's unique properties as a natural food preservative and flavor enhancer further bolster its appeal in the food and beverage industry. This trend reflects a broader shift toward sustainability and health consciousness, positioning propolis as a sought-after component across multiple consumer markets and catalyzing robust market growth.
+Restraints in the Global Propolis Market
+The global propolis market faces significant restraints primarily due to the limited availability of this natural resin, which is contingent on factors such as climatic conditions, seasonal variations, and specific geographic locations. The ongoing decline in bee populations, driven by environmental concerns and habitat loss, exacerbates supply issues, as bees are vital to propolis production. Additionally, the extraction and processing of propolis involve high costs, further constraining market growth and accessibility. These intertwined factors create a challenging landscape for the propolis market, impeding its expansion and limiting the potential for widespread application and commercialization.
+Market Trends of the Global Propolis Market
+The global propolis market is witnessing significant growth, driven by the escalating demand for propolis-based products in the cosmetics and personal care industries. Recognized for its antibacterial and anti-inflammatory properties, propolis is becoming a sought-after ingredient in natural and organic skincare formulations, reflecting a broader market shift towards clean beauty. Additionally, its incorporation into functional foods and dietary supplements is gaining traction, fueled by a growing consumer awareness of health benefits associated with natural products. This dual demand across multiple sectors is positioning propolis as a key player in the trend towards holistic wellness and sustainable beauty solutions.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Definitions
+o Market Scope
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Sources
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Market Overview Outlook
+o Supply Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Dynamics
+ Drivers
+ Opportunities
+ Restraints
+ Challenges
+o Porters Analysis
+ Competitive rivalry
+ Threat of Substitute Products
+ Bargaining Power of Buyers
+ Threat of New Entrants
+ Bargaining Power of Suppliers
+• Key Market Insights
+o Key Success Factor
+o Degree of Competition
+o Top Investment Pockets
+o Ecosystem of the Market
+o Technology Analysis
+o Market Entry Strategies
+o Case Study Analysis
+o Customer &amp; Buying Criteria Analysis
+o Regulatory Landscape
+• Propolis Market, By Product Type
+o Market Overview
+o Capsules And Tablets
+o Liquids
+o Others
+• Propolis Market, By Distribution Channel
+o Market Overview
+o Retail Store
+o Online
+o Others
+• Propolis Market Size by Region
+o Market Overview
+o North America
+ USA
+ Canada
+o Europe
+ Germany
+ Spain
+ France
+ UK
+ Italy
+ Rest of Europe
+o Asia Pacific
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia-Pacific
+o Latin America
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa (MEA)
+ GCC Countries
+ South Africa
+ Rest of MEA
+• Competitive Landscape
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Activities in the Market
+o Key Companies Market Share (%), 2023
+• Key Company Profiles
+o Herb Pharm LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Apis Flora
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bee Health Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o YS Organic Bee Farms
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Comvita Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wax Green
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Uniflora Health Food
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sunyata Pon Lee
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NOW Foods
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o API Health
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Comvita Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bee Health Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wax Green
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o MN Propolis
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ponlee
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ponlee Bee
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sunyata Pon Lee Bee
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Honey Pacifica
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Honey Gardens
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Beekeeper's Naturals
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Beehive Botanicals Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Durham's Bee Farm
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Y.S. Eco Bee Farms
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NaturaNectar LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>◦ Herb Pharm LLC
+◦ 
+◦ 
+◦ 
+◦ Apis Flora
+◦ Bee Health Limited
+◦ YS Organic Bee Farms
+◦ Comvita Ltd
+◦ Wax Green
+◦ Uniflora Health Food
+◦ Sunyata Pon Lee
+◦ NOW Foods
+◦ API Health
+◦ Comvita Limited
+◦ Bee Health Limited
+◦ Wax Green
+◦ MN Propolis
+◦ Ponlee
+◦ Ponlee Bee
+◦ Sunyata Pon Lee Bee
+◦ Honey Pacifica
+◦ Honey Gardens
+◦ Beekeeper's Naturals
+◦ Beehive Botanicals Inc.
+◦ Durham's Bee Farm
+◦ Y.S. Eco Bee Farms
+◦ NaturaNectar LLC</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>By Product Type (Capsules and Tablets, Liquids, Others), By Distribution Channel (Retail Store, Online, Others)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>651.57</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>666.69</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>800.96</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>USD Million</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Insulin Pump Market Size, Share, Growth Analysis, By Type (Patch Pumps, And Tethered Pumps), By Product (MiniMed, Accu-Chek), By Accessories (Insulin Reservoir or Cartridges, Insulin Set Insertion Devices), By End Use (Hospitals &amp; Clinics, Homecare), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIG35A2135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/insulin-pump-market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Global Insulin Pump Market size was valued at USD 5.59 billion in 2022 and is poised to grow from USD 6.05 billion in 2023 to USD 11.38 billion by 2031, growing at a CAGR of 8.22 % in the forecast period (2024-2031).
-The insulin pump market is witnessing substantial growth, driven by the rising global prevalence of diabetes, particularly type 1 diabetes, and the increasing demand for advanced portable insulin delivery systems among patients. This technological innovation is propelled by major medical device manufacturers integrating smart technologies, such as artificial intelligence and machine learning, into insulin pumps. As of 2019, the International Diabetes Federation reported approximately 537 million individuals living with diabetes, a figure projected to surge to 783 million by 2045. This alarming trend underscores the urgent need for effective diabetes management solutions, as untreated diabetes can lead to severe complications like blindness, renal failure, and strokes. Additionally, the insulin pump market is buoyed by factors such as escalating healthcare costs, enhanced access to healthcare services, and the growing availability of cutting-edge insulin delivery devices. The U.S. insulin pump market, in particular, is expected to experience a sustainable compound annual growth rate (CAGR) in the upcoming forecast period, reflecting a robust response to the increasing requirements of diabetic patients seeking convenient and efficient management options. Overall, the insulin pump sector is positioned for significant expansion as awareness, technology, and healthcare infrastructures evolve in tandem to address the burgeoning diabetes epidemic.
+The insulin pump market is experiencing significant growth, driven primarily by the rising global prevalence of diabetes, particularly type 1 diabetes. With over 537 million individuals affected by diabetes in 2019, a number projected to reach 783 million by 2045 according to the International Diabetes Federation (IDF), the demand for portable insulin delivery systems has surged within the diabetic community. This has led to advancements in sophisticated insulin pump technology, integrating innovative features powered by artificial intelligence (AI) and machine learning (ML) from leading medical device manufacturers. These developments cater to the increasing need for effective diabetes management solutions, as diabetes poses risks of severe health complications such as blindness, renal failure, and stroke, as noted by the World Health Organization. Moreover, factors such as rising healthcare costs, improved access to medical facilities, and the growing availability of advanced insulin delivery systems contribute to the thriving market. Specifically, the US insulin pump market is expected to maintain a robust compound annual growth rate (CAGR) in the upcoming forecast period, reflecting a strong demand for these essential devices. As the industry adapts to meet the needs of an expanding demographic struggling with diabetes, the convergence of technology and healthcare continues to shape the future of insulin delivery systems.
 Top-down and bottom-up approaches were used to estimate and validate the size of the Global Insulin Pump market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
 Global Insulin Pump Market Segmental Analysis
 Global Insulin Pump Market is segmented on the basis of type, product, accessories, end use, and region. By type, market is segmented into patch pumps, and tethered pumps. By product, market is segmented into MiniMed, Accu-Chek, Tandem, Omnipod, and others. By accessories, market is segmented into insulin reservoir or cartridges, insulin set insertion devices, and battery. By End use, market is segmented into hospitals &amp; clinics, homecare, and laboratories. By region, the market is segmented into North America, Europe, Asia Pacific, Middle East and Africa, and Latin America.
 Driver of the Global Insulin Pump Market
-The Global Insulin Pump market is significantly driven by the increasing adoption of insulin pumps among diabetic patients, both in developed and emerging economies. Market participants are heavily investing in research and development to create advanced, user-friendly technologies that enhance patient outcomes. With a growing focus on innovative product launches, these companies are responding to the demand for improved diabetes management solutions. Clinical trials highlighting the effectiveness of pump therapy in achieving better glucose control in type 2 diabetes patients, compared to traditional Multiple Daily Injection (MDI) methods, further bolster the market, showcasing the potential of insulin pumps to enhance patient quality of life.
+The global insulin pump market is significantly driven by the increasing adoption of advanced insulin delivery systems among diabetic patients, fueled by continuous research and development (R&amp;D) efforts from market participants. As innovations emerge, including smart insulin pumps equipped with integrated continuous glucose monitoring systems and automated insulin delivery capabilities, the appeal of these devices grows. Clinical trials demonstrating superior glucose control in type 2 diabetes patients utilizing pump therapy over traditional Multiple Daily Injection (MDI) methods further enhance the market's momentum. This trend not only reflects a shift towards more effective diabetes management solutions but also responds to the growing demand for personalized healthcare technologies in both developed and emerging economies.
 Restraints in the Global Insulin Pump Market
-The Global Insulin Pump market faces significant restraints stemming from low reimbursement options and the high cost associated with insulin pumps, which deter patient adoption. Many individuals, particularly those in underdeveloped and emerging countries, rely heavily on insurance reimbursements to access necessary treatments. Furthermore, a lack of awareness and understanding of diabetes management and insulin pumps exacerbates this challenge, as evidenced by the estimated 232 million undiagnosed diabetics worldwide in 2019. The inadequate healthcare infrastructure in these regions hinders patient education and accessibility, ultimately constraining market growth and adoption rates of insulin pump technology.
+The global insulin pump market faces significant restraints, particularly from limited reimbursement options and the high costs associated with these devices. Many patients depend on insurance or government reimbursements to afford diabetes management tools, which can be prohibitively expensive for many individuals. This financial burden results in a reluctance to adopt insulin pumps, subsequently hindering market growth. Furthermore, the awareness and availability of insulin pumps are particularly low in underdeveloped and emerging regions, where healthcare infrastructure is inadequate. With approximately 232 million diabetics undiagnosed as of 2019, the lack of recognition and treatment options poses a critical barrier to market expansion.
 Market Trends of the Global Insulin Pump Market
-The Global Insulin Pump market is witnessing a significant trend towards the integration of intelligent technologies, particularly artificial intelligence (AI), revolutionizing diabetes management. As healthcare IT continues to evolve, medical device manufacturers are increasingly developing AI-enabled insulin pumps and automated drug delivery systems tailored for type 2 diabetes patients. The market is responding to the growing demand for advanced, user-friendly insulin delivery solutions, with current adoption rates for type 2 insulin pumps at approximately 5%. This is projected to expand by 15% by 2027, driven by technological advancements and a rising population managing diabetes, solidifying the relevance of smart devices in chronic disease management.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+The Global Insulin Pump market is witnessing a significant upward trend, primarily driven by advancements in intelligent technologies, including artificial intelligence (AI), which are revolutionizing diabetes management. As diabetes cases surge, especially among type 2 diabetes patients, there is an increasing demand for innovative, automated drug delivery systems. Medical device companies are responding to this demand by developing AI-enabled insulin pumps, enhancing both efficacy and user experience. Current statistics indicate a modest global adoption rate of around 5% for type 2 insulin pumps, poised to expand to 15% by 2027, highlighting the market's potential for growth and the shift towards more sophisticated healthcare solutions.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -785,14 +1126,14 @@
  Key Developments</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Health Care</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -810,7 +1151,7 @@
 ◦ South Africa</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>◦ Medtronic (Ireland)
 ◦ 
@@ -838,32 +1179,32 @@
 ◦ Nipro Diagnostic, Inc. (Japan)</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>By Type (Patch pumps, and Tethered pumps), By Product (MiniMed, Accu-Chek, Tandem, Omnipod, and others), By Accessories (Insulin Eeservoir or Cartridges, Insulin Set Insertion Devices, and Battery), By End Use (Hospitals &amp; Clinics, Homecare, and Laboratories)</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>6.05</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>11.38</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>USD Billion</t>
         </is>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -549,23 +549,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Contact Center Software Market Size, Share, Growth Analysis, By Component (Solutions, Services), By Deployment Mode (On-Premises, Cloud), By Organization Size (Large Enterprises, Small and Medium-Sized Enterprises (SMEs)), By Vertical (BFSI, Telecommunications), By Region - Industry Forecast 2024-2031</t>
+          <t>Enterprise Search Market Size, Share, Growth Analysis, By Type (Local Search, Hosted Search), By End Use (Government &amp; Commercial, Banking &amp; Financial), By Enterprise Size (Small, Medium), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45A2061</t>
+          <t>SQMIG45F2106</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/contact-center-software-market</t>
+          <t>https://www.skyquestt.com/report/enterprise-search-market</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -586,306 +586,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Global Contact Center Software Market size was valued at USD 33.01 billion in 2022 and is poised to grow from USD 41.93 billion in 2023 to USD 194.97 billion by 2031, growing at a CAGR of 21.18% during the forecast period (2024-2031).
-The US Contact Center Software Market is positioned for steady growth, driven by emerging technologies such as machine learning, cloud computing, predictive analytics, and artificial intelligence, which are set to significantly enhance help desk services. As consumer awareness of their rights escalates, businesses across various sectors—including retail, healthcare, and financial services—are responding to a surge in customer inquiries by investing heavily in contact centers. This focus on superior customer service is essential for maintaining service satisfaction and loyalty in a competitive landscape. Key players like NICE CXone, Genesys Cloud CX, 3CX, and Five9 Inc. are at the forefront, offering diverse service solutions tailored to meet these demands. The proliferation of technology has facilitated multi-channel engagement, allowing customers to interact with companies through phone, video, email, and social media. Companies are increasingly adopting omni-channel solutions to provide a seamless client experience; for example, Capital One's integration of Amazon Connect cloud-based technology exemplifies this trend, enabling a smoother and more intelligent customer journey. Consequently, as organizations strive to enhance service delivery and foster customer loyalty through improved service experiences, the market for contact center software is anticipated to witness significant growth in the coming years, positioning it as a critical component of customer engagement strategies.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Contact Center Software market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Contact Center Software Market Segmental Analysis
-Global Contact Center Software Market is segmented by Component, Deployment Mode, Organization Size, Vertical, and Region. Based on Component, the market is segmented into Solutions (Omnichannel Routing, Digital Channels, Intelligent Routing, Interactive Voice Response (IVR), Automatic Call Distributors (ACD), Dialers, Virtual Agents), Workforce Engagement Management (Workforce Optimization, Call Recording and Quality Management, Gamification), Reporting and Analytics (Historical and Customized Reports, Speech and Text Analytics, Real-Time Analytics and Dashboard), Customer Engagement Management (IVR and Advanced Chat, Self-Service Automation, Customer Surveys), Other Solutions), Services (Consulting, Implementation &amp; Integration, Training, Support &amp; Maintenance). Based on Deployment Mode, the market is segmented into On-Premises, Cloud. Based on Organization Size, the market is segmented into Large Enterprises, Small and Medium-Sized Enterprises (SMEs). Based on Vertical, the market is segmented into BFSI, Telecommunications, Healthcare &amp; Life Sciences, IT &amp; ITES, Manufacturing, Retail &amp; Consumer Goods, Government &amp; Public Sector, Energy &amp; Utilities, Other Verticals.  Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
-Driver of the Global Contact Center Software Market
-The rising demand for automating customer care services is a pivotal driver propelling the growth of the Global Contact Center Software market. Businesses are increasingly recognizing the need for efficient and effective customer engagement strategies that foster long-term relationships and brand loyalty. Customer care executives are now tasked with not only addressing routine inquiries rapidly but also with solving complex issues that require deeper engagement. This shift has prompted organizations to invest in advanced contact center solutions that leverage automation, allowing them to enhance operational efficiency, improve customer satisfaction, and allocate resources more strategically—ultimately leading to increased competitiveness in a crowded marketplace.
-Restraints in the Global Contact Center Software Market
-One of the significant market restraints for the Global Contact Center Software market is the persistent challenge of achieving low First Call Resolution (FCR) rates and high Average Speed of Answer (ASA). Despite technological advancements and strategic initiatives by solution providers, many contact centers continue to struggle with a significant gap between incoming call volumes and the proportion of inquiries resolved on the first call. This inefficiency results in decreased satisfaction for both customers and agents, increased abandonment rates, extended handle times, and elevated operational costs. Such inadequacies in key performance metrics can hinder the adoption of contact center software solutions, impacting market growth prospects.
-Market Trends of the Global Contact Center Software Market
-The Global Contact Center Software market is witnessing a significant transformation driven by the retail sector's shift towards omnichannel sales, accelerated by the growth of e-commerce. Traditional single-channel contact centers are becoming obsolete as consumers demand seamless interaction across various platforms. Over 70% of customers now prefer online purchasing, with a notable willingness to switch brands for enhanced experiences and better value. Countries like the United Kingdom are poised for rapid growth in omnichannel sales, propelling the demand for advanced contact center solutions that offer personalized and cohesive customer experiences. This evolving landscape presents lucrative opportunities for contact center software providers to innovate and adapt, ensuring they meet the diverse needs of modern retailers.</t>
+          <t>Global Enterprise Search Market size was valued at USD 4.21 billion in 2022 and is poised to grow from USD 4.58 billion in 2023 to USD 9.07 billion by 2031, growing at a CAGR of 8.9% in the forecast period (2024-2031).
+The Enterprise Search Market is set for substantial growth, primarily driven by the increasing necessity for efficient data search solutions that save time for businesses grappling with vast amounts of information from multiple sources. As organizations strive to manage and organize this data effectively, enterprise search solutions have become essential, enabling users to promptly access critical information from various databases, emails, intranets, and data management systems. This not only enhances operational efficiency but also improves data security by restricting access to authorized personnel. The anticipated rise in demand for accurate information, combined with advancements in Software as a Service (SaaS) and cloud computing, is expected to propel market growth due to their low maintenance costs and minimal technical support requirements. However, challenges like data ambiguity and high implementation costs may hinder progress. The convergence of information and search technology presents lucrative growth opportunities, as enterprise search is integral to all organizations' information systems. Moreover, the evolving landscape of vendors concentrating on a single platform promotes strategic alliances with notable industry players, enhancing the capabilities of major suppliers to offer standardized, interoperable products. With global data projected to surge markedly, the U.S. Enterprise Search Market is on track to achieve a sustainable compound annual growth rate (CAGR) in the upcoming forecast year, indicating a dynamic and expanding marketplace for integration tools and applications.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Enterprise Search market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Enterprise Search Market Segmental Analysis
+Global Enterprise Search Market is segmented on the basis of type, end use, enterprise size, and region. By type, market is segmented into local search, hosted search, and search appliance. By end use, market is segmented into government &amp; commercial, banking &amp; financial, healthcare, retail, media, manufacturing, and others. By enterprise size, market is segmented into small, medium, and large. By region, the market is segmented into North America, Europe, Asia Pacific, Middle East and Africa, and Latin America.
+Driver of the Global Enterprise Search Market
+The global enterprise search market is poised for significant growth driven by the increasing demand for relevant and efficient information retrieval across various industries. As organizations grapple with vast amounts of data, the ability to quickly access ordered, pertinent information becomes paramount in enhancing productivity and decision-making. The integration of technologies such as cloud computing and business analytics within enterprise search solutions facilitates streamlined operations and reduces costs, effectively transforming disparate data into actionable insights. The widespread adoption across sectors like IT, finance, and pharmaceuticals further underscores the pivotal role enterprise search plays in optimizing information management, ultimately propelling market expansion during the forecast period.
+Restraints in the Global Enterprise Search Market
+The Global Enterprise Search market is anticipated to face significant growth restraints due to the challenges associated with unclear keyword meanings. The ambiguity arising from multiple word meanings, particularly without contextual clues, complicates the search process within enterprises, akin to the limitations experienced prior to advancements in web search technologies. Unlike web searches that utilize interlinking to clarify meanings, enterprise searches struggle with a lack of document linkages, leading to slower and less accurate results. Furthermore, the diversity of enterprise repositories and inadequate search quality exacerbate these issues, making it increasingly difficult for employees to retrieve relevant information efficiently and in a usable format.
+Market Trends of the Global Enterprise Search Market
+The Global Enterprise Search market is witnessing a significant trend towards innovation and consolidation, driven by major players focusing on research and development to enhance their service offerings. Companies like IBM Corporation are increasingly adopting cloud-delivered services to improve data analytics and R&amp;D capabilities, as evidenced by their rollout of enterprise search V3.0 with integrated content analytics in early 2021. Additionally, the trend of mergers and acquisitions is prominent, with IBM acquiring Cloudant to bolster web application and big data services, while Oracle's acquisition of Bluekai allows for enhanced customization of marketing efforts through comprehensive data utilization. This trend indicates a competitive landscape focused on leveraging advanced solutions to meet evolving enterprise needs.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>• Introduction
-o Objectives of the Study
-o Definitions
-o Market Scope
-• Research Methodology
-o Information Procurement
-o Secondary &amp; Primary Data Sources
-o Market Size Estimation
-o Market Assumptions &amp; Limitations
-• Executive Summary
-o Market Overview Outlook
-o Supply Demand Trend Analysis
-o Segmental Opportunity Analysis
-• Market Dynamics &amp; Outlook
-o Market Dynamics
- Drivers
- Opportunities
- Restraints
- Challenges
-o Porters Analysis
- Competitive rivalry
- Threat of Substitute Products
- Bargaining Power of Buyers
- Threat of New Entrants
- Bargaining Power of Suppliers
-• Key Market Insights
-o Key Success Factor
-o Degree of Competition
-o Top Investment Pockets
-o Ecosystem of the Market
-o Case Study Analysis
-o Supply Chain Analysis
-o Technology Analysis
-o Pricing Analysis
-o Patent Analysis
-o Regulatory Landscape
-o Customer &amp; Buying Criteria Analysis
-• Contact Center Software Market, By Component
-o Market Overview
-o Solutions
- Omnichannel Routing
- Digital Channels
- Intelligent Routing
- Interactive Voice Response (IVR)
- Automatic Call Distributors (ACD)
- Dialers
- Virtual Agents
- Workforce Engagement Management
- Workforce Optimization
- Call Recording And Quality Management
- Gamification
- Reporting And Analytics
- Historical And Customized Reports
- Speech And Text Analytics
- Real-Time Analytics And Dashboard
- Customer Engagement Management
- IVR And Advanced Chat
- Self-Service Automation
- Customer Surveys
- Other Solutions
-o Services
- Consulting
- Implementation &amp; Integration
- Training, Support &amp; Maintenance
-• Contact Center Software Market, By Deployment Mode
-o Market Overview
-o On-Premises
-o Cloud
-• Contact Center Software Market, By Organization Size
-o Market Overview
-o Large Enterprises
-o Small And Medium-Sized Enterprises (SMEs)
-• Contact Center Software Market, By Vertical
-o Market Overview
-o BFSI
-o Telecommunications
-o Healthcare &amp; Life Sciences
-o IT &amp; ITES
-o Manufacturing
-o Retail &amp; Consumer Goods
-o Government &amp; Public Sector
-o Energy &amp; Utilities
-o Other Verticals
-• Contact Center Software Market Size by Region
-o Market Overview
-o North America
- USA
- Canada
-o Europe
- Germany
- Spain
- France
- UK
- Italy
- Rest of Europe
-o Asia Pacific
- China
- India
- Japan
- South Korea
- Rest of Asia-Pacific
-o Latin America
- Brazil
- Rest of Latin America
-o Middle East &amp; Africa (MEA)
- GCC Countries
- South Africa
- Rest of MEA
-• Competitive Landscape
-o Top 5 Player Comparison
-o Market Positioning of Key Players, 2023
-o Strategies Adopted by Key Market Players
-o Recent Activities in the Market
-o Key Companies Market Share (%), 2023
-• Key Company Profiles
-o Genesys
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Nice
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o IBM
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o AWS
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Five9
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Twilio
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Transsion
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Cisco
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o BT Group
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Verizon
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Avaya
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ericsson
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o 8X8
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Talkdesk
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Alcatel-Lucent Enterprise
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Sinch
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Oracle
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ringcentral
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Content Guru
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Alvaria
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Enghouse Systems Ltd.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o 3Clogic Inc
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ameyo
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o NEC Corporation
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Vocalcom
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Evolve IP
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o UJET
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Amtelco
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Avoxi
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o VCC Live
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Glia Technologies
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Bright Pattern
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Computertalk
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o C-Zentrix
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -915,65 +631,32 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>◦ Genesys
-◦ Nice
-◦ IBM
-◦ AWS
-◦ Five9
-◦ Twilio
-◦ Transsion
-◦ Cisco
-◦ BT Group
-◦ Verizon
-◦ Avaya
-◦ Ericsson
-◦ 8X8
-◦ Talkdesk
-◦ Alcatel-Lucent Enterprise
-◦ Sinch
-◦ Oracle
-◦ Ringcentral
-◦ Content Guru
-◦ Alvaria
-◦ Enghouse Systems Ltd.
-◦ 3Clogic Inc
-◦ Ameyo
-◦ NEC Corporation
-◦ Vocalcom
-◦ Evolve IP
-◦ UJET
-◦ Amtelco
-◦ Avoxi
-◦ VCC Live
-◦ Glia Technologies
-◦ Bright Pattern
-◦ Computertalk
-◦ C-Zentrix</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>By Component (Solutions (Omnichannel Routing, Digital Channels, Intelligent Routing, Interactive Voice Response (IVR), Automatic Call Distributors (ACD), Dialers, Virtual Agents), Workforce Engagement Management (Workforce Optimization, Call Recording and Quality Management, Gamification), Reporting and Analytics (Historical and Customized Reports, Speech and Text Analytics, Real-Time Analytics and Dashboard), Customer Engagement Management (IVR and Advanced Chat, Self-Service Automation, Customer Surveys), Other Solutions), Services (Consulting, Implementation &amp; Integration, Training, Support &amp; Maintenance)), By Deployment Mode (On-Premises, Cloud), By Organization Size (Large Enterprises, Small and Medium-Sized Enterprises (SMEs)), By Vertical (Large Enterprise and Small &amp; Medium Enterprise), By End Use (BFSI, Telecommunications, Healthcare &amp; Life Sciences, IT &amp; ITES, Manufacturing, Retail &amp; Consumer Goods, Government &amp; Public Sector, Energy &amp; Utilities, Other Verticals)</t>
+          <t>By Type (Local search, Hosted search, and Search appliance), By End Use (Government &amp; Commercial, Banking &amp; Financial, Healthcare, Retail, Media, Manufacturing, and Others), By Enterprise Size (Small, Medium, and Large)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>33.01</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>41.93</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>194.97</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scraped Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Failed URLs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +41,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,17 +557,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Enterprise Search Market Size, Share, Growth Analysis, By Type (Local Search, Hosted Search), By End Use (Government &amp; Commercial, Banking &amp; Financial), By Enterprise Size (Small, Medium), By Region - Industry Forecast 2024-2031</t>
+          <t>Insulin Pump Market Size, Share, Growth Analysis, By Type (Patch Pumps, And Tethered Pumps), By Product (MiniMed, Accu-Chek), By Accessories (Insulin Reservoir or Cartridges, Insulin Set Insertion Devices), By End Use (Hospitals &amp; Clinics, Homecare), By Region - Industry Forecast 2024-2031</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45F2106</t>
+          <t>SQMIG35A2135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/enterprise-search-market</t>
+          <t>https://www.skyquestt.com/report/insulin-pump-market</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -586,29 +594,220 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Global Enterprise Search Market size was valued at USD 4.21 billion in 2022 and is poised to grow from USD 4.58 billion in 2023 to USD 9.07 billion by 2031, growing at a CAGR of 8.9% in the forecast period (2024-2031).
-The Enterprise Search Market is set for substantial growth, primarily driven by the increasing necessity for efficient data search solutions that save time for businesses grappling with vast amounts of information from multiple sources. As organizations strive to manage and organize this data effectively, enterprise search solutions have become essential, enabling users to promptly access critical information from various databases, emails, intranets, and data management systems. This not only enhances operational efficiency but also improves data security by restricting access to authorized personnel. The anticipated rise in demand for accurate information, combined with advancements in Software as a Service (SaaS) and cloud computing, is expected to propel market growth due to their low maintenance costs and minimal technical support requirements. However, challenges like data ambiguity and high implementation costs may hinder progress. The convergence of information and search technology presents lucrative growth opportunities, as enterprise search is integral to all organizations' information systems. Moreover, the evolving landscape of vendors concentrating on a single platform promotes strategic alliances with notable industry players, enhancing the capabilities of major suppliers to offer standardized, interoperable products. With global data projected to surge markedly, the U.S. Enterprise Search Market is on track to achieve a sustainable compound annual growth rate (CAGR) in the upcoming forecast year, indicating a dynamic and expanding marketplace for integration tools and applications.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Enterprise Search market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Enterprise Search Market Segmental Analysis
-Global Enterprise Search Market is segmented on the basis of type, end use, enterprise size, and region. By type, market is segmented into local search, hosted search, and search appliance. By end use, market is segmented into government &amp; commercial, banking &amp; financial, healthcare, retail, media, manufacturing, and others. By enterprise size, market is segmented into small, medium, and large. By region, the market is segmented into North America, Europe, Asia Pacific, Middle East and Africa, and Latin America.
-Driver of the Global Enterprise Search Market
-The global enterprise search market is poised for significant growth driven by the increasing demand for relevant and efficient information retrieval across various industries. As organizations grapple with vast amounts of data, the ability to quickly access ordered, pertinent information becomes paramount in enhancing productivity and decision-making. The integration of technologies such as cloud computing and business analytics within enterprise search solutions facilitates streamlined operations and reduces costs, effectively transforming disparate data into actionable insights. The widespread adoption across sectors like IT, finance, and pharmaceuticals further underscores the pivotal role enterprise search plays in optimizing information management, ultimately propelling market expansion during the forecast period.
-Restraints in the Global Enterprise Search Market
-The Global Enterprise Search market is anticipated to face significant growth restraints due to the challenges associated with unclear keyword meanings. The ambiguity arising from multiple word meanings, particularly without contextual clues, complicates the search process within enterprises, akin to the limitations experienced prior to advancements in web search technologies. Unlike web searches that utilize interlinking to clarify meanings, enterprise searches struggle with a lack of document linkages, leading to slower and less accurate results. Furthermore, the diversity of enterprise repositories and inadequate search quality exacerbate these issues, making it increasingly difficult for employees to retrieve relevant information efficiently and in a usable format.
-Market Trends of the Global Enterprise Search Market
-The Global Enterprise Search market is witnessing a significant trend towards innovation and consolidation, driven by major players focusing on research and development to enhance their service offerings. Companies like IBM Corporation are increasingly adopting cloud-delivered services to improve data analytics and R&amp;D capabilities, as evidenced by their rollout of enterprise search V3.0 with integrated content analytics in early 2021. Additionally, the trend of mergers and acquisitions is prominent, with IBM acquiring Cloudant to bolster web application and big data services, while Oracle's acquisition of Bluekai allows for enhanced customization of marketing efforts through comprehensive data utilization. This trend indicates a competitive landscape focused on leveraging advanced solutions to meet evolving enterprise needs.</t>
+          <t>Global Insulin Pump Market size was valued at USD 5.59 billion in 2022 and is poised to grow from USD 6.05 billion in 2023 to USD 11.38 billion by 2031, growing at a CAGR of 8.22 % in the forecast period (2024-2031).
+The insulin pump market is experiencing significant growth, driven primarily by the rising prevalence of diabetes, notably type 1 diabetes, across the globe. With an estimated 537 million individuals diagnosed with diabetes in 2019, this number is projected to surge to 783 million by 2045, according to the International Diabetes Federation. This escalating demand for portable insulin delivery systems is fueled by advancements in technology, as top medical device manufacturers integrate smart solutions like artificial intelligence (AI) and machine learning (ML) into their insulin pump designs, enhancing their functionality and appeal. The World Health Organization highlights serious health complications associated with diabetes, such as blindness and renal failure, further emphasizing the need for effective management solutions like insulin pumps. Additionally, factors such as the rising healthcare costs, better access to healthcare facilities, and a growing awareness about diabetes treatment are driving market expansion. In the U.S. market specifically, insulin pumps are expected to experience steady compound annual growth rate (CAGR), reflecting a robust interest in advanced diabetes management technologies. As healthcare providers and patients seek efficient ways to manage diabetes, the insulin pump market is well-positioned for sustained growth, underscoring the importance of innovation and accessibility in addressing the pressing needs of the diabetic population.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Insulin Pump market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Insulin Pump Market Segmental Analysis
+Global Insulin Pump Market is segmented on the basis of type, product, accessories, end use, and region. By type, market is segmented into patch pumps, and tethered pumps. By product, market is segmented into MiniMed, Accu-Chek, Tandem, Omnipod, and others. By accessories, market is segmented into insulin reservoir or cartridges, insulin set insertion devices, and battery. By End use, market is segmented into hospitals &amp; clinics, homecare, and laboratories. By region, the market is segmented into North America, Europe, Asia Pacific, Middle East and Africa, and Latin America.
+Driver of the Global Insulin Pump Market
+The Global Insulin Pump market is driven by the increasing adoption of advanced insulin delivery systems among diabetic patients, which is spurring market participants to invest heavily in research and development. The focus on launching cutting-edge products to enhance patient outcomes is fueled by promising clinical trials demonstrating improved glycemic control in type 2 diabetes patients utilizing insulin pump therapy compared to traditional Multiple Daily Injection (MDI) methods. As both developed and emerging nations embrace these innovative solutions, the demand for insulin pumps is expected to surge, enhancing the overall market landscape and ensuring a stronger commitment to ongoing advancements in diabetes management technology.
+Restraints in the Global Insulin Pump Market
+The global insulin pump market faces significant restraints primarily due to inadequate reimbursement options and the high costs associated with these devices. Many patients depend on insurance coverage to access insulin pumps, and limited reimbursement can lead to decreased adoption rates. Additionally, the lack of awareness and education about diabetes management and insulin pumps in underdeveloped and emerging countries exacerbates this issue, as evidenced by the 232 million undiagnosed diabetics in 2019 according to the International Diabetes Federation (IDF). This combination of financial barriers and insufficient healthcare infrastructure is likely to hinder the growth of the insulin pump market worldwide.
+Market Trends of the Global Insulin Pump Market
+The Global Insulin Pump market is experiencing a significant upward trend, driven by the integration of intelligent technologies, particularly artificial intelligence (AI), in diabetes management. As healthcare IT evolves, medical device companies are increasingly focused on developing AI-enabled insulin pumps and automated drug delivery systems, catering to a growing population of individuals with type 2 diabetes. With current adoption rates around 5% and projections suggesting growth to 15% by 2027, the demand for technologically advanced insulin pumps is surging. This shift towards smart devices not only enhances patient care but also reflects the broader trend of digitization in healthcare, positioning the insulin pump market for robust expansion.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>• Introduction
+o Objectives of the Study
+o Definitions
+o Market Scope
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Sources
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Market Overview Outlook
+o Supply Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Dynamics
+ Drivers
+ Opportunities
+ Restraints
+ Challenges
+o Porters Analysis
+ Competitive rivalry
+ Threat of Substitute Products
+ Bargaining Power of Buyers
+ Threat of New Entrants
+ Bargaining Power of Suppliers
+• Key Market Insights
+o Key Success Factor
+o Degree of Competition
+o Top Investment Pockets
+o Ecosystem of the Market
+o PESTEL Analysis
+o Technology Analysis
+o Pricing Analysis
+o Supply Chain Analysis
+• Insulin Pump Market, By Type
+o Market Overview
+o Patch pumps
+o Tethered pumps
+• Insulin Pump Market, By Product
+o Market Overview
+o MiniMed
+o Accu-Chek
+o Tandem
+o Omnipod
+o Others
+• Insulin Pump Market, By Accessories
+o Market Overview
+o Insulin reservoir or cartridges
+o Insulin set insertion devices
+o Battery
+• Insulin Pump Market, By End Use
+o Market Overview
+o Hospitals &amp; clinics
+o Homecare
+o Laboratories
+• Insulin Pump Market Size by Region
+o Market Overview
+o North America
+ USA
+ Canada
+o Europe
+ Germany
+ Spain
+ France
+ UK
+ Italy
+ Rest of Europe
+o Asia Pacific
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia-Pacific
+o Latin America
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa (MEA)
+ GCC Countries
+ South Africa
+ Rest of MEA
+• Competitive Landscape
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Activities in the Market
+o Key Companies Market Share (%), 2023
+• Key Company Profiles
+o Medtronic (Ireland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hoffmann-La Roche AG (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tandem Diabetes Care, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Insulet Corporation (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ypsomed AG (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sanofi S.A. (France)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sooil Development (Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Jiangsu Delfu Co., Ltd. (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cellnovo Ltd. (UK)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Valeritas, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Debiotech S.A. (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CeQur Simplicity (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Microtec Medical Ltd. (UK)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ViCentra B.V. (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o EOFLOW CO., LTD. (Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Becton, Dickinson and Company (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Abbott Laboratories (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Braun Melsungen AG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Animus Corporation (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Asante (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nipro Diagnostic, Inc. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -631,37 +830,209 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>◦ Medtronic (Ireland)
+◦ Hoffmann-La Roche AG (Switzerland)
+◦ Tandem Diabetes Care, Inc. (US)
+◦ Insulet Corporation (US)
+◦ Ypsomed AG (Switzerland)
+◦ Sanofi S.A. (France)
+◦ Sooil Development (Korea)
+◦ Jiangsu Delfu Co., Ltd. (China)
+◦ Cellnovo Ltd. (UK)
+◦ Valeritas, Inc. (US)
+◦ Debiotech S.A. (Switzerland)
+◦ CeQur Simplicity (Switzerland)
+◦ Microtec Medical Ltd. (UK)
+◦ ViCentra B.V. (Netherlands)
+◦ EOFLOW CO., LTD. (Korea)
+◦ Becton, Dickinson and Company (US)
+◦ Abbott Laboratories (US)
+◦ Braun Melsungen AG (Germany)
+◦ Animus Corporation (US)
+◦ Asante (US)
+◦ Nipro Diagnostic, Inc. (Japan)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>By Type (Patch pumps, and Tethered pumps), By Product (MiniMed, Accu-Chek, Tandem, Omnipod, and others), By Accessories (Insulin Eeservoir or Cartridges, Insulin Set Insertion Devices, and Battery), By End Use (Hospitals &amp; Clinics, Homecare, and Laboratories)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6 Market Size, Share, Growth Analysis, By Offering (Hardware, Solution), By Type (Indoor, And Outdoor), By Application (Immersive Technologies, HD Video Streaming &amp; Video Conferencing), By Vertical (Education, Healthcare &amp; Life Sciences), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>SQMIG45I2128</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wi-fi-6-market</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Global Wi-Fi 6 Market size was valued at USD 4.41 billion in 2022 and is poised to grow from USD 5.70 billion in 2023 to USD 44.53 billion by 2031, growing at a CAGR of 29.3 % in the forecast period (2024-2031).
+The Wi-Fi 6 market is poised for significant growth, driven by its ability to deliver faster, more reliable connectivity and manage high volumes of network traffic. This technology can connect numerous devices, including smartphones, laptops, cameras, smart speakers, and various Internet of Things (IoT) devices, ensuring seamless communication among them. The integration of virtual assistants like Siri, Alexa, and Google Assistant into Wi-Fi 6 routers is creating lucrative revenue opportunities, as these devices enhance the functionality of smart home technologies, including smart stereos and TVs, enriching the user experience. Additionally, the manufacturing sector's increasing adoption of advanced technologies—such as wireless cameras, collaborative robots, and AR/VR—necessitates robust wireless connectivity for uninterrupted operation. Furthermore, the rise of e-learning solutions in educational institutions worldwide demands a cohesive network infrastructure to support continuous services. As a result, the US Wi-Fi 6 market is expected to exhibit sustainable growth at a steady compound annual growth rate (CAGR) in the upcoming forecast year, positioning it as a pivotal player in the evolving tech landscape. This growth trend highlights the critical role of Wi-Fi 6 in supporting the expanding ecosystem of connected devices across various sectors.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Wi-Fi 6 market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Wi-Fi 6 Market Segmental Analysis
+Global Wi-Fi 6 Market is segmented on the basis of offering, type, application, vertical, and region. By offering, market is segmented into hardware, solution, and services. By type, market is segmented into indoor, and outdoor. By application, market is segmented into immersive technologies, HD video streaming &amp; video conferencing, smart home devices, IoT &amp; industry 4.0, telemedicine, public wi-fi &amp; dense environments, and other applications. By vertical, market is segmented into education, healthcare &amp; life sciences, retail &amp; ecommerce, government &amp; public sector, travel &amp; hospitality, transportation &amp; logistics, manufacturing, media &amp; entertainment, residential, and other verticals. By region, the market is segmented into North America, Europe, Asia Pacific, Middle East and Africa, and Latin America.
+Driver of the Global Wi-Fi 6 Market
+The accelerating global demand for Wi-Fi 6 is primarily driven by the significant increase in internet users facilitated by the proliferation of smartphones and enhanced connectivity options. As more individuals connect to the internet, telecom service providers are presented with lucrative economic opportunities. To remain competitive, these providers must not only enhance latency and bandwidth but also ensure robust network uptime. Consequently, telecom companies are heavily investing in advanced Wi-Fi solutions that offer improved bandwidth, security, and reliability. This influx of investments in wireless network infrastructure is anticipated to fuel substantial growth in the Global Wi-Fi 6 market, catering to the escalating connectivity demands of consumers and businesses alike.
+Restraints in the Global Wi-Fi 6 Market
+The Global Wi-Fi 6 market faces significant restraints stemming from challenges such as co-channel interference and contention loss, particularly in developed regions like North America, Europe, and select APAC countries. Co-channel interference arises when multiple Access Points (APs) operate on the same Radio Frequency (RF) channel, degrading network performance. Simultaneously, contention loss occurs when a high density of users attempts to connect to a single AP, leading to network congestion. As new networks are deployed, the complexities of network mapping can further exacerbate performance issues in areas already saturated with Wi-Fi solutions, complicating decisions regarding the optimal installation of new APs and impacting overall service quality.
+Market Trends of the Global Wi-Fi 6 Market
+The Global Wi-Fi 6 market is witnessing a significant upward trend, fueled by the increasing adoption of IoT applications within intelligent infrastructure and smart cities. As businesses seek to enhance operational efficiency and customer experiences through AI and 5G technologies, the demand for advanced connectivity solutions is surging. Wi-Fi 6, with its capabilities to support higher device densities and improved performance, is becoming essential for enterprises looking to implement specialized smart solutions in industrial electronics. Significant investments in both new and upgraded Wi-Fi 6 infrastructure are expected to drive market growth, positioning it as a critical enabler of innovation and smarter corporate environments.</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>By Type (Local search, Hosted search, and Search appliance), By End Use (Government &amp; Commercial, Banking &amp; Financial, Healthcare, Retail, Media, Manufacturing, and Others), By Enterprise Size (Small, Medium, and Large)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>By Offering (Solution, services, hardware), By Type (Indoor, outdoor), By Application (Immersive technologies, HD video streaming &amp; video conferencing, Smart Home Devices, IoT &amp; industry 4.0, Telemedicine, Public Wi-fi &amp; Dense Environments, and Other Applications), By Vertical (Education, Healthcare &amp; Life Sciences, Retail &amp; E-commerce, Government &amp; Public Sector, Travel &amp; Hospitality, Transportation &amp; Logistics, Manufacturing, Media &amp; Entertainment, Residential, and other verticals)</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>29.3%</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Failed URLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biosurgery-market</t>
         </is>
       </c>
     </row>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,9 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,59 +554,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Virtual Data Room Market Size, Share, Growth Analysis, By Offering (Software, Services), By Document Type (Financial Statements, Contracts &amp; Agreements), By Technology (Data Storage &amp; Management, Security), By Application (Document Management, Franchise Management), By End User (Business Sector, Role Specific Users), By Region - Industry Forecast 2024-2031</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SQMIG45J2071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/virtual-data-room-market</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Automotive Wiring Harness Market Size, Share, Growth Analysis, By Category(General Wires, Heat-Resistant Wires, Shielded Wires, Tubed Wires), By Propulsion Type(ICE, EV), By Application, for ICE Vehicles(Seat Harness, Engine Harness, Chassis Harness, Body &amp; Lighting Harness), By Component, for ICE Vehicles(Connectors, Wires, Terminals, Others), By Material Type, for ICE Vehicles(Metallic (Copper, Aluminum, Other Materials), Optical Fiber (Plastic Optical Fiber (POF)), By ICE Vehicles Type and Application(Passenger Car (Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness), By Transmission Type, for ICE Vehicles(Data Transmission, Electrical Wiring), By Transmission Type, for Electric Vehicles(Data Transmission, Electrical Wiring), By Material Type, for Electric Vehicles(Metallic (Copper, Aluminum, Other Materials), Optical Fiber (Plastic Optical Fiber (POF)), By Application(Battery &amp; Battery Management, Motor Management), By Data Transfer Rate(&lt;150 Mbps, 150 Mbps To 1 Gbps), By Type and Application, for Electric vehicles(Battery Electric Vehicle (BEV) (Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness), By Region  - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SQMIG25A2164</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-wiring-harness-market</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>5300</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>7100</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Virtual Data Room Market size was valued at USD 1.7 billion in 2022 and is poised to grow from USD 2.1 billion in 2023 to USD 7.57 billion by 2031, growing at a CAGR of 18.2% during the forecast period (2024-2031).
-The virtual data room (VDR) market is poised for substantial growth, driven primarily by the escalating demand for robust security solutions among enterprises and legal entities tasked with handling sensitive information. With businesses increasingly requiring a secure means of storing and transmitting confidential data—such as client information, contracts, and negotiations—VDRs offer a reliable platform that facilitates document management on a global scale. Their advantages, including secure document storage, real-time transfers, and integration with various databases, make them particularly attractive across multiple sectors. For instance, the clinical research and medical device industries, which need to uphold strict confidentiality around patient data during biomedical studies, are increasingly reliant on these platforms. As these organizations seek to maintain control over sensitive information, the relevance of virtual data rooms is set to intensify. Looking ahead, from 2024 to 2031, the demand for VDR solutions is projected to rise further, providing patent owners with a secure environment for sharing proprietary materials with potential partners, thus streamlining various licensing agreements. This anticipated growth underscores the critical role VDRs will play in ensuring data security and facilitating collaborative efforts in a range of industries.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Virtual Data Room market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Virtual Data Room Market Segmental Analysis
-Global Virtual Data Room Market is segmented by Offering, Document Type, Technology, Application, End User and Region. Based on Offering, the market is segmented into Software by Type (AI Contract Analytics, Document Sharing System, AI-assisted Redaction, Audit Trials and User Analytics, Collaboration Tools, AI Translation), Software by Deployment Mode (Cloud, On-Premises), Services (Professional Services (Consulting &amp; Advisory, Integration &amp; Deployment, Data Room Training, Asset Onboarding &amp; Data Migration), Managed Services). Based on Document Type, the market is segmented into Financial Statements, Contracts &amp; Agreements, Legal &amp; Corporate Governance, Intellectual Property (IP) &amp; Employee Records, Others. Based on Technology, the market is segmented into Data Storage &amp; Management (Cloud Computing, Database Management, Content Management), Security (Encryption, Digital Rights Management (DRM), Firewall and Intrusion Detection Systems (IDS), Multi-Factor Authentication (MFA), Data Loss Prevention), Classification &amp; Collaboration (Secure Messaging and Q&amp;A Modules, Version Control, Metadata Tagging &amp; Categorization, Automated Document Classification), Intelligence &amp; Search (Artificial Intelligence, Natural Language Processing, Optical Character Recognition). Based on Application, the market is segmented into M&amp;A Due Diligence, Document Management, Franchise Management, Audit, Risk and Compliance Management, Access Control &amp; Permission Management, Asset &amp; Workflow Management, Fundraising and IP Management, Auto-Forwarding and Topics Mapping, Others. Based on End User, the market is segmented into Business Sector (Financial Services, Legal &amp; Law Firms, Accounting &amp; Auditing Firms, Tech Firms, Corporate Enterprises (Real Estate, Healthcare, Pharmaceuticals &amp; Life Science, Manufacturing, Others)), Role Specific Users (Investors, Financial Analysts, Auditors &amp; Accountants, Consulting Firms, Others). Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
-Driver of the Virtual Data Room Market
-The rising complexity and frequency of cyber-attacks have emerged as a significant market driver for the Virtual Data Room (VDR) market. As organizations face the escalating threat of ransomware and data breaches, there is an urgent need for robust data security solutions. Companies are prioritizing enhanced security features, such as end-to-end encryption, secure user authentication, and customizable access controls—essential offerings of VDRs. This heightened focus on safeguarding sensitive information is especially critical in industries such as finance, healthcare, and legal, where confidentiality is paramount. Consequently, as businesses engage in transactions requiring secure data sharing, the demand for VDRs surges, positioning them as indispensable tools in the modern corporate landscape.
-Restraints in the Virtual Data Room Market
-The Virtual Data Room (VDR) market faces significant restraint due to the high implementation and operational costs associated with these solutions, particularly affecting small and medium-sized enterprises (SMEs). Potential users often view the expenses related to software licenses, user training, and ongoing maintenance as prohibitive, leading to hesitation in committing resources to VDR platforms. This perception of expense drives SMEs to explore alternative solutions, thereby limiting the overall market penetration of VDRs. Consequently, providers are encouraged to develop simplified and more accessible pricing structures to alleviate financial concerns and attract a broader customer base, particularly among cost-sensitive organizations.
-Market Trends of the Virtual Data Room Market
-The Virtual Data Room (VDR) market is witnessing significant growth driven by the integration of Machine Learning and AI, enhancing data organization and searchability for users. This technological evolution enables businesses to streamline document processing and gain invaluable insights into user interactions, fostering improved decision-making. Concurrently, the increasing complexity of data protection laws necessitates a heightened focus on compliance, prompting VDR providers to adapt their solutions to meet stringent regulations like GDPR and HIPAA. As organizations prioritize compliance and productivity, the demand for advanced, secure VDRs is projected to rise, solidifying their role as indispensable tools for enhancing operational efficiency and customer loyalty.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Report details not available.</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -627,103 +624,147 @@
  Threat of New Entrants
  Bargaining Power of Suppliers
 • Key Market Insights
-o Technology Analysis
-o Evolution of Virtual Data Room Market
-o Value Chain Analysis
-o Ecosystem of the Market
-o Patent Analysis
-o Pricing Analysis
-o Customer &amp; Buying Criteria Analysis
-o Case Study Analysis
- ACI used Vitrium Security Enterprise to prevent unauthorized access and sharing documentation.
- Fastest Labs boosted efficiency and saved money with Pandadoc and HubSpot integration.
- Legaltech startup ThoughtRiver conducted due diligence and effective investor follow-ups using Digify.
- Oaknorth Bank used EthosData Virtual Dataroom for secure communication.
- Transforming HSH real estate transactions with Intralinks Virtual Data Room.
-o Impact of Generative AI on Virtual Data Room Market
-o Regulatory Landscape
-o Innovation Matrix
-o Top Investment Analysis
 o Key Success Factor
 o Degree of Competition
-• Virtual Data Room Market by Offering
-o Market Overview
-o Software by Type
- AI Contract Analytics
- Document Sharing System
- AI-assisted Redaction
- Audit Trials and User Analytics
- Collaboration Tools
- AI Translation
-o Software by Deployment Mode
- Cloud
- On-Premises
-o Services
- Professional Services
- Consulting &amp; Advisory
- Integration &amp; Deployment
- Data Room Training
- Asset Onboarding &amp; Data Migration
- Managed Services
-• Virtual Data Room Market by Document Type
-o Market Overview
-o Financial Statements
-o Contracts &amp; Agreements
-o Legal &amp; Corporate Governance
-o Intellectual Property (IP) &amp; Employee Records
+o Top Investment Pockets
+o Ecosystem of the Market
+o Regulatory Landscape
+o Trade Analysis
+o Case Study Analysis
+o Patent Analysis
+o Supply Chain Analysis
+o Pricing Analysis
+o Technology Trends
+o Customer &amp; Buying Criteria Analysis
+• Automotive Wiring Harness Market, By Category
+o Market Overview
+o General Wires
+o Heat-Resistant Wires
+o Shielded Wires
+o Tubed Wires
+• Automotive Wiring Harness Market, By Propulsion Type
+o ICE
+o EV
+• Automotive Wiring Harness Market for ICE Vehicles, By Application
+o Market Overview
+o Seat Harness
+o Engine Harness
+o Chassis Harness
+o Body &amp; Lighting Harness
+o Hvac Harness
+o Dashboard/Cabin Harness
+o Battery Harness
+o Sunroof Harness
+o Door Harness
+• Automotive Wiring Harness Market for ICE Vehicles, By Component
+o Market Overview
+o Connectors
+o Wires
+o Terminals
 o Others
-• Virtual Data Room Market by Technology
-o Market Overview
-o Data Storage &amp; Management
- Cloud Computing
- Database Management
- Content Management
-o Security
- Encryption
- Digital Rights Management (DRM)
- Firewall and Intrusion Detection Systems (IDS)
- Multi-Factor Authentication (MFA)
- Data Loss Prevention
-o Classification &amp; Collaboration
- Secure Messaging and Q&amp;A Modules
- Version Control
- Metadata Tagging &amp; Categorization
- Automated Document Classification
-o Intelligence &amp; Search
- Artificial Intelligence
- Natural Language Processing
- Optical Character Recognition
-• Virtual Data Room Market by Application
-o Market Overview
-o M&amp;A Due Diligence
-o Document Management
-o Franchise Management
-o Audit, Risk and Compliance Management
-o Access Control &amp; Permission Management
-o Asset &amp; Workflow Management
-o Fundraising and IP Management
-o Auto-Forwarding and Topics Mapping
-o Others
-• Virtual Data Room Market by End User
-o Market Overview
-o Business Sector
- Financial Services
- Legal &amp; Law Firms
- Accounting &amp; Auditing Firms
- Tech Firms
- Corporate Enterprises
- Real Estate
- Healthcare
- Pharmaceuticals &amp; Life Science
- Manufacturing
- Others
-o Role Specific Users
- Investors
- Financial Analysts
- Auditors &amp; Accountants
- Consulting Firms
- Others
-• Virtual Data Room Market Size by Region
+• Automotive Wiring Harness Market for ICE Vehicles, By Material Type
+o Market Overview
+o Metallic
+ Copper
+ Aluminum
+ Other Materials
+o Optical Fiber
+ Plastic Optical Fiber
+ Glass Optical Fiber
+• Automotive Wiring Harness Market, By ICE Vehicle Type and Application
+o Market Overview
+o Passenger Car
+ Engine Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ HVAC Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Seat Harness
+ Sunroof Harness
+ Door Harness
+o Light Commercial Vehicle
+ Engine Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ HVAC Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Door Harness
+o Bus
+ Engine Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ HVAC Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Door Harness
+o Truck
+ Engine Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ HVAC Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Door Harness
+• Automotive Wiring Harness Market for ICE Vehicles, By Transmission Type
+o Market Overview
+o Data Transmission
+o Electrical Wiring
+• Automotive Wiring Harness Market for Electric Vehicles, By Transmission Type
+o Market Overview
+o Data Transmission
+o Electrical Wiring
+• Automotive Wiring Harness Market for Electric Vehicles, By Material Type
+o Market Overview
+o Metallic
+ Copper
+ Aluminum
+ Other Materials
+o Optical Fiber
+ Plastic Optical Fiber (POF)
+ Glass Optical Fiber (GOF)
+• High-Voltage Wiring Harness Market, By Application
+o Market Overview
+o Battery &amp; Battery Management
+o Motor Management
+• Data Transmission Harness Market, By Data Transfer Rate
+o Market Overview
+o &lt;150 Mbps
+o 150 Mbps To 1 Gbps
+• Automotive Wiring Harness Market for Electric Vehicles, By Type And Application
+o Market Overview
+o Battery Electric Vehicle (BEV)
+ Chassis Harness
+ Body &amp; Lighting Harness
+ Hvac Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Seat Harness
+ Sunroof Harness
+ Door Harness
+o Plug-In Hybrid Electric Vehicle (PHEV)
+ Traction Harness
+ Engine Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ Hvac Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Seat Harness
+ Sunroof Harness
+ Door Harness
+o Fuel Cell Electric Vehicle (FCEV)
+ Traction Harness
+ Chassis Harness
+ Body &amp; Lighting Harness
+ Hvac Harness
+ Dashboard/Cabin Harness
+ Battery Harness
+ Seat Harness
+ Sunroof Harness
+ Door Harness
+• Automotive Wiring Harness Market Size by Region
 o Market Overview
 o North America
  USA
@@ -755,136 +796,136 @@
 o Recent Activities in the Market
 o Key Companies Market Share (%), 2023
 • Key Company Profiles
-o SS&amp;C Technologies
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Box
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Datasite
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Thomson Reuters
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Donnelley Financial Solutions
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Microsoft
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Google
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ansarada
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o PandaDoc
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Egnyte
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o iDeals
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o SmartRoom
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Vitrium Systems
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o ShareVault
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o FORDATA
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o EthosData
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o CapLinked
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Imprima
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Midaxo
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o FuseBase
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o FirmsData
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Confiex Data Room
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Drooms
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Bit.ai
+o Sumitomo Electric Industries, Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yazaki Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Aptiv Plc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Leoni AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Furukawa Electric
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lear Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fujikura Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Motherson Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Gebauer &amp; Griller Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Prysmian Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kromberg &amp; Schubert Gmbh
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lisa Dräxlmaier GmbH
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Amphenol Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Coroplast Fritz Müller Gmbh &amp; Co. KG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Onamba Co. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Spark Minda
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tianhai Auto Electronics Group Co., Ltd. (Thb Electronics)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yura Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Saison Electronics Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shenzhen Deren Electronics
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Unity Harness Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Metair Investments
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Brasmotor Group,
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Thai Summit Group
  Company Overview
  Business Segment Overview
  Financial Updates
  Key Developments</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -902,63 +943,35 @@
 ◦ South Africa</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>◦ SS&amp;C Technologies
-◦ Box
-◦ Datasite
-◦ Thomson Reuters
-◦ Donnelley Financial Solutions
-◦ Microsoft
-◦ Google
-◦ Ansarada
-◦ PandaDoc
-◦ Egnyte
-◦ iDeals
-◦ SmartRoom
-◦ Vitrium Systems
-◦ ShareVault
-◦ FORDATA
-◦ EthosData
-◦ CapLinked
-◦ Imprima
-◦ Midaxo
-◦ FuseBase
-◦ Onit
-◦ FirmsData
-◦ Confiex Data Room
-◦ Drooms
-◦ Bit.ai</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>By Offering (Software by Type (AI Contract Analytics, Document Sharing System, AI-assisted Redaction, Audit Trials and User Analytics, Collaboration Tools, AI Translation), Software by Deployment Mode (Cloud, On-Premises), Services (Professional Services (Consulting &amp; Advisory, Integration &amp; Deployment, Data Room Training, Asset Onboarding &amp; Data Migration), Managed Services)), By Document Type (Financial Statements, Contracts &amp; Agreements, Legal &amp; Corporate Governance, Intellectual Property (IP) &amp; Employee Records, Others), By Technology (Data Storage &amp; Management (Cloud Computing, Database Management, Content Management), Security (Encryption, Digital Rights Management (DRM), Firewall and Intrusion Detection Systems (IDS), Multi-Factor Authentication (MFA), Data Loss Prevention), Classification &amp; Collaboration (Secure Messaging and Q&amp;A Modules, Version Control, Metadata Tagging &amp; Categorization, Automated Document Classification), Intelligence &amp; Search (Artificial Intelligence, Natural Language Processing, Optical Character Recognition)), By Application (M&amp;A Due Diligence, Document Management, Franchise Management, Audit, Risk and Compliance Management, Access Control &amp; Permission Management, Asset &amp; Workflow Management, Fundraising and IP Management, Auto-Forwarding and Topics Mapping, Others), By End User (Business Sector (Financial Services, Legal &amp; Law Firms, Accounting &amp; Auditing Firms, Tech Firms, Corporate Enterprises (Real Estate, Healthcare, Pharmaceuticals &amp; Life Science, Manufacturing, Others)), Role Specific Users (Investors, Financial Analysts, Auditors &amp; Accountants, Consulting Firms, Others))</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>18.2%</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>USD Billion</t>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>By Category (General Wires, Heat-Resistant Wires, Shielded Wires, Tubed Wires), By Propulsion Type (ICE, EV), By Application, for ICE Vehicles (Seat Harness, Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Sunroof Harness, Door Harness), By Component, for ICE Vehicles (Connectors, Wires, Terminals, Others), By Material Type, for ICE Vehicles (Metallic (Copper, Aluminum, Other Materials), Optical Fiber (Plastic Optical Fiber (POF), Glass Optical Fiber (GOF))), By ICE Vehicles Type and Application (Passenger Car (Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Seat Harness, Sunroof Harness, Door Harness), Light Commercial Vehicle (Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Door Harness), Bus (Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Door Harness), Truck (Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Door Harness)), By Transmission Type, for ICE Vehicles (Data Transmission, Electrical Wiring), By Transmission Type, for Electric Vehicles (Data Transmission, Electrical Wiring), By Material Type, for Electric Vehicles (Metallic (Copper, Aluminum, Other Materials), Optical Fiber (Plastic Optical Fiber (POF), Glass Optical Fiber (GOF))), By Application (Battery &amp; Battery Management, Motor Management), By Data Transfer Rate (&lt;150 Mbps, 150 Mbps To 1 Gbps), By Type and Application, for Electric vehicles (Battery Electric Vehicle (BEV) (Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Seat Harness, Sunroof Harness, Door Harness), Plug-In Hybrid Electric Vehicle (PHEV) (Traction Harness, Engine Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Seat Harness, Sunroof Harness, Door Harness), Fuel Cell Electric Vehicle (FCEV) (Traction Harness, Chassis Harness, Body &amp; Lighting Harness, HVAC Harness, Dashboard/Cabin Harness, Battery Harness, Seat Harness, Sunroof Harness, Door Harness))</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>51975.95392</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>67915.16</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>USD Million</t>
         </is>
       </c>
     </row>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,9 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,59 +554,178 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Aerostructure Market Size, Share, Growth Analysis, By Component (Fuselages, Empennages), By Structure Type (Fixed-Wing, Rotary-Wing), By Aircraft Type (Commercial Aviation, Business &amp; General Aviation), By Material, By End User, By Region - Industry Forecast 2024-2031</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SQMIG20A2188</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/aerostructure-market</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Low Earth Orbit (LEO) Satellites Market Size, Share, Growth Analysis, By Satellite Type (Small Satellite, Cube Satellite), By End Use (Commercial, Government &amp; Military), By Sub-System (Satellite Bus, Payloads), By Region -Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SQMIG45H2072</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/low-earth-orbit-%28leo%29-satellites-market</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Global Low Earth Orbit (LEO) Satellites Market size was valued at USD 9.9 Billion in 2022 poised to grow from USD 11.56 Billion in 2023 to USD 40.04 Billion by 2031, growing at a CAGR of 16.80% in the forecast period (2024-2031).
+The demand for high-speed internet connectivity is surging, spurred by advancements in satellite communications and the emergence of innovative applications and services. The low earth orbit (LEO) satellite market is experiencing rapid growth due to the deployment of mega-constellations—hundreds of small satellites providing global broadband access. Key players like SpaceX's Starlink, OneWeb, and Amazon's Project Kuiper are focused on delivering affordable internet to underserved regions, aiming to bridge the digital divide. An essential trend includes the establishment of interoperable LEO networks, enabling seamless integration with existing communication systems. This interoperability enhances connectivity for various applications such as emergency response, maritime, aviation, and IoT. Increasing demand for earth observation and remote sensing, driven by interests in precision agriculture and climate monitoring, further fuels the growth of the LEO satellite market.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Low Earth Orbit (Leo) Satellites market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Low Earth Orbit (Leo) Satellites Market Segmental Analysis
+The global low earth orbit (LEO) satellites market is segmented based on satellite type, end use, sub-system, and region. In terms of satellite type, the market is grouped into small satellite, medium satellite, large satellite, and cube satellite. Based on end use, the market is trifurcated into commercial, government &amp; military, and dual use. Based on sub-system, the market is grouped into satellite bus, payloads, solar panels, and satellite antenna. Based on region, the market is segmented into North America, Europe, Asia-Pacific, Central &amp; South America and the Middle East &amp; Africa.
+Driver of the Global Low Earth Orbit (Leo) Satellites Market
+One of the primary drivers fueling the growth of the global low Earth orbit (LEO) satellite market is the significant reduction in launch costs. The advent of reusable rocket technology has made satellite launches more affordable, paving the way for increased access to space. Companies like SpaceX have become pivotal in this transformation, enhancing the efficiency of satellite deployment and contributing to the rapid expansion of satellite constellations. This cost-effective approach not only accelerates the proliferation of LEO satellites but also encourages innovation and competition within the sector, further propelling market advancements and opportunities.
+Restraints in the Global Low Earth Orbit (Leo) Satellites Market
+One of the primary challenges facing the global low Earth orbit (LEO) satellite market is the escalating issue of space debris. As the number of satellites being deployed in low Earth orbit continues to rise, the likelihood of collisions also increases, which poses significant risks to satellite operations. The presence of debris not only endangers the functionality of individual satellites but also threatens the long-term sustainability of space usage. Consequently, this proliferation of space debris emerges as a critical constraint on the growth potential of the LEO satellite sector, necessitating urgent attention to develop effective mitigation strategies.
+Market Trends of the Global Low Earth Orbit (Leo) Satellites Market
+The Global Low Earth Orbit (LEO) Satellites market is witnessing a robust trend driven by an escalating demand for universal connectivity, particularly for reliable and affordable low-latency internet. As technology advances and the need for seamless digital communication intensifies, numerous players are competing to deploy extensive constellations of LEO satellites. This initiative aims to provide high-speed broadband services to underserved areas, including remote and rural locations across the globe. The focus is on delivering effective solutions that bridge connectivity gaps and enhance internet access, thereby fueling investments and innovations within the LEO satellite sector to meet this burgeoning market demand.</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>By Satellite Type (Small Satellite, Medium Satellite, Large Satellite, and Cube Satellite), By End Use (Commercial, Government &amp; Military, and Dual Use), By Sub-System (Satellite Bus, Payloads, Solar Panels, and Satellite Antenna)</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>16.80%</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Potassium Formate Market Size, Share, Growth Analysis, By Form (Solid, Liquid), By Application (Oil Fields, Heat Transfer Fluid), By End User Industry (Oil &amp; Gas, Energy &amp; Power), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIG15A2409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>5300</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>7100</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Aerostructure Market size was valued at USD 57.22 billion in 2022 and is poised to grow from USD 61.00 billion in 2023 to USD 101.72 billion by 2031, growing at a CAGR of 6.6% during the forecast period (2024-2031).
-The aerostructure market is witnessing significant growth, driven by the rising demand for new aircraft and specific needs for replacement parts. Aerostructures, which include essential components like wings, fuselages, propulsion systems, and flight control surfaces, are critical for aircraft performance and stability. An increase in global air travel has prompted aerostructure manufacturers to enhance production for both commercial and military aircraft. Technological advancements are also transforming the industry, allowing for improved detection of material degradation and performance assessments through innovative monitoring techniques. Moreover, the growing utilization of composite materials is further fueling market expansion. As aerostructures play a pivotal role in operational efficiency, their importance in aerospace equipment manufacturing continues to escalate.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Aerostructure market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Aerostructure Market Segmental Analysis
-Global Aerostructures Market is segmented by component, structure type, aircraft type, material, end user and region. Based on component, the market is segmented into fuselages, empennages, flight control surfaces, wings, noses, acelles &amp; pylons, doors &amp; skids and others. Based on Structure Type, the market is segmented into Fixed-Wing, and Rotary-Wing. Based on aircraft type, the market is segmented into commercial aviation, business &amp; general aviation, military aviation, unmanned aerial vehicles, advanced air mobility. Based on material, the market is segmented into composites, alloys &amp; superalloys, and metals. Based on end user, the market is segmented into OEM, and aftermarket. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
-Driver of the Global Aerostructure Market
-One of the key factors fueling growth in the global aerostructures market is the rising demand for unmanned aerial vehicles (UAVs) across both military and commercial sectors. Heightened geopolitical tensions and border conflicts have escalated the need for advanced military UAVs, notably high-altitude long-endurance (HALE) and medium-altitude long-endurance (MALE) models, which enhance intelligence, surveillance, and reconnaissance (ISR) capabilities. These UAVs can operate for 24 to 48 hours at higher altitudes, significantly increasing mission efficiency. Additionally, the trend toward using composite materials in UAV construction—due to their superior performance characteristics, including toughness and durability—further propels market expansion. Composite materials like glass-reinforced plastics (GRP) and fibre-reinforced plastics (FRP) are preferred for crafting aircraft skins, offering lighter weight and improved strength over traditional metals, thereby contributing to reduced overall aircraft weight and enhanced operational capability.
-Restraints in the Global Aerostructure Market
-A significant restraint impacting the global aerostructure market is the difficulty in recycling composite materials, which are widely utilized for manufacturing aircraft structures due to their advantageous properties. However, the complex nature of these materials, often combined with other substances like foam cores, complicates their recycling. This challenge is anticipated to hinder market growth, as the recycling process becomes increasingly arduous, leading to potential issues in solid waste management in the coming years. Consequently, the inability to effectively recycle these composite materials poses a considerable barrier, potentially stalling advancements and innovations within the aerostructures sector.
-Market Trends of the Global Aerostructure Market
-The Global Aerostructure market is witnessing a significant trend towards the adoption of lightweight materials, driven by the need for enhanced fuel efficiency and improved performance in aircraft. Prominent manufacturers are increasingly utilizing advanced superalloys and composites, reflecting a burgeoning demand within the aviation sector. This shift is further accelerated by the integration of innovative technologies, including 3D printing and additive manufacturing, which not only streamline production processes but also enable the creation of complex geometries that traditional methods cannot achieve. As such, the emphasis on lightweight construction is poised to redefine manufacturing standards and propel growth in the aerostructure segment.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Potassium Formate Market size was valued at USD 716.40 million in 2022 and is poised to grow from USD 752.94 million in 2023 to USD 1120.93 million by 2031, growing at a CAGR of 5.1% during the forecast period (2024-2031).
+The global potassium formate market is experiencing consistent growth, fueled by its multifaceted applications across various sectors, including oil and gas, de-icing, and food processing. Key to the oil and gas industry, potassium formate serves as an effective drilling fluid additive, renowned for its high-temperature resistance and compatibility with other fluids, which is particularly vital in challenging environmental conditions. As exploration and production activities ramp up, the demand for potassium formate continues to rise. Furthermore, its role as an eco-friendly de-icing agent for roads and runways resonates with increasing global concerns over environmental impact, driving its adoption in several regions. Overall, these factors are significantly enhancing the market outlook for potassium formate.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Potassium Formate market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Potassium Formate Market Segmental Analysis
+Global Potassium Formate Market is segmented by form, application, end user industry and region. Based on form, the market is segmented into solid and liquid. Based on application, the market is segmented into oil fields (drilling fluid, completion fluid), de-icing agents (road de-icing, runway de-icing), heat transfer fluid, agricultural products and others (lubricants &amp; greases, anti-freeze). Based on end user industry, the market is segmented into oil &amp; gas, energy &amp; power, automotive, healthcare, aerospace, building &amp; construction, agriculture and others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Potassium Formate Market
+The Global Potassium Formate market is primarily driven by the expansion of the oil and gas sector, where potassium formate plays a significant role in drilling, completion, and workover fluids due to its ability to withstand high temperatures and compatibility with other drilling agents. This advantageous property makes it a preferred choice in challenging drilling situations. Moreover, the rising demand for eco-friendly de-icing solutions further propels the market, as potassium formate is recognized as a sustainable alternative to traditional de-icing agents. This combination of utility in oil extraction and environmental benefits is fueling the growth of the potassium formate market.
+Restraints in the Global Potassium Formate Market
+One significant restraint in the global potassium formate market is its heavy reliance on the oil and gas industry. This dependency poses risks, as demand for potassium formate can be directly influenced by the volatility of oil prices and the overall stability of the oil and gas sector. Economic uncertainties, coupled with geopolitical factors that affect oil production and exploration activities, can create unpredictability in the market. As a result, fluctuations in the oil industry can adversely affect potassium formate demand, making it vulnerable to external economic and political influences that are often beyond control.
+Market Trends of the Global Potassium Formate Market
+The Global Potassium Formate market is experiencing a significant trend driven by an increasing emphasis on sustainable and eco-friendly solutions, fueled by rising environmental concerns and stricter regulations. This shift has led to potassium formate gaining popularity, particularly in de-icing applications where its green properties offer an environmentally safe alternative. Additionally, the oil and gas sector's expanding exploration and production activities are further propelling the demand for potassium formate, particularly in drilling fluids, as industries seek efficient and sustainable materials. These combined factors are positioning potassium formate as a crucial player in the pursuit of greener practices across multiple sectors.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -631,83 +757,65 @@
 o Degree of Competition
 o Top Investment Pockets
 o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
 o Macro-Economic Indicators
-o Market Attractiveness Index
 o Value Chain Analysis
-o Regulatory Analysis
-o Technology Analysis
-o Use Case Analysis
+o Pricing Analysis
+o Regulatory Landscape
 o Patent Analysis
-• Global Aerostructures Market Size by Component &amp; CAGR (2024-2031)
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+o Trade Analysis
+o Startup Analysis
+• Global Potassium Formate Market Size by Form &amp; CAGR (2024-2031)
 o Market Overview
-o Fuselages
-o Empennages
-o Flight Control Surfaces
-o Wings
-o Noses
-o Acelles &amp; Pylons
-o Doors &amp; Skids
+o Solid
+o Liquid
+• Global Potassium Formate Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Oil Fields
+ Drilling Fluid
+ Completion Fluid
+o De-Icing Agents
+ Road De-Icing
+ Runway De-Icing
+o Heat Transfer Fluid
+o Agricultural Products
 o Others
-• Global Aerostructures Market Size by Structure Type &amp; CAGR (2024-2031)
+ Lubricants &amp; Greases
+ Anti-Freeze
+• Global Potassium Formate Market Size by End User Industry &amp; CAGR (2024-2031)
 o Market Overview
-o Fixed-Wing
-o Rotary-Wing
-• Global Aerostructures Market Size by Aircraft Type &amp; CAGR (2024-2031)
-o Market Overview
-o Commercial Aviation
- Narrow-Body Aircraft
- Wide-Body Aircraft
- Regional Jets
- Commercial Helicopters
-o Business &amp; General Aviation
- Business Jets
- Ultralight &amp; Light Aircraft
-o Military Aviation
- Fighter Aircraft
- Transport Aircraft
- Special Mission Aircraft
- Military Helicopters
-o Unmanned Aerial Vehicles
- Military
- Government &amp; Law
- Commercial
-o Advanced Air Mobility
- Air Taxis
- Air Shuttles &amp; Air Metros
- Personal Aerial Vehicles
- Cargo Air Vehicles
- Air Ambulances &amp; Medical Emergency Vehicles
- Last-Mile Delivery Vehicles
-• Global Aerostructures Market Size by Material &amp; CAGR (2024-2031)
-o Market Overview
-o Composites
-o Alloys &amp; Superalloys
-o Metals
-• Global Aerostructures Market Size by End User &amp; CAGR (2024-2031)
-o Market Overview
-o OEM
-o Aftermarket
-• Global Aerostructures Market Size &amp; CAGR (2024-2031)
-o North America, (Component, Structure Type, Aircraft Type, Material, End User)
+o Oil &amp; Gas
+o Energy &amp; Power
+o Automotive
+o Healthcare
+o Aerospace
+o Building &amp; Construction
+o Agriculture
+o Others
+• Global Potassium Formate Market Size &amp; CAGR (2024-2031)
+o North America, (Form, Application, End User Industry)
  US
  Canada
-o Europe, (Component, Structure Type, Aircraft Type, Material, End User)
+o Europe, (Form, Application, End User Industry)
  UK
  Germany
  Spain
  France
  Italy
  Rest of Europe
-o Asia-Pacific, (Component, Structure Type, Aircraft Type, Material, End User)
+o Asia-Pacific, (Form, Application, End User Industry)
  China
  India
  Japan
  South Korea
  Rest of Asia Pacific
-o Latin America, (Component, Structure Type, Aircraft Type, Material, End User)
+o Latin America, (Form, Application, End User Industry)
  Brazil
  Rest of Latin America
-o Middle East &amp; Africa, (Component, Structure Type, Aircraft Type, Material, End User)
+o Middle East &amp; Africa, (Form, Application, End User Industry)
  GCC Countries
  South Africa
  Rest of Middle East &amp; Africa
@@ -723,102 +831,62 @@
  Company’s Segmental Share Analysis
  Revenue Y-O-Y Comparison (2021-2023)
 • Key Company Profiles
-o AIRBUS SE (Netherlands)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Spirit AeroSystems Inc. (US)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Raytheon Technologies Corporation (US)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Leonardo S.p.A. (Italy)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o GKN plc (UK)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Safran SA (France)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Saab AB (Sweden)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o FACC AG (Austria)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Kawasaki Heavy Industries Ltd. (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o ST Engineering (Singapore)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Kaman Corporation (US)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o RUAG International Holding Ltd. (Switzerland)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Latécoère (France)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Elbit Systems Ltd. (Israel)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Triumph Group (US)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Korea Aerospace Industries Ltd. (South Korea)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Israel Aerospace Industries Ltd. (Israel)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Mitsubishi Heavy Industries Ltd. (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o AAR Corporation (US)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Aerospace Industrial Development Corporation (AIDC) (Taiwan)
+o BASF SE
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cabot Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Perstorp Holding AB
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Oxea GmbH
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Evonik Industries AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Honeywell International Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ICL (Israel Chemicals Ltd.)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Zibo Aiheng New Material Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shouguang Hengtong Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Addcon GmbH
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dynalene, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shandong Xinhai Technology Co., Ltd.
  Company Overview
  Business Segment Overview
  Financial Updates
@@ -826,14 +894,14 @@
 • Conclusion &amp; Recommendation</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -851,397 +919,50 @@
 ◦ South Africa</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>◦ AIRBUS SE (Netherlands)
-◦ Spirit AeroSystems Inc. (US)
-◦ Raytheon Technologies Corporation (US)
-◦ Leonardo S.p.A. (Italy)
-◦ GKN plc (UK)
-◦ Safran SA (France)
-◦ Saab AB (Sweden)
-◦ FACC AG (Austria)
-◦ Kawasaki Heavy Industries Ltd. (Japan)
-◦ ST Engineering (Singapore)
-◦ Kaman Corporation (US)
-◦ RUAG International Holding Ltd. (Switzerland)
-◦ Latécoère (France)
-◦ Elbit Systems Ltd. (Israel)
-◦ Triumph Group (US)
-◦ Korea Aerospace Industries Ltd. (South Korea)
-◦ Israel Aerospace Industries Ltd. (Israel)
-◦ Mitsubishi Heavy Industries Ltd. (Japan)
-◦ AAR Corporation (US)
-◦ Aerospace Industrial Development Corporation (AIDC) (Taiwan)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>By Component (Fuselages, Empennages, Flight Control Surfaces, Wings, Noses, Acelles &amp; Pylons, and Doors &amp; Skids), By Structure Type (Fixed-Wing, Rotary-Wing), By Aircraft Type (Commercial Aviation (Narrow-Body Aircraft, Wide-Body Aircraft, Regional Jets, Commercial Helicopters), Business &amp; General Aviation (Business Jets, and Ultralight &amp; Light Aircraft), Military Aviation (Fighter Aircraft, Transport Aircraft, Special Mission Aircraft, Military Helicopters), Unmanned Aerial Vehicles (Military, Government &amp; Law, Commercial), Advanced Air Mobility (Air Taxis, Air Shuttles &amp; Air Metros, Personal Aerial Vehicles, Cargo Air Vehicles, Air Ambulances &amp; Medical Emergency Vehicles, Last-Mile Delivery Vehicles)), By Material (Composites, Alloys &amp; Superalloys, and Metals), By End User (OEM, and Aftermarket)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>57.22</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>61.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>101.72</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>USD Billion</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Refrigerator Market Size, Share, Growth Analysis, By Technology (Inverter, Non - Inverter), By Product Type (Single Door, Double Door), By Freezer (Top Freezer, Convertibles), By Distribution Channel (Hypermarket/Supermarket, Online Sales Channel), By Region -Industry Forecast 2024-2031.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SQMIG25H2034</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/refrigerators-market</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5300</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Refrigerator Market size was valued at USD 81.2 billion in 2022 and is poised to grow from USD 86.23 billion in 2023 to USD 139.53 billion by 2031, growing at a CAGR of 6.20% during the forecast period (2024-2031).
-The refrigerator market is evolving rapidly, driven by the demand for innovative and high-end food storage solutions in both residential and commercial sectors. Manufacturers are focusing on developing luxurious and technologically advanced products to capture consumer interest. Key industry players such as Haier, Samsung, LG, and GE Appliances are employing merger and acquisition strategies to enhance their global presence through retail channels. Additionally, there is a significant shift towards sustainability, with companies increasingly designing eco-friendly refrigeration options that lower carbon footprints and promote environmental responsibility. These trends are poised to significantly boost the smart refrigerator market globally, as consumers seek modern solutions that align with their lifestyle choices and sustainability goals.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Refrigerator market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Refrigerator Market Segmental Analysis
-Global Refrigerator Market is segmented into Technology, Product Type, Freezer, Distribution Channel, Application, and Region. By Technology, the market is classified into Inverter, and Non - Inverter. Depending on the Product Type, it is categorized into Single Door, Double Door, Side by Side, French Door, and Others. According to Freezer, the market is divided into Top Freezer, Bottom Freezer, and Convertibles. Based on Distribution Channel, the market is segmented into Hypermarket/Supermarket, Specialty Stores, Online Sales Channel, and Others. Based on Application, the market is segmented into Household, and Commercial. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
-Driver of the Global Refrigerator Market
-The Global Refrigerator market is significantly driven by increasing demand, especially in urban regions, where sales volumes soar due to distinct consumer behaviors compared to rural areas. In India, urbanization plays a crucial role in driving refrigerator penetration, alongside rising household incomes and advancements in technology. As lifestyles evolve, consumers are showing a marked preference for smart refrigerators, reflecting their desire for modern conveniences. The surge in urban populations, particularly among high-income groups, is expected to further boost refrigerator demand throughout the forecast period, making it a dynamic market influenced by various socio-economic factors.
-Restraints in the Global Refrigerator Market
-The growth of the global refrigerator market is constrained by the elevated repair and maintenance expenses linked to premium refrigerating units, which can discourage buyers from lower-income groups. Additionally, a lack of accessible maintenance services for home appliances may hinder consumer interest in purchasing smart refrigerators. The intensified competition in the electric appliances sector further compounds these challenges, creating higher entry barriers for new players looking to enter the market. As a result, these factors collectively inhibit the overall expansion and accessibility of refrigeration products, especially among economically disadvantaged consumers.
-Market Trends of the Global Refrigerator Market
-The global refrigerator market is witnessing a significant trend driven by the rising demand for smart home and building infrastructure across residential and commercial sectors. As consumers seek higher efficiency and innovative features, manufacturers are launching advanced refrigeration products equipped with IoT connectivity, digital interfaces, and AI capabilities. For instance, Xiaomi's introduction of the Yunmi Internet Smart Freezer in December 2019 exemplifies this trend, showcasing sophisticated technologies aimed at enhancing user experience. This competitive landscape, with established players like Samsung and LG also innovating, reflects an increased consumer inclination towards smart refrigeration solutions, solidifying their prominence in the market.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>• Introduction
-o Objectives of the Study
-o Scope of the Report
-o Definitions
-• Research Methodology
-o Information Procurement
-o Secondary &amp; Primary Data Methods
-o Market Size Estimation
-o Market Assumptions &amp; Limitations
-• Executive Summary
-o Global Market Outlook
-o Supply &amp; Demand Trend Analysis
-o Segmental Opportunity Analysis
-• Market Dynamics &amp; Outlook
-o Market Overview
-o Market Size
-o Market Dynamics
- Driver &amp; Opportunities
- Restraints &amp; Challenges
-o Porters Analysis &amp; Impact
- Competitive rivalry
- Threat of substitute
- Bargaining power of buyers
- Threat of new entrants
- Bargaining power of suppliers
-• Key Market Insights
-o Key Success Factors
-o Degree of Competition
-o Top Investment Pockets
-o Market Ecosystem
-o Technological Advancement
-o Regulatory Landscape
-o Value Chain Analysis
-o Case Study Analysis
-o Customer &amp; Buying Criteria Analysis
-o PESTEL Analysis
-o Market Attractiveness Index
-o Supply Chain Analysis
-o Pricing Analysis
-• Global Refrigerator Market Size by Technology &amp; CAGR (2024-2031)
-o Market Overview
-o Inverter
-o Non - Inverter
-• Global Refrigerator Market Size by Product Type &amp; CAGR (2024-2031)
-o Market Overview
-o Single Door
-o Double Door
-o Side by Side
-o French Door
-o Others
-• Global Refrigerator Market Size by Freezer &amp; CAGR (2024-2031)
-o Market Overview
-o Top Freezer
-o Bottom Freezer
-o Convertibles
-• Global Refrigerator Market Size by Distribution Channel &amp; CAGR (2024-2031)
-o Market Overview
-o Hypermarket/Supermarket
-o Specialty Stores
-o Online Sales Channel
-o Others
-• Global Refrigerator Market Size by Application &amp; CAGR (2024-2031)
-o Market Overview
-o Household
-o Commercial
-• Global Refrigerator Market Size &amp; CAGR (2024-2031)
-o North America, (Technology, Product Type, Freezer, Distribution Channel, Application)
- US
- Canada
-o Europe, (Technology, Product Type, Freezer, Distribution Channel, Application)
- UK
- Germany
- Spain
- France
- Italy
- Rest of Europe
-o Asia-Pacific, (Technology, Product Type, Freezer, Distribution Channel, Application)
- China
- India
- Japan
- South Korea
- Rest of Asia Pacific
-o Latin America, (Technology, Product Type, Freezer, Distribution Channel, Application)
- Brazil
- Rest of Latin America
-o Middle East &amp; Africa, (Technology, Product Type, Freezer, Distribution Channel, Application)
- GCC Countries
- South Africa
- Rest of Middle East &amp; Africa
-• Competitive Intelligence
-o Top 5 Player Comparison
-o Market Positioning of Key Players, 2023
-o Strategies Adopted by Key Market Players
-o Recent Developments in the Market
-o Company Market Share Analysis, 2023
-o Company Profiles of All Key Players
- Company Details
- Product Portfolio Analysis
- Company’s Segmental Share Analysis
- Revenue Y-O-Y Comparison (2021-2023)
-• Key Company Profiles
-o LG Electronics
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o MIRC Electronics Limited
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Midea
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Panasonic Holdings Corporation
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o AB Electrolux
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Voltas Ltd.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Robert Bosch GmbH
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Liebherr-International AG
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Whirlpool Corporation
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Sub-Zero Group, Inc.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Hitachi, Ltd.,
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Viking Range LLC
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o True Manufacturing
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Thermador
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Monogram
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Kalamera
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Accucold
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o KoolMore
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Saba Refrigeration
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Kelvinator
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-• Conclusion &amp; Recommendation</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Consumer Discretionary</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>◦ USA
-◦ Canada
-◦ Germany
-◦ Spain
-◦ Italy
-◦ France
-◦ UK
-◦ China
-◦ India
-◦ Japan
-◦ South Korea
-◦ Brazil
-◦ GCC Countries
-◦ South Africa</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>◦ Haier
-◦ Whirlpool
-◦ Samsung
-◦ LG Electronics
-◦ Electrolux
-◦ Bosch
-◦ Panasonic
-◦ Sharp
-◦ Hitachi
-◦ Midea
-◦ Siemens
-◦ Godrej
-◦ Toshiba
-◦ Indesit
-◦ Liebherr
-◦ Smeg
-◦ Vestel
-◦ Arcelik
-◦ Fisher &amp; Paykel
-◦ General Electric</t>
+          <t>◦ BASF SE
+◦ Cabot Corporation
+◦ Perstorp Holding AB
+◦ Oxea GmbH
+◦ Evonik Industries AG
+◦ Honeywell International Inc.
+◦ ICL (Israel Chemicals Ltd.)
+◦ Zibo Aiheng New Material Co., Ltd.
+◦ Shouguang Hengtong Chemical Co., Ltd.
+◦ Addcon GmbH
+◦ Dynalene, Inc.
+◦ Shandong Xinhai Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>By Technology (Technology, Non-Inverter), By Product Type (Single Door, Double Door, Side by Side, French Door, Others), By Freezer (Top Freezer, Bottom Freezer, Convertibles), By Distribution Channel (Hypermarket/Supermarket, Specialty Stores, Online Sales Channel, Others), By Application (Household, Commercial)</t>
+          <t>By Form (Solid, Liquid), By Application (Oil Fields (Drilling Fluid, Completion Fluid), De-Icing Agents (Road De-Icing, Runway De-Icing), Heat Transfer Fluid, Agricultural Products, Others (Lubricants &amp; Greases, Anti-Freeze)), By End User Industry (Oil &amp; Gas, Energy &amp; Power, Automotive, Healthcare, Aerospace, Building &amp; Construction, Agriculture, Others)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>716.40</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>86.23</t>
+          <t>752.94</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>139.53</t>
+          <t>1120.93</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>USD Billion</t>
+          <t>USD Million</t>
         </is>
       </c>
     </row>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,178 +554,59 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Low Earth Orbit (LEO) Satellites Market Size, Share, Growth Analysis, By Satellite Type (Small Satellite, Cube Satellite), By End Use (Commercial, Government &amp; Military), By Sub-System (Satellite Bus, Payloads), By Region -Industry Forecast 2024-2031</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SQMIG45H2072</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/low-earth-orbit-%28leo%29-satellites-market</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Metal Cleaning Chemicals Market Size, Share, Growth Analysis, By Type (Aqueous, Solvent), By Composition (Acid Metal, Alkali Metal), By Ingredient Type, By Metal Type, By End User, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SQMIG15A2265</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metal-cleaning-chemicals-market</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>5300</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>7100</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Global Low Earth Orbit (LEO) Satellites Market size was valued at USD 9.9 Billion in 2022 poised to grow from USD 11.56 Billion in 2023 to USD 40.04 Billion by 2031, growing at a CAGR of 16.80% in the forecast period (2024-2031).
-The demand for high-speed internet connectivity is surging, spurred by advancements in satellite communications and the emergence of innovative applications and services. The low earth orbit (LEO) satellite market is experiencing rapid growth due to the deployment of mega-constellations—hundreds of small satellites providing global broadband access. Key players like SpaceX's Starlink, OneWeb, and Amazon's Project Kuiper are focused on delivering affordable internet to underserved regions, aiming to bridge the digital divide. An essential trend includes the establishment of interoperable LEO networks, enabling seamless integration with existing communication systems. This interoperability enhances connectivity for various applications such as emergency response, maritime, aviation, and IoT. Increasing demand for earth observation and remote sensing, driven by interests in precision agriculture and climate monitoring, further fuels the growth of the LEO satellite market.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Low Earth Orbit (Leo) Satellites market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Low Earth Orbit (Leo) Satellites Market Segmental Analysis
-The global low earth orbit (LEO) satellites market is segmented based on satellite type, end use, sub-system, and region. In terms of satellite type, the market is grouped into small satellite, medium satellite, large satellite, and cube satellite. Based on end use, the market is trifurcated into commercial, government &amp; military, and dual use. Based on sub-system, the market is grouped into satellite bus, payloads, solar panels, and satellite antenna. Based on region, the market is segmented into North America, Europe, Asia-Pacific, Central &amp; South America and the Middle East &amp; Africa.
-Driver of the Global Low Earth Orbit (Leo) Satellites Market
-One of the primary drivers fueling the growth of the global low Earth orbit (LEO) satellite market is the significant reduction in launch costs. The advent of reusable rocket technology has made satellite launches more affordable, paving the way for increased access to space. Companies like SpaceX have become pivotal in this transformation, enhancing the efficiency of satellite deployment and contributing to the rapid expansion of satellite constellations. This cost-effective approach not only accelerates the proliferation of LEO satellites but also encourages innovation and competition within the sector, further propelling market advancements and opportunities.
-Restraints in the Global Low Earth Orbit (Leo) Satellites Market
-One of the primary challenges facing the global low Earth orbit (LEO) satellite market is the escalating issue of space debris. As the number of satellites being deployed in low Earth orbit continues to rise, the likelihood of collisions also increases, which poses significant risks to satellite operations. The presence of debris not only endangers the functionality of individual satellites but also threatens the long-term sustainability of space usage. Consequently, this proliferation of space debris emerges as a critical constraint on the growth potential of the LEO satellite sector, necessitating urgent attention to develop effective mitigation strategies.
-Market Trends of the Global Low Earth Orbit (Leo) Satellites Market
-The Global Low Earth Orbit (LEO) Satellites market is witnessing a robust trend driven by an escalating demand for universal connectivity, particularly for reliable and affordable low-latency internet. As technology advances and the need for seamless digital communication intensifies, numerous players are competing to deploy extensive constellations of LEO satellites. This initiative aims to provide high-speed broadband services to underserved areas, including remote and rural locations across the globe. The focus is on delivering effective solutions that bridge connectivity gaps and enhance internet access, thereby fueling investments and innovations within the LEO satellite sector to meet this burgeoning market demand.</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>◦ USA
-◦ Canada
-◦ Germany
-◦ Spain
-◦ Italy
-◦ France
-◦ UK
-◦ China
-◦ India
-◦ Japan
-◦ South Korea
-◦ Brazil
-◦ GCC Countries
-◦ South Africa</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>By Satellite Type (Small Satellite, Medium Satellite, Large Satellite, and Cube Satellite), By End Use (Commercial, Government &amp; Military, and Dual Use), By Sub-System (Satellite Bus, Payloads, Solar Panels, and Satellite Antenna)</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>40.04</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>16.80%</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>USD Billion</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Potassium Formate Market Size, Share, Growth Analysis, By Form (Solid, Liquid), By Application (Oil Fields, Heat Transfer Fluid), By End User Industry (Oil &amp; Gas, Energy &amp; Power), By Region - Industry Forecast 2024-2031</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SQMIG15A2409</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5300</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Potassium Formate Market size was valued at USD 716.40 million in 2022 and is poised to grow from USD 752.94 million in 2023 to USD 1120.93 million by 2031, growing at a CAGR of 5.1% during the forecast period (2024-2031).
-The global potassium formate market is experiencing consistent growth, fueled by its multifaceted applications across various sectors, including oil and gas, de-icing, and food processing. Key to the oil and gas industry, potassium formate serves as an effective drilling fluid additive, renowned for its high-temperature resistance and compatibility with other fluids, which is particularly vital in challenging environmental conditions. As exploration and production activities ramp up, the demand for potassium formate continues to rise. Furthermore, its role as an eco-friendly de-icing agent for roads and runways resonates with increasing global concerns over environmental impact, driving its adoption in several regions. Overall, these factors are significantly enhancing the market outlook for potassium formate.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Potassium Formate market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Potassium Formate Market Segmental Analysis
-Global Potassium Formate Market is segmented by form, application, end user industry and region. Based on form, the market is segmented into solid and liquid. Based on application, the market is segmented into oil fields (drilling fluid, completion fluid), de-icing agents (road de-icing, runway de-icing), heat transfer fluid, agricultural products and others (lubricants &amp; greases, anti-freeze). Based on end user industry, the market is segmented into oil &amp; gas, energy &amp; power, automotive, healthcare, aerospace, building &amp; construction, agriculture and others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
-Driver of the Global Potassium Formate Market
-The Global Potassium Formate market is primarily driven by the expansion of the oil and gas sector, where potassium formate plays a significant role in drilling, completion, and workover fluids due to its ability to withstand high temperatures and compatibility with other drilling agents. This advantageous property makes it a preferred choice in challenging drilling situations. Moreover, the rising demand for eco-friendly de-icing solutions further propels the market, as potassium formate is recognized as a sustainable alternative to traditional de-icing agents. This combination of utility in oil extraction and environmental benefits is fueling the growth of the potassium formate market.
-Restraints in the Global Potassium Formate Market
-One significant restraint in the global potassium formate market is its heavy reliance on the oil and gas industry. This dependency poses risks, as demand for potassium formate can be directly influenced by the volatility of oil prices and the overall stability of the oil and gas sector. Economic uncertainties, coupled with geopolitical factors that affect oil production and exploration activities, can create unpredictability in the market. As a result, fluctuations in the oil industry can adversely affect potassium formate demand, making it vulnerable to external economic and political influences that are often beyond control.
-Market Trends of the Global Potassium Formate Market
-The Global Potassium Formate market is experiencing a significant trend driven by an increasing emphasis on sustainable and eco-friendly solutions, fueled by rising environmental concerns and stricter regulations. This shift has led to potassium formate gaining popularity, particularly in de-icing applications where its green properties offer an environmentally safe alternative. Additionally, the oil and gas sector's expanding exploration and production activities are further propelling the demand for potassium formate, particularly in drilling fluids, as industries seek efficient and sustainable materials. These combined factors are positioning potassium formate as a crucial player in the pursuit of greener practices across multiple sectors.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Metal Cleaning Chemicals Market size was valued at USD 13.8 billion in 2022 and is poised to grow from USD 14.4 billion in 2023 to USD 20.9 billion by 2031, growing at a CAGR of 4.7% during the forecast period (2024-2031).
+The global metal cleaning chemicals market is on an upward trajectory, fueled by industrialization and urbanization, particularly in Asia Pacific, which leads due to booming manufacturing and automotive sectors. Key drivers include stringent environmental regulations and heightened safety standards, alongside robust demand from automotive and aerospace industries. The market features a variety of chemical solutions, including aqueous, solvent-based, and acid-based cleaners, with aqueous options gaining traction for their eco-friendliness. Automotive manufacturing, maintenance, and repair processes significantly influence market share, while growing sectors like electronics and healthcare necessitate corrosion-resistant metal surfaces. Major players prioritize innovation and strategic collaborations, although challenges like fluctuating raw material costs and eco-alternatives may impact growth. Overall, the market is set for sustained expansion, propelled by the need for efficient, sustainable cleaning solutions.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Metal Cleaning Chemicals market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Metal Cleaning Chemicals Market Segmental Analysis
+Global Metal Cleaning Chemicals Market is segmented by Type, Composition, Ingredient Type, Metal Type, End User and Region. Based on Type, the market is segmented into Aqueous, Solvent.  Based on Composition, the market is segmented into Acid Metal, Alkali Metal.  Based on Ingredient Type, the market is segmented into Cleating Agents, Surfactants, Solvents, Solubilizer, pH Regulator, Others.  Based on Metal Type, the market is segmented into Steel, Iron, Aluminium, Copper, Other Alloys. Based on End User, the market is segmented into Manufacturing, Healthcare, Automotive, Aerospace, Industrial, Construction, Others. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Metal Cleaning Chemicals Market
+The global metal cleaning chemicals market is primarily driven by the rising demand for clean and corrosion-resistant metal surfaces across numerous sectors. Industries including automotive, aerospace, electronics, manufacturing, and healthcare rely heavily on metal components that are free from contaminants and corrosion to ensure optimal performance, safety, and durability. In this context, metal cleaning chemicals are essential, as they efficiently eliminate dirt, oils, grease, rust, and other impurities from metal surfaces. Additionally, the increasing focus on quality, productivity, and sustainability within industrial processes fuels the need for effective metal cleaning solutions, further stimulating market growth.
+Restraints in the Global Metal Cleaning Chemicals Market
+A significant restraint in the global metal cleaning chemicals market is the volatility of raw material prices. These chemicals are composed of essential components like surfactants, solvents, acids, and corrosion inhibitors, all of which are subject to price fluctuations influenced by factors such as availability, supply-demand relationships, and geopolitical circumstances. This volatility can affect manufacturing costs, subsequently impacting the pricing strategies and profitability of market players. Moreover, sudden changes in raw material prices can disrupt supply chains, introducing uncertainties in production and distribution processes. Therefore, it is crucial for market participants to carefully monitor and manage raw material expenses to mitigate these challenges and ensure competitive pricing.
+Market Trends of the Global Metal Cleaning Chemicals Market
+The global metal cleaning chemicals market is witnessing a significant trend toward eco-friendly and sustainable cleaning solutions, driven by heightened consumer awareness and environmental regulations. As industries prioritize environmental sustainability, there is a growing demand for biodegradable products with low VOC emissions that ensure minimal impact on both health and the ecosystem. In response, manufacturers are increasingly investing in research and development to create innovative formulations that not only deliver effective cleaning results but also adhere to stringent compliance standards. This shift signifies a broader industry transformation towards greener practices, highlighting the importance of sustainability in the future of metal cleaning processes.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -763,59 +644,61 @@
 o Value Chain Analysis
 o Pricing Analysis
 o Regulatory Landscape
+o Case Studies
 o Patent Analysis
-o Case Studies
-o Customer &amp; Buying Criteria Analysis
-o Trade Analysis
-o Startup Analysis
-• Global Potassium Formate Market Size by Form &amp; CAGR (2024-2031)
-o Market Overview
-o Solid
-o Liquid
-• Global Potassium Formate Market Size by Application &amp; CAGR (2024-2031)
-o Market Overview
-o Oil Fields
- Drilling Fluid
- Completion Fluid
-o De-Icing Agents
- Road De-Icing
- Runway De-Icing
-o Heat Transfer Fluid
-o Agricultural Products
+• Metal Cleaning Chemicals Market Size by Type &amp; CAGR (2024-2031)
+o Market Overview
+o Aqueous
+o Solvent
+• Metal Cleaning Chemicals Market Size by Composition &amp; CAGR (2024-2031)
+o Market Overview
+o Acid Metal
+o Alkali Metal
+• Metal Cleaning Chemicals Market Size by Ingredient Type &amp; CAGR (2024-2031)
+o Market Overview
+o Chelating Agents
+o Surfactants
+o Solvents
+o Solubilizer
+o pH Regulator
 o Others
- Lubricants &amp; Greases
- Anti-Freeze
-• Global Potassium Formate Market Size by End User Industry &amp; CAGR (2024-2031)
-o Market Overview
-o Oil &amp; Gas
-o Energy &amp; Power
+• Metal Cleaning Chemicals Market Size by Metal Type &amp; CAGR (2024-2031)
+o Market Overview
+o Steel
+o Iron
+o Aluminium
+o Copper
+o Other Alloys
+• Metal Cleaning Chemicals Market Size by End User &amp; CAGR (2024-2031)
+o Market Overview
+o Manufacturing
+o Healthcare
 o Automotive
-o Healthcare
 o Aerospace
-o Building &amp; Construction
-o Agriculture
+o Industrial
+o Construction
 o Others
-• Global Potassium Formate Market Size &amp; CAGR (2024-2031)
-o North America, (Form, Application, End User Industry)
+• Metal Cleaning Chemicals Market Size &amp; CAGR (2024-2031)
+o North America, (Type, Composition, Ingredient Type, Metal Type, End User)
  US
  Canada
-o Europe, (Form, Application, End User Industry)
+o Europe, (Type, Composition, Ingredient Type, Metal Type, End User)
  UK
  Germany
  Spain
  France
  Italy
  Rest of Europe
-o Asia-Pacific, (Form, Application, End User Industry)
+o Asia-Pacific, (Type, Composition, Ingredient Type, Metal Type, End User)
  China
  India
  Japan
  South Korea
  Rest of Asia Pacific
-o Latin America, (Form, Application, End User Industry)
+o Latin America, (Type, Composition, Ingredient Type, Metal Type, End User)
  Brazil
  Rest of Latin America
-o Middle East &amp; Africa, (Form, Application, End User Industry)
+o Middle East &amp; Africa, (Type, Composition, Ingredient Type, Metal Type, End User)
  GCC Countries
  South Africa
  Rest of Middle East &amp; Africa
@@ -831,62 +714,102 @@
  Company’s Segmental Share Analysis
  Revenue Y-O-Y Comparison (2021-2023)
 • Key Company Profiles
-o BASF SE
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Cabot Corporation
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Perstorp Holding AB
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Oxea GmbH
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Evonik Industries AG
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Honeywell International Inc.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o ICL (Israel Chemicals Ltd.)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Zibo Aiheng New Material Co., Ltd.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Shouguang Hengtong Chemical Co., Ltd.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Addcon GmbH
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Dynalene, Inc.
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Shandong Xinhai Technology Co., Ltd.
+o BASF SE (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o DuPont (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Evonik Industries AG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Eastman Chemical Company (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Air Products and Chemicals, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Stepan Company (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dow (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Quaker Chemical Composition (UK)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Rochester Midland Corp (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Emerson Electric Co. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Oxiteno (Brazil)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Chemours Company (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o MODERN CHEMICALS (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hubbard-Hall (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o PCC Chemax Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NuGenTec (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o KYZEN CORPORATION (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lincoln Chemical Corporation (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Delstar Metal Finishing, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Crest Chemicals (US)
  Company Overview
  Business Segment Overview
  Financial Updates
@@ -894,14 +817,14 @@
 • Conclusion &amp; Recommendation</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Materials</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -919,50 +842,7014 @@
 ◦ South Africa</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>◦ BASF SE (Germany)
+◦ DuPont (US)
+◦ Evonik Industries AG (Germany)
+◦ Eastman Chemical Company (US)
+◦ Air Products and Chemicals, Inc. (US)
+◦ Stepan Company (US)
+◦ Dow (US)
+◦ Quaker Chemical Composition (UK)
+◦ Rochester Midland Corp (US)
+◦ Emerson Electric Co. (US)
+◦ Oxiteno (Brazil)
+◦ The Chemours Company (US)
+◦ MODERN CHEMICALS (US)
+◦ Hubbard-Hall (US)
+◦ PCC Chemax Inc. (US)
+◦ NuGenTec (US)
+◦ KYZEN CORPORATION (US)
+◦ Lincoln Chemical Corporation (US)
+◦ Delstar Metal Finishing, Inc. (US)
+◦ Crest Chemicals (US)
+◦ Lincoln Chemical Corporation (US)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>By Type (Aqueous, Solvent), By Composition (Acid Metal, Alkali Metal), By Ingredient Type (Chelating Agents, Surfactants, Solvents, Solubilizer, pH Regulator, Others), By Metal Type (Steel, Iron, Copper, Aluminium, Other Alloys), By End User (Manufacturing, Healthcare, Automotive, Aerospace, Industrial, Construction, Others)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Functional Textile Finishing Agents Market Size, Share, Growth Analysis, By Type (Aesthetic, Functional), By Product, By Textile Type, By Processing Method, By Application, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIG20B2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/functional-textile-finishing-agents-market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Functional Textile Finishing Agents Market size was valued at USD 3.8 billion in 2022 and is poised to grow from USD 4.1 billion in 2023 to USD 6.2 billion by 2031, growing at a CAGR of 5.3% during the forecast period (2024-2031).
+The global market for functional textile finishing agents is witnessing robust growth, propelled by rising consumer demand for textiles with advanced performance features. These agents enhance textiles with attributes such as antimicrobial properties, flame retardancy, water repellency, wrinkle resistance, and UV protection, significantly improving durability and overall quality. Increased consumer awareness of the benefits of functional textiles, alongside changing lifestyles prioritizing health and safety, drives this trend across various sectors, notably apparel, home textiles, and technical textiles. The apparel segment, in particular, emphasizes the need for features like antimicrobial and moisture-wicking properties to ensure hygiene and comfort. Additionally, an uptick in outdoor activities is boosting demand for UV protection and quick-drying textiles, while home textiles see growth due to heightened interest in creating healthy living spaces.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Functional Textile Finishing Agents market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Functional Textile Finishing Agents Market Segmental Analysis
+Global Functional Textile Finishing Agents Market is segmented by type, product, textile type, processing method, application, and region. Based on type, the market is segmented into Aesthetic, and Functional. Based on product, the market is segmented into Water Repellent, Flame Retardant, Hydrophilic Agent, Anti-Static Agent, Softening Agent, Fragrance Agents, Antibacterial &amp; Antimicrobial, and Others. Based on textile type, the market is segmented into Natural, and Synthetic. Based on processing method, the market is segmented into Continuous Processing, Batch Treatment, and Coating. Based on application, the market is segmented into Apparel, Home Furnishing, Technical Textiles, and Others.  Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Functional Textile Finishing Agents Market
+The global market for Functional Textile Finishing Agents is experiencing significant growth due to their expanding applications across a variety of industries such as apparel, home textiles, automotive, healthcare, and sports, among others. This heightened demand is primarily fueled by the distinct advantages offered by these finishing agents, which include antimicrobial properties, flame retardancy, and water repellency. Such features meet the specific needs and standards of various sectors, driving the adoption of functional finishing agents in textile manufacturing. As industries continue to seek innovative solutions to enhance product performance, the market for these agents is poised for further expansion.
+Restraints in the Global Functional Textile Finishing Agents Market
+Restraints in the Global Functional Textile Finishing Agents market include cost considerations, which can significantly hinder their adoption. The expenses linked to the production of these agents may raise the final product prices, making them less appealing, especially in price-sensitive markets where cost competitiveness is essential. Manufacturers face the challenge of balancing the enhanced functionality provided by these agents with their affordability to promote broader acceptance within the industry. As a result, the financial implications associated with functional textile finishing agents are crucial in determining their market penetration and overall success in various sectors.
+Market Trends of the Global Functional Textile Finishing Agents Market
+The Global Functional Textile Finishing Agents market is witnessing a substantial trend towards eco-friendly and sustainable solutions in response to heightened consumer awareness and stricter regulatory frameworks. As industries recognize the urgency of environmental stewardship, manufacturers are increasingly prioritizing the development of finishing agents that minimize ecological impact while enhancing textile performance. This shift is propelling innovations in biodegradable and non-toxic chemical formulations, aligning with the broader movement towards sustainable manufacturing practices. As a result, brands that prioritize sustainable textile finishing are not only complying with regulations but also capitalizing on consumer demand for green products, ultimately shaping the market landscape and fostering long-term growth opportunities.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Regulatory Landscape
+o Macro-Economic Indicators
+o Market Attractiveness Index
+o Supply Chain Analysis
+o Pricing Analysis
+• Global Functional Textile Finishing Agents Market Size by Type &amp; CAGR (2024-2031)
+o Market Overview
+o Aesthetic
+o Functional
+• Global Functional Textile Finishing Agents Market Size by Product &amp; CAGR (2024-2031)
+o Market Overview
+o Water Repellent
+o Flame Retardant
+o Hydrophilic Agent
+o Anti-Static Agent
+o Fragrance Agents
+o Antibacterial &amp; Antimicrobial
+o Others
+• Global Functional Textile Finishing Agents Market Size by Textile Type &amp; CAGR (2024-2031)
+o Market Overview
+o Natural
+o Synthetic
+• Global Functional Textile Finishing Agents Market Size by Processing Method &amp; CAGR (2024-2031)
+o Market Overview
+o Continuous Processing
+o Batch Treatment
+o Coating
+• Global Functional Textile Finishing Agents Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Apparel
+o Home Furnishing
+o Technical Textiles
+o Others
+• Global Functional Textile Finishing Agents Market Size &amp; CAGR (2024-2031)
+o North America, (By Type, By Product, By Textile type, By Processing method, By Application)
+ US
+ Canada
+o Europe, (By Type, By Product, By Textile type, By Processing method, By Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Type, By Product, By Textile type, By Processing method, By Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Type, By Product, By Textile type, By Processing method, By Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Type, By Product, By Textile type, By Processing method, By Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Huntsman International LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o BASF SE
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Evonik Industries AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wacker Chemie AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Rudolf GmbH
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Archroma
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CHT Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sarex
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Zydex Industries
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NICCA Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tanatex Chemicals B.V.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o HT Fine Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sumitomo Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tepar Tekstil Sanayi ve Ticaret A.S.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o DAIKIN Industries, Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Milliken &amp; Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nano Tech Chemical Brothers Private Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o KAPP-CHEMIE GmbH &amp; Co. KG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chemspec Chemicals Pvt. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Dow Chemical Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>◦ BASF SE
-◦ Cabot Corporation
-◦ Perstorp Holding AB
-◦ Oxea GmbH
+          <t>◦ Huntsman International LLC
+◦ BASF SE
 ◦ Evonik Industries AG
-◦ Honeywell International Inc.
-◦ ICL (Israel Chemicals Ltd.)
-◦ Zibo Aiheng New Material Co., Ltd.
-◦ Shouguang Hengtong Chemical Co., Ltd.
-◦ Addcon GmbH
-◦ Dynalene, Inc.
-◦ Shandong Xinhai Technology Co., Ltd.</t>
+◦ Wacker Chemie AG
+◦ Rudolf GmbH
+◦ Archroma
+◦ CHT Group
+◦ Sarex
+◦ Zydex Industries
+◦ NICCA Chemical Co., Ltd.
+◦ Tanatex Chemicals B.V.
+◦ HT Fine Chemical Co., Ltd.
+◦ Sumitomo Chemical Co., Ltd.
+◦ Tepar Tekstil Sanayi ve Ticaret A.S.
+◦ DAIKIN Industries, Ltd.
+◦ OMNOVA Solutions (Synthomer)
+◦ Nano Tech Chemical Brothers Private Limited
+◦ KAPP-CHEMIE GmbH &amp; Co. KG
+◦ Chemspec Chemicals Pvt. Ltd.
+◦ The Dow Chemical Company</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>By Form (Solid, Liquid), By Application (Oil Fields (Drilling Fluid, Completion Fluid), De-Icing Agents (Road De-Icing, Runway De-Icing), Heat Transfer Fluid, Agricultural Products, Others (Lubricants &amp; Greases, Anti-Freeze)), By End User Industry (Oil &amp; Gas, Energy &amp; Power, Automotive, Healthcare, Aerospace, Building &amp; Construction, Agriculture, Others)</t>
+          <t>By Type (Aesthetic, Functional), By Product (Water Repellent, Flame Retardant, Hydrophilic Agent, Anti-Static Agent, Softening Agent, Fragrance Agents, Antibacterial &amp; Antimicrobial, Others), By Textile Type (Natural, Synthetic), By Processing Method (Continuous Processing, Batch Treatment, Coating), By Application (Apparel, Home Furnishing, Technical Textiles, Others)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>716.40</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>752.94</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1120.93</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Moto Taxi Service Market Size, Share, Growth Analysis, By Application(Passenger, Load), By Type(E-hailing, Ride Sharing), By Region  - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>SQSG20X2002</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/moto-taxi-service-market</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Global Moto Taxi Service Market size was valued at USD 13.55 billion in 2022, and it is expected to reach a value of USD 21.43 billion by 2031, at a CAGR of 7.94% over the forecast period (2024-2031).
+The moto taxi market is experiencing rapid growth, driven by its reputation as the fastest, most affordable, and efficient urban transportation option. This service allows motorcycle riders to transport passengers via mobile app bookings, with fees based on distance and driver availability. As urban areas become increasingly congested, especially in developing countries where public transit options are inadequate, the demand for moto taxis is surging. Riders appreciate the convenience of door-to-door service, particularly in busy locations like train stations and airports. Contributing factors to market expansion include rising urban traffic and parking challenges, supportive government policies, and increasing investments in moto-taxi startups, all of which enhance accessibility and efficiency in urban transportation systems.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Moto Taxi Service market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Moto Taxi Service Market Segmental Analysis
+Global Moto Taxi Service Market is segmented by Provider, by Type, by Vehicle Used, by Application and by Region. Based on Provider, the market is segmented into Motorbike Drivers, Ride-Hailing Companies, Motorbike Taxi Operators. Based on Type, the market is segmented into On-Demand Services, Pre-Booked Services, Subscription-Based Services. Based on Vehicle Used, the market is segmented into Motorbikes, Scooters, Electric Bikes. Based on Application, the market is segmented into Commuting, Delivery, Tourism. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Global Moto Taxi Service Market
+The global moto taxi service market is anticipated to experience significant growth driven by increasing concerns over traffic congestion. As urban centers around the globe continue to see a rise in the number of private vehicles, traffic congestion has become an acute issue. Moto taxi services effectively address this problem by enabling customers to navigate congested areas quickly, thus saving valuable time. Moreover, these services are not only affordable but also cater to a wide range of financial backgrounds, offering convenience akin to last-mile connectivity, which is often lacking in traditional public transport systems. In addition, rising fuel prices and the high costs of car ownership are likely to boost the demand for bike taxi services in the coming years. Enhanced funding from various firms is expected to empower moto taxi service providers, enabling them to operate more efficiently and expand their geographical presence, thereby facilitating market growth during the forecast period.
+Restraints in the Global Moto Taxi Service Market
+The global moto taxi service market is witnessing significant growth in various regions; however, it faces substantial challenges in others where moto taxis are prohibited and considered illegal. This lack of legal recognition can hinder the profitability of service providers throughout the forecast period. Additionally, factors such as limited luggage capacity, concerns regarding passenger safety, and discomfort due to inadequate seating arrangements are likely to pose further constraints on the market's expansion. All these elements combined may impede the overall growth trajectory of the moto taxi service market in several areas across the globe during the projected timeline.
+Market Trends of the Global Moto Taxi Service Market
+The global moto taxi service market is experiencing significant growth, driven primarily by escalating urbanization and increasing traffic congestion in metropolitan areas. As cities grapple with inadequate infrastructure and rising fuel costs, consumers are seeking efficient last-mile transportation solutions that traditional public transit often fails to provide. The popularity of ride-hailing apps and on-demand services is further propelling this trend, making moto taxis an attractive option for short-distance travel. Additionally, the flexibility and affordability of moto taxis appeal to a growing urban population seeking alternatives to conventional vehicles. This combination of factors is expected to sustain robust market expansion in the coming years.</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>◦ Uber Technologies Inc.
+◦ Wunder Mobility
+◦ Ola Cabs
+◦ Rapido
+◦ GOJEK
+◦ Pathao Ltd.
+◦ Teledyne Technologies
+◦ SafeBoda
+◦ Grab
+◦ Bikxie
+◦ Dunzo
+◦ Jugnoo
+◦ Mopedo
+◦ DiDi Global
+◦ Lyft Inc</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>By Application (Passenger, Load), By Type (E-hailing, Ride Sharing)</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Child Presence Detection System Market Size, Share, Growth Analysis, By Sensor Type (Radar Sensor, Ultrasonic Sensor). By Vehicle Type, By Sales Channel, By Vehicle Propulsion, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SQMIG45I2076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/child-presence-detection-sytem-market</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Child Presence Detection System Market size was valued at USD 79.83 million in 2022 and is poised to grow from USD 110.88 million in 2023 to USD 4,111.86 million by 2031, growing at a CAGR of 50.28% during the forecast period (2024-2031).
+The child presence detection system market is experiencing notable growth driven by rising child fatalities from heat-related incidents in unattended vehicles. These advanced systems utilize precise radar technology to alert caregivers and bystanders if a child is left alone in a car, assessing even the vital signs of infants. This market is further propelled by the increasing sales of luxury vehicles and SUVs, coupled with a steady birth rate. However, challenges such as high costs, inadequate product quality, and maintenance complexity may impact growth. Nevertheless, supportive government regulations and initiatives focused on vehicle safety for children offer significant expansion opportunities within this sector as awareness and demand for safety solutions continue to rise.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Child Presence Detection System market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Child Presence Detection System Market Segmental Analysis
+Global Child Presence Detection System Market is segmented by Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion and Region. Based on Sensor Type, the market is segmented into Radar Sensors, Ultrasonic Sensors, Pressure Sensors, Others.  Based on Vehicle Type, the market is segmented into Hatchback, Sedan, SUV, MUV.  Based on Sales Channel the market is segmented into OEMs, Aftermarket.  Based on Vehicle Propulsion, the market is segmented into Electric Vehicle, ICE Vehicle. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Child Presence Detection System Market
+The Global Child Presence Detection System market is driven by the alarming rise in child fatalities caused by being left in overheated vehicles. This issue has heightened awareness and urgency for effective safety solutions, particularly with the increasing popularity of SUVs, which are expected to expand in demand and consequently inspire innovation in child presence detection technologies. As more advanced features are developed for SUVs, the market for these safety systems is anticipated to grow significantly. Remarkably, despite the pandemic's impact, global SUV sales surged by over 10% between 2021 and 2022, with projections indicating that SUVs will constitute over 45% of all new car sales globally, thereby bolstering the demand for enhanced detection systems.
+Restraints in the Global Child Presence Detection System Market
+The Global Child Presence Detection System market faces several restraining factors, primarily due to the high costs associated with deployment and operation. Implementing such systems demands sophisticated technology, involving numerous components like sensors, cameras, and other hardware to monitor vehicles, drivers, children, and passengers. This complexity translates into substantial expenses, including initial investment, maintenance, and potential repairs, which can vary based on vehicle type and technological advancement. Consequently, the elevated operational costs may deter potential adopters, hindering market growth and limiting the accessibility of these crucial safety systems for a wider audience.
+Market Trends of the Global Child Presence Detection System Market
+The Global Child Presence Detection System market is witnessing significant growth, driven by advancements in radar sensor technology and its integration into advanced driver assistance systems (ADAS). As automakers prioritize passenger safety, particularly for vulnerable occupants like children, the demand for reliable occupant-presence detection systems is surging. Enhanced sensor accuracy and affordability of automotive radar solutions are attracting manufacturers and consumers alike, leading to innovative applications such as child presence warnings, seat belt reminders, and airbag activation. Consequently, the market is poised for expansion as the automotive sector increasingly focuses on improving safety measures through sophisticated in-cabin sensing technologies.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Patent Analysis
+• Child Presence Detection System Size by Sensor Type &amp; CAGR (2024-2031)
+o Market Overview
+o Radar Sensors
+o Ultrasonic Sensors
+o Pressure Sensors
+o Others
+• Child Presence Detection System Size by Vehicle Type &amp; CAGR (2024-2031)
+o Market Overview
+o Hatchback
+o Sedan
+o SUV
+o MUV
+• Child Presence Detection System Size by Sales Channel &amp; CAGR (2024-2031)
+o Market Overview
+o OEMs
+o Aftermarket
+• Child Presence Detection System Size by Vehicle Propulsion &amp; CAGR (2024-2031)
+o Market Overview
+o Electric Vehicles
+o ICE Vehicles
+• Child Presence Detection System Size &amp; CAGR (2024-2031)
+o North America, (Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion)
+ US
+ Canada
+o Europe, (Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Sensor Type, Vehicle Type, Sales Channel, Vehicle Propulsion)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Intel Corporation (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o AISIN SEIKI Co., Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ZF Friedrichshafen AG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Robert Bosch GmbH (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Continental AG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Harman International Industries, Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Denso Corporation (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Veoneer, Inc. (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Aptiv PLC (Ireland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hyundai Mobis Co., Ltd. (South Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vayyar Imaging Ltd. (Israel)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ficosa International, S.A. (Spain)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hella GmbH &amp; Co. KGaA (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Preco Electronics, LLC (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Stoneridge, Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hitachi, Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Flex Ltd. (Singapore)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Magna International Inc. (Canada)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Autoliv Inc. (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o TE Connectivity Ltd. (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>◦ Intel Corporation (United States)
+◦ AISIN SEIKI Co., Ltd. (Japan)
+◦ ZF Friedrichshafen AG (Germany)
+◦ Robert Bosch GmbH (Germany)
+◦ Continental AG (Germany)
+◦ Harman International Industries, Inc. (United States)
+◦ Denso Corporation (Japan)
+◦ Veoneer, Inc. (Sweden)
+◦ Aptiv PLC (Ireland)
+◦ Hyundai Mobis Co., Ltd. (South Korea)
+◦ Vayyar Imaging Ltd. (Israel)
+◦ Ficosa International, S.A. (Spain)
+◦ Hella GmbH &amp; Co. KGaA (Germany)
+◦ Preco Electronics, LLC (United States)
+◦ Stoneridge, Inc. (United States)
+◦ Hitachi, Ltd. (Japan)
+◦ Flex Ltd. (Singapore)
+◦ Magna International Inc. (Canada)
+◦ Autoliv Inc. (Sweden)
+◦ TE Connectivity Ltd. (Switzerland)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>By Sensor Type (Radar Sensors, Ultrasonic Sensors, Pressure Sensors, Others), By Vehicle Type (Hatchback, Sedan, SUV, MUV), By Sales Channel (OEMs, Aftermarket), By Vehicle Propulsion (Electric Vehicle, ICE Vehicle)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>110.88</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>50.28%</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>USD Million</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hot Water Circulator Pump Market Size, Share, Growth Analysis, By Technology (Single Stage, Multi Stage), By Material Type (Stainless Steel, Bronze), By Flow Rate, By End User, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SQMIG20I2099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hot-water-circulator-pump-market</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Hot Water Circulator Pump Market size was valued at USD 7.7 billion in 2022 and is poised to grow from USD 8 billion in 2023 to USD 11 billion by 2031, growing at a CAGR of 4.1% during the forecast period (2024-2031).
+The global hot water circulator pump market is experiencing significant growth and innovation, fueled by rising energy efficiency demands and heightened environmental awareness. Key factors driving this market include the shift towards energy-efficient heating systems, stringent regulations promoting sustainable practices, and advancements in pump technology, such as variable speed control and smart connectivity. Manufacturers are increasingly integrating IoT technology and renewable energy sources to meet consumer needs and energy standards. The market is also seeing a growing trend toward retrofitting existing systems, enhancing energy efficiency, and reducing operational costs. Europe remains a significant player due to its established infrastructure, while the Asia-Pacific region is emerging rapidly due to its construction boom and awareness of energy conservation. Overall, the market is well-positioned for continued growth.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Hot Water Circulator Pump market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Hot Water Circulator Pump Market Segmental Analysis
+Global Hot Water Circulator Pump Market is segmented by Technology, Material Type, Flow Rate, End User and Region. Based on Technology, the market is segmented into Single Stage, Multi Stage.  Based on Material Type, the market is segmented into Stainless Steel, Bronze, Cast Iron, Others.  Based on Flow Rate, the market is segmented into Up to 2m^3/h, Above 2m^3/h.  Based on End User, the market is segmented into Residential, Commercial, Industrial.  Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Hot Water Circulator Pump Market
+The hot water circulator pump market is primarily driven by the rising demand for energy-efficient heating systems. With a growing emphasis on sustainability and conservation, both consumers and industries are actively seeking solutions that effectively reduce energy consumption and lower carbon emissions. This trend has intensified the need for advanced hot water circulator pumps designed to be more energy-efficient and environmentally friendly. As a result, manufacturers are compelled to innovate and enhance their products to meet the needs of a more eco-conscious market. Overall, the focus on energy efficiency significantly shapes the development and proliferation of these heating solutions.
+Restraints in the Global Hot Water Circulator Pump Market
+A significant challenge facing the Global Hot Water Circulator Pump market is the substantial upfront investment required for the purchase and installation of these systems. Although hot water circulator pumps provide long-term energy efficiency and operational savings, the initial costs can pose a barrier for many consumers and businesses. This financial burden is particularly pronounced when considering retrofitting existing heating systems, often limiting market growth in areas or industries where budget constraints are prevalent. As a result, the high initial expenditure can deter potential buyers, ultimately impacting the overall development of the market.
+Market Trends of the Global Hot Water Circulator Pump Market
+The Global Hot Water Circulator Pump market is witnessing a significant trend towards smart technology integration, as manufacturers increasingly equip their products with IoT connectivity, adaptive control systems, and digital timers. This shift facilitates enhanced energy efficiency and precise temperature control, allowing users to effectively manage their hot water systems with real-time monitoring and customization capabilities. The growing consumer focus on energy savings and convenience is driving this trend, aligning with the broader Internet of Things (IoT) phenomenon. As demand escalates for automated solutions across residential, commercial, and industrial sectors, the market for intelligent circulator pumps is expected to flourish.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Patent Analysis
+• Hot Water Circulator Pump Market Size by Technology &amp; CAGR (2024-2031)
+o Market Overview
+o Single Stage
+o Multi Stage
+• Hot Water Circulator Pump Market Size by Material Type &amp; CAGR (2024-2031)
+o Market Overview
+o Stainless Steel
+o Bronze
+o Cast Iron
+o Others
+• Hot Water Circulator Pump Market Size by Flow Rate &amp; CAGR (2024-2031)
+o Market Overview
+o Up to 2m^3/h
+o Above 2m^3/h
+• Hot Water Circulator Pump Market Size by End User &amp; CAGR (2024-2031)
+o Market Overview
+o Residential
+o Commercial
+o Industrial
+• Hot Water Circulator Pump Market Size &amp; CAGR (2024-2031)
+o North America, (Technology, Material Type, Flow Rate, End User)
+ US
+ Canada
+o Europe, (Technology, Material Type, Flow Rate, End User)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Technology, Material Type, Flow Rate, End User)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Technology, Material Type, Flow Rate, End User)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Technology, Material Type, Flow Rate, End User)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Grundfos Holding A/S (Denmark)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wilo SE (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Xylem Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Flowserve Corporation (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Armstrong Fluid Technology (UK)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Calpeda SA (Italy)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o SAER Elettropompe SpA (Italy)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o US Solar Pumps (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shimge Pump Industry Group Co., Ltd. (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o LEO PUMP (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Taizhou Dalang Pump Industry Co., Ltd. (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o TACO INC. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ningbo Yinzhou H.T. Industry Co. Ltd (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fujian ELESTAR Motor Co., Ltd. (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Zhejiang Yonjou Technology Co., Ltd. (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o KSB SE &amp; Co. KGaA (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bell &amp; Gossett (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CIRCOR International, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o WILO USA LLC (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ITT Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>◦ Grundfos Holding A/S (Denmark)
+◦ Wilo SE (Germany)
+◦ Xylem Inc. (US)
+◦ Flowserve Corporation (US)
+◦ Armstrong Fluid Technology (UK)
+◦ Calpeda SA (Italy)
+◦ SAER Elettropompe SpA (Italy)
+◦ US Solar Pumps (US)
+◦ Shimge Pump Industry Group Co., Ltd. (China)
+◦ LEO PUMP (China)
+◦ Taizhou Dalang Pump Industry Co., Ltd. (China)
+◦ TACO INC. (US)
+◦ Ningbo Yinzhou H.T. Industry Co. Ltd (China)
+◦ Fujian ELESTAR Motor Co., Ltd. (China)
+◦ Zhejiang Yonjou Technology Co., Ltd. (China)
+◦ KSB SE &amp; Co. KGaA (Germany)
+◦ Bell &amp; Gossett (US)
+◦ CIRCOR International, Inc. (US)
+◦ WILO USA LLC (US)
+◦ ITT Inc. (US)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>By Technology (Single Stage, Multi Stage), By Material Type (Stainless Steel, Bronze, Cast Iron, Others), By Flow Rate (Up to 2m^3/h, Above 2m^3), By End User (Residential, Commercial, Industrial)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Palm Oil Market Size, Share, Growth Analysis, By Nature (Organic, Conventional), By Product (CPO, RBD Palm Oil), By End Use (Food and Beverage, Pharmaceuticals), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SQMIG30C2148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/palm-oil-market</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Palm Oil Market size was valued at USD 65.3 billion in 2022 and is poised to grow from USD 69.3 billion in 2023 to USD 103.2 billion by 2031, growing at a CAGR of 5.1% during the forecast period (2024-2031).
+Palm oil, derived from tropical palm trees predominantly in Malaysia and Indonesia, has seen a surge in global demand, fueled by its high yield and competitive pricing. Over the past three decades, it has generated substantial employment within agricultural communities. Uniquely, palm oil boasts low to zero trans-fats, making it an appealing choice for consumers. Its versatility spans a wide array of products, including biscuits, margarine, bread, instant noodles, cereals, personal care items like lipsticks and shampoos, as well as household goods such as candles and detergents. This diverse application portfolio not only enhances its marketability but also drives significant production increases, solidifying palm oil's status as one of the most widely used vegetable oils globally.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Palm Oil market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Palm Oil Market Segmental Analysis
+Global Palm Oli Market is segmented by Nature, Product, End Use and Region. Based on Nature, the market is segmented into Organic, Conventional.  Based on Product, the market is segmented into CPO, RBD Palm Oil, Palm Kernal Oil, Fractionated Palm Oil.  Based on End Use, the market is segmented into Food and Beverage, Personal Care and Cosmetics, Biofuel and Energy, Pharmaceuticals, Others. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Palm Oil Market
+The global palm oil market is significantly influenced by various drivers, with the increasing utilization of palm oil in biodiesel production being a key factor. This trend is expected to substantially boost the demand for crude palm oil (CPO) throughout the analysis period. Moreover, the surging growth of the packaged and processed foods industry further enhances the need for vegetable oils, where palm kernel oil (PKO) stands out as a cost-effective choice for food manufacturing. Given that the processed food and beverage sector holds a considerable share of the market, the rising demand within this sector will consequently propel the overall demand for palm oil products.
+Restraints in the Global Palm Oil Market
+The global palm oil market is currently facing significant constraints primarily due to labor shortages stemming from the COVID-19 pandemic. The disruption in the workforce has resulted in decreased production efficiency, subsequently driving up production costs and reducing profit margins. Furthermore, a sudden surge in demand, driven by government policies promoting diesel blending with palm oil, has exacerbated supply chain challenges. These complications have hindered the anticipated rapid growth of the sector, creating additional obstacles for producers striving to meet market needs while navigating increased operational difficulties. As a result, the palm oil industry is grappling with substantial restraints affecting its overall performance.
+Market Trends of the Global Palm Oil Market
+The global palm oil market is experiencing a significant uptrend, primarily fueled by rising crude oil prices, which are prompting many countries to pivot towards biofuels as sustainable alternatives. As palm oil emerges as a crucial feedstock for biodiesel production, demand is surging across various regions. This shift not only highlights the increasing reliance on renewable energy sources but also positions palm oil as a vital ingredient in the biofuel sector. Consequently, the palm oil market is poised for robust growth, driven by both environmental considerations and regulatory support aimed at reducing carbon footprints and fostering energy independence.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Patent Analysis
+o Trade Analysis
+• Palm Oil Market Size by Nature &amp; CAGR (2024-2031)
+o Market Overview
+o Organic
+o Conventional
+• Palm Oil Market Size by Product Type &amp; CAGR (2024-2031)
+o Market Overview
+o CPO
+o RBD Palm Oil
+ CP6
+ CP8
+ CP10
+o Palm Kernal Oil
+o Fractionated Palm Oil
+• Palm Oil Market Size by End Use &amp; CAGR (2024-2031)
+o Market Overview
+o Food and Beverage
+o Personal Care and Cosmetics
+o Biofuel and Energy
+o Pharmaceuticals
+o Others
+• Palm Oil Market Size &amp; CAGR (2024-2031)
+o North America, (Nature, Product, End Use)
+ US
+ Canada
+o Europe, (Nature, Product, End Use)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Nature, Product, End Use)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Nature, Product, End Use)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Nature, Product, End Use)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o IOI Group Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wilmar International Limited (Singapore)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sime Darby Plantation Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kuala Lumpur Kepong Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Golden Agri-Resources Ltd. (Singapore)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Musim Mas Group (Indonesia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cargill Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Archer Daniels Midland Company (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bunge Limited (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Louis Dreyfus Company (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Astra Agro Lestari Tbk PT (Indonesia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o United Plantations Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o PT Smart Tbk (Indonesia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o IOI Loders Croklaan (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Godrej Agrovet Limited (India)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Asian Agri (Indonesia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Olam International Limited (Singapore)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o IOI Oleochemical Industries Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Felda Global Ventures Holdings Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Genting Plantations Berhad (Malaysia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>◦ IOI Group Berhad (Malaysia)
+◦ Wilmar International Limited (Singapore)
+◦ Sime Darby Plantation Berhad (Malaysia)
+◦ Kuala Lumpur Kepong Berhad (Malaysia)
+◦ Golden Agri-Resources Ltd. (Singapore)
+◦ Musim Mas Group (Indonesia)
+◦ Cargill Inc. (United States)
+◦ Archer Daniels Midland Company (United States)
+◦ Bunge Limited (United States)
+◦ Louis Dreyfus Company (Netherlands)
+◦ Astra Agro Lestari Tbk PT (Indonesia)
+◦ United Plantations Berhad (Malaysia)
+◦ PT Smart Tbk (Indonesia)
+◦ IOI Loders Croklaan (Netherlands)
+◦ Godrej Agrovet Limited (India)
+◦ Asian Agri (Indonesia)
+◦ Olam International Limited (Singapore)
+◦ IOI Oleochemical Industries Berhad (Malaysia)
+◦ Felda Global Ventures Holdings Berhad (Malaysia)
+◦ Genting Plantations Berhad (Malaysia)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>By Origin (Organic, Conventional), By Product (CPO, RBD Palm Oil, Palm Kernal Oil, Fractionated Palm Oil), By End Use (Food and Beverage, Personal Care and Cosmetics, Biofuel and Energy, Pharmaceuticals, Others)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>103.2</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>5.1%</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distribution Transformer Market Size, Share, Growth Analysis, By Mounting (Pad, Pole), By Phase (Three, Single), By Power Rating (0.5–2.5 MVA, 2.6–10 MVA), By Insulation, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SQSG55A2004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/distribution-transformer-market</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Distribution Transformer Market size was valued at USD 16.75 billion in 2022 and is poised to grow from USD 17.79 billion in 2023 to USD 28.78 billion by 2031, growing at a CAGR of 6.20% during the forecast period (2024-2031).
+Distribution transformers, crucial components of the electrical distribution system, perform the final voltage reduction needed before electricity reaches consumers. These transformers effectively step down high voltages from power sources for use by low-voltage applications such as residential devices and industrial equipment. Typically designed for capacities under 500 kVA, they operate most efficiently at lower loads with minimal voltage regulation, showcasing low leakage reactance to boost productivity. Common configurations include 380V/220V models for residential use and those distributing voltages below 33 kV for industrial applications. Their capacity to serve various numbers of consumers based on local demand highlights their significance in ensuring stable and reliable electricity supply, indicating growth potential in the distribution transformer market as urbanization and industrial activities expand.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Distribution Transformer market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Distribution Transformer Market Segmental Analysis
+Global Distribution Transformer Market is segmented by Mounting, Phase, Power Rating, Insulation, End User, and Region. Based on Mounting, the market is segmented into Pad, Pole, and Underground.  Based on Phase, the market is segmented into Three, and Single. Based on Power Rating, the market is segmented into Below 0.5 MVA, 0.5–2.5 MVA, 2.6–10 MVA, Above 10 MVA.  Based on Insulation, the market is segmented into Oil Immersed, and Dry. Based on End User, the market is segmented into Power Utilities, Industrial, and Residential &amp; Commercial. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Global Distribution Transformer Market
+The global distribution transformer market is primarily driven by the increasing demand for high tension electrical networks, particularly in remote load centers. This surge in energy needs has prompted a shift towards outdoor distribution transformer installations, thanks to their advantages such as quick deployment and efficient fault detection. Furthermore, efforts to retrofit suburban grid systems and enhance cross-border networks are fueling the adoption of these transformers. The rise in large transformer usage, which necessitates robust earthing and foundation, is also accelerating market growth, especially for pad-mounted systems. Key factors like improved safety, reduced land usage, cost-effective installation, and enhanced aesthetics contribute to the growing popularity of these mounting technologies, as global demand spans numerous utilities and critical industries.
+Restraints in the Global Distribution Transformer Market
+The Global Distribution Transformer market faces significant challenges due to the inherent volatility in raw material prices. This instability primarily stems from fluctuations in the costs of essential materials such as crude oil, steel, and copper, which are integral to transformer production. The imposition of higher tariffs on these raw materials, particularly steel and copper, has further exacerbated price volatility. For instance, the U.S. government's decision to increase duties on imported steel and aluminum by 25% and 10% respectively has contributed to these price surges. Consequently, rising operating costs diminish profit margins, ultimately hindering the growth and expansion of the Distribution Transformer market.
+Market Trends of the Global Distribution Transformer Market
+The Global Distribution Transformer market is experiencing a significant shift toward smart transformer technology, driven by the demand for efficient energy management and sustainability. These autonomous, self-contained units enhance operational efficiency through continuous voltage control, real-time data feedback, and adaptive power supply adjustments. By optimizing voltage, smart transformers not only ensure precise energy delivery but also contribute to significant reductions in greenhouse gas emissions and overall energy consumption. Collaborative initiatives, like the partnership between Singapore’s National Research Foundation and the Energy Research Institute, aim to advance Solid State Transformer (SST) technology, supporting the transition to integrated, intelligent energy systems as part of Singapore’s Energy Grid 2.0 initiative. This trend reflects a broader global push toward smarter, greener infrastructure in the energy sector.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Patent Analysis
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+• Global Distribution Transformer Market Size by Mounting &amp; CAGR (2024-2031)
+o Market Overview
+o Pad
+o Pole
+o Underground
+• Global Distribution Transformer Market Size by Phase &amp; CAGR (2024-2031)
+o Market Overview
+o Three
+o Single
+• Global Distribution Transformer Market Size by Power Rating &amp; CAGR (2024-2031)
+o Market Overview
+o Below 0.5 MVA
+o 0.5–2.5 MVA
+o 2.6–10 MVA
+o Above 10 MVA
+• Global Distribution Transformer Market Size by Insulation &amp; CAGR (2024-2031)
+o Market Overview
+o Oil Immersed
+o Dry
+• Global Distribution Transformer Market Size by End User &amp; CAGR (2024-2031)
+o Market Overview
+o Power Utilities
+o Industrial
+o Residential &amp; Commercial
+• Global Distribution Transformer Market Size &amp; CAGR (2024-2031)
+o North America, (Mounting, Phase, Power Rating, Insulation, End User)
+ US
+ Canada
+o Europe, (Mounting, Phase, Power Rating, Insulation, End User)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Mounting, Phase, Power Rating, Insulation, End User)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Mounting, Phase, Power Rating, Insulation, End User)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Mounting, Phase, Power Rating, Insulation, End User)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Hitachi Energy Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Eaton
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Schneider Electric
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Siemens Energy
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Toshiba Energy Systems &amp; Solutions Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CG Power &amp; Industrial Solutions Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o GE Grid Solutions LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ormazabal
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Transformers and Rectifiers India Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wilson Power Solutions
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lemi Trafo Transformers
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hyosung Heavy Industrial
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Celme
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Emerson Electric Co.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o JST Power Equipment, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hammond Power Solutions
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vantran Transformers
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Raychem RPG Private Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Servokon System Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Efacec
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kotsons Pvt. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>◦ Hitachi Energy Ltd.
+◦ Eaton
+◦ Schneider Electric
+◦ Siemens Energy
+◦ Toshiba Energy Systems &amp; Solutions Corporation
+◦ CG Power &amp; Industrial Solutions Ltd.
+◦ GE Grid Solutions LLC
+◦ Ormazabal
+◦ Transformers and Rectifiers India Limited
+◦ Wilson Power Solutions
+◦ Lemi Trafo Transformers
+◦ Hyosung Heavy Industrial
+◦ Celme
+◦ Emerson Electric Co.
+◦ JST Power Equipment, Inc.
+◦ Hammond Power Solutions
+◦ Vantran Transformers
+◦ Raychem RPG Private Limited
+◦ Servokon System Ltd.
+◦ Efacec
+◦ Kotsons Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>By Mounting (Pad, Pole, Underground), By Phase (Three, Single), By Power Rating (Below 0.5 MVA, 0.5–2.5 MVA, 2.6–10 MVA, Above 10 MVA), By Insulation (Oil Immersed, Dry), By End User (Power Utilities, Industrial, Residential &amp; Commercial)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>6.20%</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Synthetic Leather Market Size, Share, Growth Analysis, By Type (PU-based Synthetic Leather, Microfiber Leather), By End-use Industry, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SQMIG15A2267</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-leather-market</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Synthetic Leather Market size was valued at USD 61.7 billion in 2022 and is poised to grow from USD 65.16 billion in 2023 to USD 100.75 billion by 2031, growing at a CAGR of 5.6% during the forecast period (2024-2031).
+The global footwear industry's rising demand is driving significant market growth, particularly for synthetic leather alternatives, largely due to the high cost of natural leather. PVC leather, known for its versatility, is gaining traction across various applications, including bags, clothing, and furniture, where a leather-like finish is needed. In the U.S., consumption of synthetic leather has surged, especially in automotive upholstery, hinting at favorable market conditions. However, the recent COVID-19 pandemic has negatively impacted demand and trade due to various preventive measures. Despite this setback, emerging regional markets in regions like China, India, Brazil, and Southeast Asia are expected to create new growth opportunities, especially within the footwear sector, over the forecast period.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Synthetic Leather market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Synthetic Leather Market Segmental Analysis
+In 2021, Asia Pacific had the greatest market share, and it is anticipated that it would continue to dominate during the projected period. The top three countries that export faux leather are China, India, and South Korea. The development of the synthetic leather market in this region is being fueled by advances in technology, welcoming government investment policies, rising disposable income, and population growth. However, there has been a paradigm shift in attention toward Indian markets as a result of the recent border disputes between China and India and the growing trade disagreement between the US and China. The Indian government has deliberately taken advantage of this chance to encourage self-reliance and has provided incentives to many sectors, particularly Small and Mid-size Enterprises (SMEs) to encourage the production and export of footwear and faux leather.
+Driver of the Global Synthetic Leather Market
+The global synthetic leather market is poised for significant growth due to the rising demand for shoes, automotive interiors, furniture, and apparel in the coming years. This growth is further fueled by the increasing vegan population, which drives the need for non-animal-based materials. While polyvinyl chloride and polyurethane are commonly used raw materials, health concerns surrounding polyvinyl chloride's potential toxicity, including risks of cancer and immune disruption, remain an issue. Despite being more affordable and environmentally sustainable compared to natural leather—which often involves harmful tanning processes—synthetic leather also boasts durability, UV resistance, and a variety of finishes, making it an attractive alternative.
+Restraints in the Global Synthetic Leather Market
+The global synthetic leather market faces significant challenges primarily due to the environmental and health risks associated with key materials such as polyvinyl chloride (PVC) and polyurethane (PU). Both substances pose serious concerns; for instance, polyurethane isocyanate can irritate the lungs, triggering asthma attacks, while prolonged exposure to its fumes can lead to nausea and dizziness for workers in manufacturing facilities. Similarly, PVC is associated with toxic carcinogens like dioxin and phthalates, which are released during its production and incineration, leading to severe environmental contamination. Consequently, the detrimental impacts of these materials are likely to restrict the growth and acceptance of the synthetic leather market.
+Market Trends of the Global Synthetic Leather Market
+The global synthetic leather market is witnessing a significant shift, particularly within the footwear industry, where it is increasingly supplanting traditional leather. This trend is driven by the affordability and versatility of synthetic leather, which is utilized in various components of footwear, including uppers, linings, and insoles. As consumer preferences lean towards sustainable and cost-effective alternatives, faux leather shoes present an attractive option, being approximately three times cheaper than their animal hide counterparts. Additionally, the rise in eco-conscious buying behaviors further bolsters this market trend, positioning synthetic leather as a favored choice among manufacturers and consumers alike.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+• Global Synthetic Leather Market Size by Type &amp; CAGR (2024-2031)
+o Market Overview
+o PU-based Synthetic Leather
+o Microfiber Leather
+o PVC-based Synthetic Leather
+o Bio-based Leather
+• Global Synthetic Leather Market Size by End-use Industry &amp; CAGR (2024-2031)
+o Market Overview
+o Footwear
+ Sports Shoes
+ Formal Shoes &amp; Boots
+ Sandals &amp; Slippers
+o Furnishing
+ Chairs
+ Sofas
+ Bean Bags &amp; Others
+o Automotive
+ Seats
+ Steering Wheel Covers
+ Door Trims, Knobs, &amp; Gear Bot Covers
+o Clothing
+ Jackets
+ Belts
+ Tops, Trousers, And Others
+o Bags, Purses and Wallets
+o Others
+• Global Synthetic Leather Market Size &amp; CAGR (2024-2031)
+o North America, (Type, End-use Industry)
+ US
+ Canada
+o Europe, (Type, End-use Industry)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Type, End-use Industry)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Type, End-use Industry)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Type, End-use Industry)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Kuraray Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o San Fang Chemical Industry Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Teijin Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mayur Uniquoters Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nan Ya Plastics Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Filwel Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Zhejiang Hexin Holdings Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wanhua Chemical Group Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o H.R. Polycoats Private Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kolon Industries Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Marvel Vinyls Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Toray Industries, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Anhui Anli Material Technology Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shandong Jinfeng Artificial Leather Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ecolorica Microfiber S.R.L.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Konus Konex D.O.O.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o United Decoratives Private Limited (Jindal)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Arora Vinyl Pvt. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Zhejiang Yongfa Synthetic Leather Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Politeks Suni Deri Tekstil Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>◦ Kuraray Co., Ltd.
+◦ San Fang Chemical Industry Co., Ltd.
+◦ Teijin Limited
+◦ Mayur Uniquoters Limited
+◦ Nan Ya Plastics Corporation
+◦ Filwel Co., Ltd.
+◦ Zhejiang Hexin Holdings Co., Ltd.
+◦ Wanhua Chemical Group Co., Ltd.
+◦ H.R. Polycoats Private Limited
+◦ Kolon Industries Inc.
+◦ Marvel Vinyls Limited
+◦ Toray Industries, Inc.
+◦ Anhui Anli Material Technology Co., Ltd.
+◦ Shandong Jinfeng Artificial Leather Co., Ltd.
+◦ Ecolorica Microfiber S.R.L.
+◦ Konus Konex D.O.O.
+◦ United Decoratives Private Limited (Jindal)
+◦ Arora Vinyl Pvt. Ltd.
+◦ Zhejiang Yongfa Synthetic Leather Co., Ltd.
+◦ Politeks Suni Deri Tekstil Ltd.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>By Type (PU-based Synthetic Leather, Microfiber Leather, PVC-based Synthetic Leather, Bio-based Leather), By End-use Industry (Footwear, Furnishing, Automotive, Clothing, Bags, Purses and Wallets, Others)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>61.7</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>100.75</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Food Texture Market Size, Share, Growth Analysis, By Type (Cellulose Derivatives, Gums), By Source (Natural, Synthetic), By Form (Dry, Liquid), By Functionality, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SQSG30H2006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-texture-market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Food Texture Market size was valued at USD 12.9 billion in 2022 and is poised to grow from USD 13.64 billion in 2023 to USD 21.25 billion by 2031, growing at a CAGR of 5.7% during the forecast period (2024-2031).
+The market for food texturizing compounds is witnessing significant growth as these additives play a crucial role in enhancing various food properties, such as viscosity, creaminess, and clarity. While consumers often prioritize flavor in food products, the importance of texture is gaining recognition. These texturizing agents can be utilized individually or in combination, contributing to improved food structure and extending shelf life. Texture has become a vital criterion for consumers evaluating food quality and freshness, enhancing their overall sensory experience. Consequently, the food and beverage industry is increasingly leveraging texturizing agents in a wide array of processed products, driving demand and innovation in this segment. As awareness of texture’s significance rises, opportunities in this market continue to expand.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Food Texture market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Food Texture Market Segmental Analysis
+Global Food Texture Market is segmented by Type, Source, Form, Functionality, Application, and Region. Based on Type, the market is segmented into Cellulose Derivatives, Gums, Pectin, Gelatin, Starch, Inulin, Dextrin, and Other Types. Based on Source, the market is segmented into Natural, Synthetic.  Based on Form, the market is segmented into Dry, Liquid.  Based on Functionality, the market is segmented into Stabilizing, Thickening, Gelling, Emulsifying, Other Functionalities. Based on Application, the market is segmented into Bakery &amp; Confectionery Products, Dairy &amp; Frozen Foods, Meat &amp; Poultry Products, Beverages, Snacks &amp; Savory, Sauces &amp; Dressings, and Other Applications. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Global Food Texture Market
+The Global Food Texture market is experiencing significant growth driven by increasing globalization and evolving consumer lifestyles, which have led to a surge in the consumption of convenience foods. As consumer preferences shift, the demand for convenience foods is expected to propel the worldwide food texture market even further. In developed nations, convenience foods are gaining prominence among consumers, and food texture plays a pivotal role in enhancing product appearance and extending shelf life. Emulsifiers, a key type of food additive, are increasingly favored for their ability to reduce overall fat content and lower bad cholesterol, thus bolstering their adoption in processed foods.
+Restraints in the Global Food Texture Market
+The global food texture market faces several challenges, including the concerns related to high-calorie content, energy depletion, and heightened allergenic properties of certain products. Additionally, the manufacturing processes associated with food texture additives may have adverse environmental impacts, hindering market expansion. To address these issues, industry players are increasingly concentrating on the development of safe synthetic alternatives. However, consumers often experience allergies or sensitivities to added texture ingredients, leading to symptoms such as headaches, ulcers, skin rashes, and gastrointestinal disturbances. These adverse reactions can create significant obstacles for growth within the food texture market, as they affect consumer confidence and demand.
+Market Trends of the Global Food Texture Market
+The Global Food Texture Market is witnessing robust growth, driven by increasing consumer demand for innovative food products that enhance sensory experiences and prolong shelf life. As food manufacturers prioritize quality and safety, the adoption of advanced texture modifiers has become paramount, particularly in dairy and bakery sectors where shelf stability against spoilage agents like mold and bacteria is critical. The trend is further fueled by a rising consumer inclination towards premium food items, which emphasizes texture as a key quality attribute. Moreover, the surge in plant-based products is accelerating investments in texture technologies, promising a dynamic evolution in food formulation techniques.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+• Global Food Texture Market Size by Type &amp; CAGR (2024-2031)
+o Market Overview
+o Cellulose Derivatives
+o Gums
+o Pectin
+o Gelatin
+o Starch
+o Inulin
+o Dextrin
+o Other Types
+• Global Food Texture Market Size by Source &amp; CAGR (2024-2031)
+o Market Overview
+o Natural
+o Synthetic
+• Global Food Texture Market Size by Form &amp; CAGR (2024-2031)
+o Market Overview
+o Dry
+o Liquid
+• Global Food Texture Market Size by Functionality &amp; CAGR (2024-2031)
+o Market Overview
+o Stabilizing
+o Thickening
+o Gelling
+o Emulsifying
+o Other Functionalities
+• Global Food Texture Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Bakery &amp; Confectionery Products
+o Dairy &amp; Frozen Foods
+o Meat &amp; Poultry Products
+o Beverages
+o Snacks &amp; Savory
+o Sauces &amp; Dressings
+o Other Applications
+• Global Food Texture Market Size &amp; CAGR (2024-2031)
+o North America, (Type, Source, Form, Functionality, Application)
+ US
+ Canada
+o Europe, (Type, Source, Form, Functionality, Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Type, Source, Form, Functionality, Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Type, Source, Form, Functionality, Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Type, Source, Form, Functionality, Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Ajinomoto Co., Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ADM
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tate &amp; Lyle
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o International Flavors &amp; Fragrances Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cargill, Incorporated
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Avebe
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kerry Group PLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o DSM
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ingredion
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Estelle Chemicals Pvt. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fiberstar, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Riken Vitamin Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Levapan S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nexira
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Palsgaard
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Puratos
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Roquette Freres
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bhansali International
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o B &amp; V SRL
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Altrafine Gums
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>◦ Ajinomoto Co., Inc.
+◦ ADM
+◦ Tate &amp; Lyle
+◦ International Flavors &amp; Fragrances Inc.
+◦ Cargill, Incorporated
+◦ Avebe
+◦ Kerry Group PLC
+◦ DSM
+◦ Ingredion
+◦ Estelle Chemicals Pvt. Ltd.
+◦ Fiberstar, Inc.
+◦ Riken Vitamin Co., Ltd.
+◦ Levapan S.A.
+◦ Nexira
+◦ Palsgaard
+◦ Puratos
+◦ Roquette Freres
+◦ Bhansali International
+◦ B &amp; V SRL
+◦ Altrafine Gums</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>By Type (Cellulose Derivatives, Gums, Pectin, Gelatin, Starch, Inulin, Dextrin, Other Types), By Source (Natural, Synthetic), By Form (Dry, Liquid), By Functionality (Stabilizing, Thickening, Gelling, Emulsifying, Other Functionalities), By Application (Bakery &amp; Confectionery Products, Dairy &amp; Frozen Foods, Meat &amp; Poultry Products, Beverages, Snacks &amp; Savory, Sauces &amp; Dressings, Other Applications)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baby Food Market Size, Share, Growth Analysis, By Product Type (Infant Formula, Snacks), By Demography (Infant, Toddler), By Nature (Organic, Inorganic), By Distribution Channel (Supermarkets/Hypermarkets, Online Stores), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SQMIG30I2296</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/baby-food-market</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Baby Food Market size was valued at USD 81.2 billion in 2022 and is poised to grow from USD 85.88 billion in 2023 to USD 134.42 billion by 2031, growing at a CAGR of 5.8% during the forecast period (2024-2031).
+The global baby food market is experiencing rapid growth, driven by the rising number of working mothers and heightened parental concerns regarding nutrition. This category of soft, easily ingested food, designed for infants and toddlers aged six months to two years, includes various flavors and products ranging from mashed table food to commercially available options. Increased urbanization and disposable income are expanding demand, particularly in developing nations. Consumers are now more aware of the advantages of professional baby food, which not only meets nutritional needs but also alleviates issues like undernutrition. The organic segment is gaining traction as parents become conscious of synthetic ingredients, ultimately propelling market growth and product innovation in response to modern lifestyles.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Baby Food market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Baby Food Market Segmental Analysis
+Global Baby Food Market is segmented by Product Type, Demography, Nature, Distribution Channel, and Region. Based on Product Type, the market is segmented into Infant Formula, Snacks, Purees, Cereals, Juice &amp; Smoothies, and Others.  Based on Demography, the market is segmented into Infant, Toddler, and Pre Schooler.  Based on Nature, the market is segmented into Organic, Inorganic.  Based on Distribution Channel, the market is segmented into Supermarkets/Hypermarkets, Grocery Stores &amp; Pharmacy Stores, Online Stores, and Others. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Baby Food Market
+The Global Baby Food market is significantly driven by the rise in the number of working women, leading to a higher demand for convenient, high-quality baby food options due to limited time for food preparation. This trend is particularly prevalent in urban areas, where ready-to-eat baby foods ensure proper nutrition for infants. Additionally, the growing disposable income and increased household spending empower consumers to expand their purchases and invest in premium baby food alternatives. As families seek convenient and nutritious options for feeding their children, the market is poised for notable growth, catering to the evolving needs of modern parents.
+Restraints in the Global Baby Food Market
+The Global Baby Food market faces significant challenges due to stringent regulatory scrutiny, as this industry significantly influences child health. Baby food manufacturers are continually monitored by law enforcement because their products must adhere to strict safety and quality standards. Additionally, research indicates that baby food does not meet the nutritional benchmarks set by breast milk, thereby rendering it an insufficient substitute for fulfilling a child's nutritional needs. This discrepancy poses a restraint on the market, as parents and guardians increasingly seek alternatives that ensure optimal health and developmental outcomes for their infants, further complicating the landscape for baby food companies.
+Market Trends of the Global Baby Food Market
+The global baby food market is witnessing a significant trend towards eco-friendly packaging, as manufacturers increasingly recognize the importance of sustainability in consumer purchasing decisions. By utilizing recyclable raw materials, companies can differentiate their products and appeal to environmentally conscious parents. This shift not only enhances brand image but also fosters loyalty among consumers who prioritize green initiatives. Through innovative green marketing strategies, brands are effectively communicating their commitment to sustainability, thereby gaining a competitive edge. As awareness of environmental impact grows, the demand for sustainably packaged baby food is expected to rise, shaping the future landscape of the industry.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Patent Analysis
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+• Global Baby Food Market Size by Product Type &amp; CAGR (2024-2031)
+o Market Overview
+o Infant Formula
+o Snacks
+o Purees
+o Cereals
+o Juice &amp; Smoothies
+o Others
+• Global Baby Food Market Size by Demography &amp; CAGR (2024-2031)
+o Market Overview
+o Infant
+o Toddler
+o Pre Schooler
+• Global Baby Food Market Size by Nature &amp; CAGR (2024-2031)
+o Market Overview
+o Organic
+o Inorganic
+• Global Baby Food Market Size by Distribution Channel &amp; CAGR (2024-2031)
+o Market Overview
+o Supermarkets/Hypermarkets
+o Grocery Stores &amp; Pharmacy Stores
+o Online Stores
+o Others
+• Global Baby Food Market Size &amp; CAGR (2024-2031)
+o North America, (Product Type, Demography, Nature, Distribution Channel)
+ US
+ Canada
+o Europe, (Product Type, Demography, Nature, Distribution Channel)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Product Type, Demography, Nature, Distribution Channel)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Product Type, Demography, Nature, Distribution Channel)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Product Type, Demography, Nature, Distribution Channel)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Nestle S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Danone S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Abbott Laboratories
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mead Johnson Nutrition Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Kraft Heinz Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Hain Celestial Group, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hero Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bellamy's Organic
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Plum Organics
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Beech-Nut Nutrition Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Gerber Products Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Happy Family Brands
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ella's Kitchen Group Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o HiPP GmbH &amp; Co. Vertrieb KG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cow &amp; Gate
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o SMA Nutrition
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Organix Brands Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Parent's Choice
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Earth's Best
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yummy Spoonful
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>◦ Nestle S.A.
+◦ Danone S.A.
+◦ Abbott Laboratories
+◦ Mead Johnson Nutrition Company
+◦ The Kraft Heinz Company
+◦ The Hain Celestial Group, Inc.
+◦ Hero Group
+◦ Bellamy's Organic
+◦ Plum Organics
+◦ Beech-Nut Nutrition Company
+◦ Gerber Products Company
+◦ Happy Family Brands
+◦ Ella's Kitchen Group Limited
+◦ HiPP GmbH &amp; Co. Vertrieb KG
+◦ Cow &amp; Gate
+◦ SMA Nutrition
+◦ Organix Brands Ltd
+◦ Parent's Choice
+◦ Earth's Best
+◦ Yummy Spoonful</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>By Product Type (Infant Formula, Snacks, Purees, Cereals, Juice &amp; Smoothies, Others), By Demography (Infant, Toddler, Pre Schooler), By Nature (Organic, Inorganic), By Distribution Channel (Supermarkets/Hypermarkets, Grocery Stores &amp; Pharmacy Stores, Online Stores, Others)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>81.2</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>134.42</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sandwiches Market Size, Share, Growth Analysis, By Product (Fresh sandwiches, Pre-packaged sandwiches), By Type, By Bread Type, By Distribution Channel, By Consumer Preference, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SQMIG30I2295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/sandwiches-market</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Sandwiches Market size was valued at USD 1.56 billion in 2022 and is poised to grow from USD 1.7 billion in 2023 to USD 3.34 billion by 2031, growing at a CAGR of 8.82% during the forecast period (2024-2031).
+The breakfast sandwich market is witnessing a surge in popularity, largely due to the demand for egg protein and the growing consumer preference for organic ingredients as awareness of chemical food products rises. Producers are actively focusing on sourcing organic meats, vegetables, and breads to align with these trends. Packaging plays a crucial role, with consumers favoring environmentally friendly and sustainable options, contributing to the increased demand for pre-packaged sandwiches. In 2021, non-vegetarian products dominated the market, accounting for over 70% share, recognized for their protein content and essential micronutrients. The urbanization of developing nations like China and Brazil is further driving meat product consumption, while millennials are embracing nutritious, convenient meals packaged with poultry, bacon, eggs, and fish.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Sandwiches market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Sandwiches Market Segmental Analysis
+Global Sandwiches Market is segmented by Product, Type, Bread Type, Distribution Channel, Consumer Preference, and Region. Based on Product, the market is segmented into Fresh sandwiches, and Pre-packaged sandwiches.  Based on Type, the market is segmented into Non-vegetarian, and Vegetarian. Based on Bread Type, the market is segmented into Whole Wheat Bread, White Bread, Multigrain Bread, Rye Bread, Other Bread Types. Based on Distribution Channel, the market is segmented into Restaurants, Brand Outlets, Others. Based on Consumer Preference, the market is segmented into Dine In, and Dine Out. Based on Region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Global Sandwiches Market
+The global sandwiches market is primarily driven by the popularity of fast food restaurants and the trend of sandwich consumption in households. The rising demand for fast food among millennials, evolving consumer preferences, the adoption of Western eating habits, and increased disposable income are all contributing to the market's growth. Additionally, the rising trend of using snacks as meal replacements in various regions further propels market expansion. As consumer lifestyles become busier and more fast-paced, sandwiches are increasingly viewed as convenient, on-the-go meal options, which bolsters the overall market potential and demand for diverse sandwich offerings.
+Restraints in the Global Sandwiches Market
+The growth of the global sandwiches market is expected to be hindered by a stagnation in product development over the forecast period. Despite this, there is a noticeable shift among food processors and consumers towards fast-food preferences, moving away from traditional cooked options. As younger generations continue to evolve their tastes and seek innovative food experiences, the market is likely to benefit from their desire for new and convenient sandwich offerings. This shift in consumer behavior, combined with the demand for unique and diverse products, may ultimately foster growth in the sandwiches market, despite existing restraints.
+Market Trends of the Global Sandwiches Market
+The global sandwich market is witnessing robust growth, fueled by a rising consumer appetite for convenient, health-oriented, and customizable meal solutions. Key trends driving this expansion include a surge in demand for plant-based, gluten-free, and organic ingredients, catering to health-conscious and environmentally savvy consumers. Furthermore, the market is embracing artisanal and gourmet sandwiches, elevating the dining experience. Innovations in sustainable packaging are enhancing convenience, while digitalization is transforming consumer interactions through the proliferation of online food delivery services and mobile apps that facilitate quick ordering and personalized options. These dynamics are collectively propelling the sandwich market's ongoing evolution and expansion.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+o Customer &amp; Buying Criteria Analysis
+• Global Sandwiches Market Size by Product &amp; CAGR (2024-2031)
+o Market Overview
+o Fresh sandwiches
+o Pre-packaged sandwiches
+• Global Sandwiches Market Size by Bread Type &amp; CAGR (2024-2031)
+o Market Overview
+o Whole Wheat Bread
+o White Bread
+o Multigrain Bread
+o Rye Bread
+o Other Bread Types
+• Global Sandwiches Market Size by Distribution Channel &amp; CAGR (2024-2031)
+o Market Overview
+o Restaurants
+o Brand Outlets
+o Others
+• Global Sandwiches Market Size by Consumer Preference &amp; CAGR (2024-2031)
+o Market Overview
+o Dine In
+o Dine Out
+ Self - Buy
+ Through Delivery Partners
+• Global Sandwiches Market Size by Type &amp; CAGR (2024-2031)
+o Market Overview
+o Non-vegetarian
+o Vegetarian
+• Global Sandwiches Market Size &amp; CAGR (2024-2031)
+o North America, (Product, Type)
+ US
+ Canada
+o Europe, (Product, Type)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Product, Type)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Product, Type)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Product, Type)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o McDonald's
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Panera Bread
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Subway
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Starbucks
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Jimmy John's
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Arby's
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dunkin' Donuts
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Pret A Manger
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Jason's Deli
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Quiznos
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Firehouse Subs
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Jersey Mike's
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Potbelly Sandwich Shop
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Which Wich
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Earl of Sandwich
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Capriotti's Sandwich Shop
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Togo's Sandwiches
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Blimpie
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cousins Subs
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Erbert &amp; Gerbert's Sandwich Shop
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>◦ McDonald's
+◦ Panera Bread
+◦ Subway
+◦ Starbucks
+◦ Jimmy John's
+◦ Arby's
+◦ Dunkin' Donuts
+◦ Pret A Manger
+◦ Jason's Deli
+◦ Quiznos
+◦ Firehouse Subs
+◦ Jersey Mike's
+◦ Potbelly Sandwich Shop
+◦ Which Wich
+◦ Earl of Sandwich
+◦ Capriotti's Sandwich Shop
+◦ Togo's Sandwiches
+◦ Blimpie
+◦ Cousins Subs
+◦ Erbert &amp; Gerbert's Sandwich Shop</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>By Product (Fresh sandwiches, Pre-packaged sandwiches), By Type (Non-vegetarian, Vegetarian), By Bread Type (Whole Wheat Bread, White Bread, Multigrain Bread, Rye Bread, Other Bread Types), By Distribution Channel (Restaurants, Brand Outlets, Others), By Consumer Preference (Dine In, Dine Out)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>8.82%</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pomegranate Market Size, Share, Growth Analysis, By Product Type (Pomegranate Powder, Pomegranate Juice), By Category (Organic, Conventional), By Application, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SQMIG30H2041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pomegranate-market</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Pomegranate Market size was valued at USD 248.1 million in 2022 and is poised to grow from USD 260.5 million in 2023 to USD 384.8 million by 2031, growing at a CAGR of 5% during the forecast period (2024-2031).
+The global pomegranate market is expected to flourish due to the increasing demand for diverse pomegranate products such as powder, juice, and functional beverages. The rise in consumption of processed pomegranate goods, particularly juice and cosmetics, is a key trend driving market momentum. Government initiatives, including subsidies and farmer training, are creating opportunities for market participants by enhancing production capabilities. Notably, the higher costs of pomegranates in North America and Europe underscore the need for cost-reduction strategies, with automation in cultivation and harvesting identified as a potential solution to boost efficiency and lower expenses. Pomegranate powder is projected to capture the largest revenue share, with a CAGR of approximately 4.8%, while the US market is set for sustainable growth in the upcoming forecast year.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Pomegranate market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Pomegranate Market Segmental Analysis
+Global Pomegranate Market is segmented by Product Type, Category, Application, and region. Based on Product Type, the market is segmented into Pomegranate Powder, Pomegranate Juice, Pomegranate Concentrate. Based on Category, the market is segmented into Organic, Conventional. Based on Application, the market is segmented into Food &amp; Beverage (Confectionery, Dairy, Beverages, Bakery, Condiments), Pharmaceutical, Cosmetics, and Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Pomegranate Market
+The global pomegranate market is driven by the increasing popularity of pomegranate juice and powder in various functional foods and beverages. As health awareness among consumers rises, the demand for functional products has surged. Pomegranate's ability to enhance the flavor and nutritional profile of processed foods, such as cookies, cakes, and pastries, has caught the attention of food manufacturers, who are innovating to introduce products featuring this superfruit. Beyond food and beverage, pomegranate-derived products are gaining traction across various industries due to their numerous health benefits. Additionally, the rising preference for minimally processed and organic remedies has further propelled the growth of the pomegranate market.
+Restraints in the Global Pomegranate Market
+The global pomegranate market faces several restraints that hinder its growth. Seasonal factors play a crucial role in pomegranate cultivation and harvesting, leading to fluctuations in availability and impacting market expansion. Furthermore, the production of various pomegranate products often involves costly methods and techniques, which contribute to higher retail prices. This financial burden can deter consumers and slow market growth. Additionally, the high risk of microbial contamination in pomegranates raises concerns about product quality, thereby limiting consumer confidence and further constraining the market's development. Together, these challenges present significant obstacles for the global pomegranate industry.
+Market Trends of the Global Pomegranate Market
+The global pomegranate market is experiencing a notable shift in supplier dynamics, particularly highlighted by Turkey's ascendance as a dominant player. Traditionally, Europe was the primary supplier of pomegranates to Ukraine, but recent trends indicate a significant transition, with Turkey capturing a staggering 92% of the market share, up from 70%. This transformation underscores Turkey's strategic positioning, not only enhancing its export capabilities but also catering to rising consumer demand for pomegranates in Eastern Europe. As health consciousness and the superfruit trend continue to surge globally, such supplier realignments are likely to reshape market strategies and foster competitive landscapes across regions.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Pricing Analysis
+o Value Chain Analysis
+o Regulatory Analysis
+o Market Attractiveness Index
+o Trade Analysis
+o PESTEL Analysis
+• Global Pomegranate Market Size by Product Type &amp; CAGR (2024-2031)
+o Market Overview
+o Pomegranate Powder
+o Pomegranate Juice
+o Pomegranate Concentrate
+• Global Pomegranate Market Size by Category &amp; CAGR (2024-2031)
+o Market Overview
+o Organic
+o Conventional
+• Global Pomegranate Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Food and Beverage
+ Confectionery
+ Dairy
+ Beverages
+ Bakery
+ Condiments
+o Pharmaceuticals
+o Cosmetics and Personal Care
+o Others
+• Global Pomegranate Market Size &amp; CAGR (2024-2031)
+o North America, (By Product Type, By Category, By Application)
+ US
+ Canada
+o Europe, (By Product Type, By Category, By Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Product Type, By Category, By Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Product Type, By Category, By Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Product Type, By Category, By Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o PomWonderful LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Wonderful Company LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lakewood Organic
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Purely Pomegranate
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Del Monte Foods Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Minute Maid (Coca-Cola Company)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tropi (Tropicana Products Inc.)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Navneet Impex
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fresh India Organics
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fleur Alpine
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>◦ PomWonderful LLC
+◦ The Wonderful Company LLC
+◦ Lakewood Organic
+◦ Purely Pomegranate
+◦ Del Monte Foods Inc.
+◦ Minute Maid (Coca-Cola Company)
+◦ Tropi (Tropicana Products Inc.)
+◦ Navneet Impex
+◦ Fresh India Organics
+◦ Fleur Alpine</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>By Product Type (Pomegranate Powder, Pomegranate Juice, Pomegranate Concentrate), By Category (Organic, Conventional), By Application (Food &amp; Beverage (Confectionery, Dairy, Beverages, Bakery, Condiments), Pharmaceutical, Cosmetics, and Others)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>248.1</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>260.5</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>384.8</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>USD Million</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Insoluble Sulfur Market Size, Share, Growth Analysis, By Grade (Regular Grades, High Dispersion Grades), By Product, By Application, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SQMIG15A2264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/insoluble-sulfur-market</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Insoluble Sulfur Market size was valued at USD 1.49 billion in 2022 and is poised to grow from USD 1.56 billion in 2023 to USD 2.31 billion by 2031, growing at a CAGR of 5% during the forecast period (2024-2031).
+The market for insoluble sulphur as a rubber-curing agent is poised for significant growth, driven by increasing demand from rubber manufacturers, particularly in tire production. As global vehicle registration rises, the need for new tires fuels this demand. Furthermore, advancements from major corporations have reshaped the landscape; for instance, Eastman Chemical Company's introduction of CrystexCure Pro enhances tire properties, while Nynas has launched the Nytex line, tailored for diverse applications like wire insulation and pipeline production. These innovations, amid rigorous research investments by key players, promise improvements in product quality, resilience, and cost-effectiveness. As competition intensifies, the market is witnessing a wave of creative developments that are redefining industry standards and expanding the scope of rubber applications.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Insoluble Sulfur market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Insoluble Sulfur Market Segmental Analysis
+Global Insoluble Sulfur Market is segmented by Grade, Product, Application, Distribution Channel, and region. Based on Grade, the market is segmented into Regular Grades, High Dispersion Grades, High Stability Grades, Special Grades. Based on Product, the market is segmented into Non-Oil-Filled Insoluble Sulfur, Oil-Filled Insoluble Sulfur. Based on Application, the market is segmented into Tire Manufacturing, Industrial Application, Footwear, Cable and Wire, Pipe, and Others. Based on Distribution Channel, the market is segmented into Direct/Institutional Sales, Retail Sales, Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Insoluble Sulfur Market
+The global insoluble sulfur market is primarily driven by its extensive use in the tire industry. As vehicle traffic increases worldwide, there is a heightened demand for durable and low-maintenance tire options. Tire manufacturers face immense pressure from both consumers and regulators to develop fuel-efficient products, which can be achieved through the use of insoluble sulfur. This compound enhances the conversion of raw rubber to robust end products by facilitating high-heat processes that increase both strength and flexibility. Moreover, insoluble sulfur significantly improves the wear resistance and aging of various rubber applications, including tires, latex, pipes, footwear, and cable insulation, thus positioning itself as a key player in the expanding rubber sector.
+Restraints in the Global Insoluble Sulfur Market
+The Global Insoluble Sulfur market is currently facing significant challenges due to the lasting impacts of the recent global pandemic, which has led to temporary shutdowns in the automotive and tire manufacturing sectors. This downturn marks the most difficult period for the insoluble sulfur industry in a quarter of a century. Additionally, the pandemic has caused widespread disruptions in the global supply chain, resulting in increased prices for chemicals, which has further hindered the tire industry's production capabilities. These factors combined have created formidable restraints for the growth and recovery of the insoluble sulfur market.
+Market Trends of the Global Insoluble Sulfur Market
+The Global Insoluble Sulfur market is witnessing a significant upward trend, fueled by the growing demand for durable and high-tolerance rubber goods across various industries, including automotive and manufacturing. As a critical vulcanizing agent, insoluble sulfur enhances the performance of rubber products such as tires, footwear, insulation materials, and automotive components. The projected increase in the supply of insoluble sulfur aligns with an expanding rubber market, driven by innovations and heightened consumption in emerging economies. Additionally, sustainability efforts are prompting manufacturers to explore eco-friendly rubber applications, further catalyzing the market's growth during the forecast period.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Patent Analysis
+o Value Chain Analysis
+o Case Study Analysis
+o Regulatory Analysis
+o Market Attractiveness Index
+o Pricing Analysis
+• Global Insoluble Sulfur Market Size by Grade &amp; CAGR (2024-2031)
+o Market Overview
+o Regular Grades
+o High Dispersion Grades
+o High Stability Grades
+o Special Grades
+• Global Insoluble Sulfur Market Size by Product &amp; CAGR (2024-2031)
+o Market Overview
+o Non-Oil-Filled Insoluble Sulfur
+o Oil-Filled Insoluble Sulfur
+• Global Insoluble Sulfur Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Tire Manufacturing
+o Industrial Application
+o Footwear
+o Cable and Wire
+o Pipe
+o Others
+• Global Insoluble Sulfur Market Size by Distribution Channel &amp; CAGR (2024-2031)
+o Market Overview
+o Direct/Institutional Sales
+o Retail Sales
+o Others
+• Global Insoluble Sulfur Market Size &amp; CAGR (2024-2031)
+o North America, (By Grade, By Product, By Application, By Distribution Channel)
+ US
+ Canada
+o Europe, (By Grade, By Product, By Application, By Distribution Channel)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Grade, By Product, By Application, By Distribution Channel)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Grade, By Product, By Application, By Distribution Channel)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Grade, By Product, By Application, By Distribution Channel)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Eastman Chemical Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shikoku Chemicals Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Oriental Carbon &amp; Chemicals Limited (OCCL)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nynas AB
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o China Sunsine Chemical Holdings Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Henan Kailun Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lions Industries S.r.l.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Grupa Azoty
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shandong Yanggu Huatai Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Weifang Jiahong Chemical Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sinochem International Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lanxess AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Qingdao Eastchem Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o KKPC (Korea Kumho Petrochemical)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tianjin Rubber Additives Factory
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Aptiv PLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cree, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NXP Semiconductors N.V.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Denso Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>◦ Eastman Chemical Company
+◦ Shikoku Chemicals Corporation
+◦ Oriental Carbon &amp; Chemicals Limited (OCCL)
+◦ Nynas AB
+◦ China Sunsine Chemical Holdings Ltd.
+◦ Henan Kailun Chemical Co., Ltd.
+◦ Lions Industries S.r.l.
+◦ Grupa Azoty
+◦ Shandong Yanggu Huatai Chemical Co., Ltd.
+◦ Weifang Jiahong Chemical Co., Ltd.
+◦ Sinochem International Corporation
+◦ Lanxess AG
+◦ Qingdao Eastchem Inc.
+◦ KKPC (Korea Kumho Petrochemical)
+◦ Tianjin Rubber Additives Factory
+◦ Aptiv PLC
+◦ Cree, Inc.
+◦ NXP Semiconductors N.V.
+◦ Denso Corporation</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>By Grade (Regular Grades, High Dispersion Grades, High Stability Grades, Special Grades), By Product (Non-Oil-Filled Insoluble Sulfur, Oil-Filled Insoluble Sulfur), By Application (Tire Manufacturing, Industrial Application, Footwear, Cable and Wire, Pipe, and Others), By Distribution Channel (Direct/Institutional Sales, Retail Sales, Others)</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Luxury Apparel Market Size, Share, Growth Analysis, By Product Type (Topwear, Bottomwear), By Age Group (Geriatric, Adult), By Application (Formal Wear, Sports Wear), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SQMIG25K2085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/luxury-apparel-market</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Luxury Apparel Market size was valued at USD 76.8 billion in 2022 and is poised to grow from USD 80.1 billion in 2023 to USD 110.4 billion by 2031, growing at a CAGR of 4.1% during the forecast period (2024-2031).
+The growing number of millionaires, coupled with enhanced brand loyalty among consumers, is set to drive demand in the luxury goods market. As consumers increasingly associate luxury items with social status, there is a noticeable uptick in spending on high-end products fueled by rising disposable incomes. Many first-time luxury apparel buyers aim to experience superior quality and project a desirable image, often leading to lasting brand allegiance. Established luxury brands focus on maintaining consistent product quality and are keenly attuned to consumer perceptions, significantly influencing their brand evolution. However, the market faces challenges, including the prevalence of counterfeit goods and consumer confusion regarding product authenticity, which can undermine brand loyalty and complicate the purchasing decisions of discerning buyers.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Luxury Apparel market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Luxury Apparel Market Segmental Analysis
+Global Luxury Apparel Market is segmented by Product Type, Age Group, Application, Sales Channel, and region. Based on Product Type, the market is segmented into Topwear, Bottomwear, and Others. Based on Age Group, the market is segmented into Geriatric, Adult, Kids, and Toddler. Based on Application, the market is segmented into Formal Wear, Sports Wear, Casual Wear, Safety Apparel, and Others. Based on Sales Channel, the market is segmented into Supermarkets/Hypermarkets, Independent Retail Stores, Specialty Stores, E-Commerce, and Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Luxury Apparel Market
+The Global Luxury Apparel market is propelled by increased engagement between consumers and key brands through social media and online retail channels, significantly boosting sales of high-end fashion. The surge in internet-based transactions has been pivotal for the luxury clothing sector, as nearly half of purchase decisions are shaped by exposure to both offline and online content. Customized offers and captivating advertisements via social media and magazines have become crucial in driving luxury sales. Additionally, luxury apparel serves as a status symbol, encouraging discretionary spending among affluent consumers, with millennials’ growing affinity for luxury fashion further fueling market expansion.
+Restraints in the Global Luxury Apparel Market
+The Global Luxury Apparel market faces significant restraints primarily due to the high costs associated with premium fashion items. Luxury brands are characterized by their use of superior materials and the expertise of skilled artisans, leading to manufacturing processes that differ greatly from those of fast fashion. The commitment to exceptional quality throughout production, including meticulous attention to printing and dyeing, contributes to the elevated prices of luxury apparel. However, this premium pricing presents a challenge, as a large portion of consumers are price-sensitive and tend to gravitate towards more affordable fast fashion alternatives, which further restricts the market's growth potential.
+Market Trends of the Global Luxury Apparel Market
+The Global Luxury Apparel market is experiencing a notable shift towards e-commerce, significantly enhancing its market capacity. Online platforms offer consumers unparalleled convenience and variety, prompting luxury brands to prioritize digital marketing and sales through their own websites and selective e-retail partners worldwide. Innovative strategies such as celebrity endorsements are effectively broadening the consumer base, appealing to diverse financial demographics. As traditional brick-and-mortar stores face stagnated growth, online retail emerges as a more dynamic channel for luxury apparel sales. This trend underscores the industry's adaptation to evolving consumer behaviors and technological advancements, positioning e-commerce as a pivotal driver of growth in the luxury apparel sector.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Value Chain Analysis
+o Case Study Analysis
+o Market Attractiveness Index
+o Pricing Analysis
+• Global Luxury Apparel Market Size by Product Type &amp; CAGR (2024-2031)
+o Market Overview
+o Topwear
+o Bottomwear
+o Others
+• Global Luxury Apparel Market Size by Age Group &amp; CAGR (2024-2031)
+o Market Overview
+o Geriatric
+o Adult
+o Kids
+o Toddler
+• Global Luxury Apparel Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Formal Wear
+o Sports Wear
+o Casual Wear
+o Safety Apparel
+o Others
+• Global Luxury Apparel Market Size by Sales Channel &amp; CAGR (2024-2031)
+o Market Overview
+o Supermarkets/Hypermarkets
+o Independent Retail Stores
+o Specialty Stores
+o E-Commerce
+o Others
+• Global Luxury Apparel Market Size &amp; CAGR (2024-2031)
+o North America, (By Product Type, By Age Group, By Application, By Sales Channel)
+ US
+ Canada
+o Europe, (By Product Type, By Age Group, By Application, By Sales Channel)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Product Type, By Age Group, By Application, By Sales Channel)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Product Type, By Age Group, By Application, By Sales Channel)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Product Type, By Age Group, By Application, By Sales Channel)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Gucci
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Prada
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dior
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ralph Lauren
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Armani
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chanel
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Burberry
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Louis Vuitton (LVMH)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dolce &amp; Gabbana
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Valentino
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bottega Veneta
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Versace
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Salvatore Ferragamo
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hermès
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hugo Boss
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Michael Kors
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Moncler
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tod's
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yves Saint Laurent (Kering)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Alexander McQueen (Kering)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>◦ Gucci
+◦ Prada
+◦ Dior
+◦ Ralph Lauren
+◦ Armani
+◦ Chanel
+◦ Burberry
+◦ Louis Vuitton (LVMH)
+◦ Dolce &amp; Gabbana
+◦ Valentino
+◦ Bottega Veneta
+◦ Versace
+◦ Salvatore Ferragamo
+◦ Hermès
+◦ Hugo Boss
+◦ Michael Kors
+◦ Moncler
+◦ Tod's
+◦ Yves Saint Laurent (Kering)
+◦ Alexander McQueen (Kering)</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>By Product Type (Topwear, Bottomwear, and Others), By Age Group (Geriatric, Adult, Kids, and Toddler), By Application (Formal Wear, Sports Wear, Casual Wear, Safety Apparel, and Others), By Sales Channel (Supermarkets/Hypermarkets, Independent Retail Stores, Specialty Stores, E-Commerce, and Others)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>76.8</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>80.1</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>110.4</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Solar Tracker Market Size, Share, Growth Analysis, By Product Type (Single axis, Dual axis), By Technology, By Application, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SQMIG55F2004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-tracker-market</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Solar Tracker Market size was valued at USD 7.4 billion in 2022 and is poised to grow from USD 8.9 billion in 2023 to USD 31.4 billion by 2031, growing at a CAGR of 17.1% during the forecast period (2024-2031).
+The global solar tracker market is poised for significant growth, driven by advancements in machine learning and AI technology. A prime example is Nextracker's acquisition of BrightBox Technologies, leading to the development of the TrueCapture smart tracker control system after extensive R&amp;D. However, the industry faced challenges during the Covid-19 pandemic, with rising shipping costs resulting in substantial financial losses for businesses. Consequently, major players are seeking cost-effective shipping solutions to mitigate these challenges. FTC Solar is investigating breakbulk shipping options to reduce logistics expenses, which soared to over $10 million in Q2 2021, impacting profitability. As companies adapt to these economic pressures, the innovation in solar tracking technology continues to reshape the landscape of renewable energy.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Solar Tracker market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Solar Tracker Market Segmental Analysis
+North America will maintain the top spot in the global market during the forecast period owing to the United States' 2021 deployment of solar trackers, which will surge the demand for goods throughout the region and increase the operational efficiency of the installed panels. Furthermore, the presence of prominent market players in the region and constant mergers and acquisitions taking place among them will boost the global solar tracker market during the forecast period. For example, the master supply agreement (MSA) between Silicon Ranch, one of the biggest independent power producers in the country, and Nextracker LLC, the leading supplier of intelligent, integrated solar tracker and software solutions, will see 1.5 gigawatts (GW) of Nextracker's solar tracker technology delivered to Silicon Ranch projects through 2024, with options to increase as Silicon Ranch's portfolio expands.
+Driver of the Global Solar Tracker Market
+The Global Solar Tracker market is primarily driven by advancements in solar technology and sustainable energy solutions, which have enabled rapid deployment and cost-effective decarbonization of the energy sector. The modular nature of solar tracking systems has garnered increasing recognition as a vital component in promoting energy equity for diverse enterprises. For example, Mahindra Sustain's collaboration with NEXTracker for the Sakaka Solar Park, part of Saudi Arabia's renewable energy initiative, highlights the sector's growth potential, aiming for a capacity of 9.5 GW by 2023. Additionally, the International Energy Agency projects a significant increase in renewable energy's share in global power capacity, with solar photovoltaic systems expected to contribute substantially by 2026, making renewable energy a viable alternative to fossil fuels due to its lower carbon emissions.
+Restraints in the Global Solar Tracker Market
+One significant factor restraining the growth of the global solar tracker market is the rising cost of steel, which is a crucial component of most utility-scale tracking systems. Steel typically makes up over 60% of the total expenses associated with these systems, driving up their overall price. Moreover, in comparison to conventional solar panel installations, the costs of solar tracking systems are considerably higher, which can deter adoption in residential settings where energy demands tend to be lower. For instance, installing 15 ground-mounted solar panels with a power rating of 300 watts can cost around USD 14,625, with an additional USD 500 per module for installation, highlighting the financial barriers that may impede market expansion.
+Market Trends of the Global Solar Tracker Market
+The Global Solar Tracker market is experiencing significant growth, fueled by the increasing adoption of innovative technologies that enhance operational efficiency and financial performance in renewable energy. By leveraging advanced tracking systems that utilize real-time weather data and terrain analysis, companies like Nextracker are revolutionizing solar energy management. Their integration of over 400,000 sensor-equipped trackers enables predictive maintenance, allowing for proactive detection and resolution of potential issues, thus lowering costs and optimizing performance. This trend not only maximizes energy output but also aligns with global sustainability goals, positioning solar trackers as essential assets in future renewable energy projects.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Patent Analysis
+o Value Chain Analysis
+o Case Study Analysis
+o Regulatory Analysis
+o Market Attractiveness Index
+o Pricing Analysis
+o Supply Chain Analysis
+o Technology Analysis
+• Global Solar Tracker Market Size by Product Type &amp; CAGR (2024-2031)
+o Market Overview
+o Single axis
+ Horizontal
+ Vertical
+o Dual axis
+• Global Solar Tracker Market Size by Technology &amp; CAGR (2024-2031)
+o Market Overview
+o Solar Photovoltaic (PV)
+o Concentrated Solar Power (CSP)
+o Concentrated Photovoltaic (CPV)
+• Global Solar Tracker Market Size by Application &amp; CAGR (2024-2031)
+o Market Overview
+o Residential
+o Commercial &amp; Industrial
+o Utility
+• Global Solar Tracker Market Size &amp; CAGR (2024-2031)
+o North America, (By Product Type, By Technology, By Application)
+ US
+ Canada
+o Europe, (By Product Type, By Technology, By Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Product Type, By Technology, By Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Product Type, By Technology, By Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Product Type, By Technology, By Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Nextracker Inc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Array Technologies Inc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o PVHardware
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Soltec
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o GameChange Solar
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Arctech
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o FTC Solar
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Valmont Industries, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o All Earth Renewables
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Xiamen Grace Solar New Energy Technology Co., Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sun Action Trackers
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Trinasolar
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ADES Tempero Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Aivatechology
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ArcelorMittal
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Gonvarri Solar Steel
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mecasolar
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Asun Trackers Pvt. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ATEC Robotics
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shandong Zhaori New Energy Tech. Co., Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>◦ Nextracker Inc
+◦ Array Technologies Inc
+◦ PVHardware
+◦ Soltec
+◦ GameChange Solar
+◦ Arctech
+◦ FTC Solar
+◦ Valmont Industries, Inc.
+◦ All Earth Renewables
+◦ Xiamen Grace Solar New Energy Technology Co., Ltd.
+◦ Sun Action Trackers
+◦ Trinasolar
+◦ ADES Tempero Group
+◦ Aivatechology
+◦ ArcelorMittal
+◦ Gonvarri Solar Steel
+◦ Mecasolar
+◦ Asun Trackers Pvt. Ltd.
+◦ ATEC Robotics
+◦ Shandong Zhaori New Energy Tech. Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>By Product Type (Single axis (Horizontal, Vertical), Dual axis), By Technology (Solar Photovoltaic (PV), Concentrated Solar Power (CSP), Concentrated Photovoltaic (CPV)), By Application (Residential, Commercial &amp; Industrial, and Utility)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>31.4</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gaming Market Size, Share, Growth Analysis, By Game Type (Real-time Strategy (RTS), Role-playing (RPG), By Device Type, By Age Group, By Gamer Type, By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SQMIG25J2055</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gaming-market</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Gaming Market size was valued at USD 208.2 billion in 2022 and is poised to grow from USD 233.23 billion in 2023 to USD 527.87 billion by 2031, growing at a CAGR of 10.75% during the forecast period (2024-2031).
+The gaming industry is experiencing unprecedented growth, driven by the rising adoption of smartphones and advanced personal computers in both developing and developed nations. This sector is currently the fastest-growing in the globe, as individuals seek interactive entertainment to relieve stress and enhance leisure time. Gaming not only provides enjoyment but also fosters a sense of achievement and teamwork. Additionally, the surge in educational games supports children's cognitive development by honing their analytical and logical skills. Increased investment in home entertainment further amplifies the gaming market's expansion during the forecast period, positioning it as a significant player in the entertainment landscape and addressing a diverse range of consumer preferences and engagement objectives.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Gaming market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Gaming Market Segmental Analysis
+Global Gaming Market is segmented by Game Type, Device Type, Gamer Type, and region. Based on Game Type, the market is segmented into Real-time Strategy (RTS), Role-playing (RPG), Multiplayer Online Battle Arena (MOBA), Sandbox, Shooter (FPS and TPS), Simulation and Sports, Others. Based on Device Type, the market is segmented into Console, Mobile, Computer. Based on Gamer Type, the market is segmented into Children (6-12 years), Teenagers (13-19 years), Adults (20+ years), Seniors (55+). Based on Gamer Type, the market is segmented into Casual Player, Professional Player. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Gaming Market
+The global gaming market is experiencing significant growth, primarily driven by the increasing engagement of individuals in various video games during their leisure time. Recent American studies indicate that 91% of male children born in 2000 participate in mobile gaming, a notable rise compared to 83% for those born earlier. Additionally, the ongoing economic development, which leads to urbanization and higher disposable incomes, is further stimulating demand for entertainment options, such as gaming. The enhanced internet connectivity across different regions, coupled with the widespread adoption of smartphones, has created a more accessible gaming environment, thus propelling the gaming market's expansion in recent times.
+Restraints in the Global Gaming Market
+The global gaming market faces significant obstacles due to the prevalence of social anxiety and addiction to competitive online shooter games, particularly among young children. This issue not only hampers their academic performance but also negatively impacts their mental well-being, leading to considerable challenges within families. As a result, this growing concern acts as a substantial restraint on the expansion of the gaming industry during the analysis period. Addressing these issues is crucial for fostering a healthier gaming environment and promoting responsible gaming practices, while also ensuring that the market can thrive without compromising the well-being of its younger audience.
+Market Trends of the Global Gaming Market
+The global gaming market is experiencing significant growth driven by an upsurge in championships and tournaments for major gaming titles. These competitive events not only engage diverse age groups but also cultivate a larger audience by highlighting professional players, who serve as influencers within the gaming community. Sponsors strategically target these interests, generating revenue for gaming companies and enhancing visibility. This competitive atmosphere fosters excitement and engagement among fans, further igniting interest in gaming. As a result, the combination of competitive play and marketing initiatives is propelling the gaming market forward, marking it as a key trend in the entertainment industry.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Patent Analysis
+o Case Studies
+• Global Gaming Market Size by Game Type &amp; CAGR (2024-2031)
+o Market Overview
+o Real-time Strategy (RTS)
+o Role-playing (RPG)
+o Multiplayer Online Battle Arena (MOBA)
+o Sandbox
+o Shooter (FPS and TPS)
+o Simulation and Sports
+o Others
+• Global Gaming Market Size by Device Type &amp; CAGR (2024-2031)
+o Market Overview
+o Console
+o Mobile
+o Computer
+• Global Gaming Market Size by Age Group &amp; CAGR (2024-2031)
+o Market Overview
+o Children (6-12 years)
+o Teenagers (13-19 years)
+o Adults (20+ years)
+o Seniors (55+)
+• Global Gaming Market Size by Gamer Type &amp; CAGR (2024-2031)
+o Market Overview
+o Casual Player
+o Professional Player
+• Global Gaming Market Size &amp; CAGR (2024-2031)
+o North America, (Game Type, Device Type, Age Group, &amp; Gamer Type)
+ US
+ Canada
+o Europe, (Game Type, Device Type, Age Group, &amp;Gamer Type)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (Game Type, Device Type, Age Group, &amp; Gamer Type)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (Game Type, Device Type, Age Group, &amp; Gamer Type)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (Game Type, Device Type, Age Group, &amp; Gamer Type)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Sony Interactive Entertainment (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tencent Interactive Entertainment (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Microsoft Gaming (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nintendo (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NetEase Games (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Electronic Arts (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Epic Games (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Take-Two Interactive (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Embracer Group (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o MiHoYo (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Roblox Corporation (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Playtika (Israel)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ubisoft (France)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nexon (South Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o 37Games (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Square Enix (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Oculus Studios (Meta) (USA)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bandai Namco Entertainment (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sega (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Netmarble (South Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>◦ Sony Interactive Entertainment (Japan)
+◦ Tencent Interactive Entertainment (China)
+◦ Microsoft Gaming (USA)
+◦ Nintendo (Japan)
+◦ NetEase Games (China)
+◦ Electronic Arts (USA)
+◦ Epic Games (USA)
+◦ Take-Two Interactive (USA)
+◦ Embracer Group (Sweden)
+◦ MiHoYo (China)
+◦ Roblox Corporation (USA)
+◦ Playtika (Israel)
+◦ Ubisoft (France)
+◦ Nexon (South Korea)
+◦ 37Games (China)
+◦ Square Enix (Japan)
+◦ Oculus Studios (Meta) (USA)
+◦ Bandai Namco Entertainment (Japan)
+◦ Sega (Japan)
+◦ Netmarble (South Korea)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>By Game Type (Real-time Strategy (RTS), Role-playing (RPG), Multiplayer Online Battle Arena (MOBA), Sandbox, Shooter (FPS and TPS), Simulation and Sports, Others), By Device Type (Console, Mobile, Computer), By Age Group (Children (6-12 years), Teenagers (13-19 years), Adults (20+ years), Seniors (55+)), By Gamer Type (Casual Player, Professional Player)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>208.2</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>233.23</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>527.87</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>10.75%</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Backpack Market Size, Share, Growth Analysis, By Product Type (Travel, Hiking/Camping, Others) By Material Type(Nylon, Polyester, Other), By Distribution Channel(Online Channel, Offline Channel), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SQMIG25K2083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/backpack-market</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Backpack Market size was valued at USD 14.601 billion in 2022 and is poised to grow from USD 15.9 billion in 2023 to USD 31.38 billion by 2031, growing at a CAGR of 8.96% in the forecast period (2024-2031).
+The backpack market has experienced significant growth, driven by rising participation in adventure sports and outdoor activities. Unlike handbags, which have limited capacity for heavy loads, backpacks feature multiple compartments and robust designs, making them ideal for hikers and students transporting bulky equipment. Common materials used in backpack production include durable nylon and polyester, known for their strength and flexibility. Heavy textiles like canvas also provide longevity, while leather options enhance aesthetics despite increasing costs. As travel continues to be a focus, many backpacks are specifically designed with the traveler in mind, further contributing to their popularity and expanding market potential. This trend presents a lucrative opportunity for brands to innovate and capture a larger share of the market.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Backpack market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Backpack Market Segmental Analysis
+Global Backpack Market is segmented By Product Type, By Material, By Distribution Channel, By Region. Based on Product Type, the market is segmented into software, service, and hardware. Based on Material, the market is segmented into Nylon, Polyester, Other. Based on Distribution Channel, the market is segmented into Online Channel, Offline Channel. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Backpack Market
+The global backpack market is significantly influenced by the ongoing evolution of customer retention strategies amid intense competition. To stimulate sales, companies are implementing a multitude of promotional offers tailored to diverse markets, including discounts, exchange programs, and seasonal incentives. This strategic approach particularly resonates with price-sensitive consumers in emerging regions like APAC, where frequent promotional activities captivate demand. In response to the increasing appetite for lightweight laptop bags from both students and professionals, manufacturers are channeling investments into innovative product development. Furthermore, the rise of online retail platforms, spurred by a growing smartphone user base, is expected to enhance product accessibility and boost overall market growth.
+Restraints in the Global Backpack Market
+The global backpack market faces several restraints primarily influenced by adverse weather conditions that hinder outdoor recreational activities, such as camping, hiking, and mountain biking. Extreme weather—whether excessively hot, cold, or humid—can lead to uncomfortable experiences, deterring individuals from participating in such activities. These fluctuations in weather can result in event cancellations or decreased attendance, negatively impacting the demand for backpacks. Additionally, the market's growth is further constrained by mediocre weather protection features and the lack of durability in certain backpack components, such as mesh hip-belt pockets. Variations in product demand across countries, often due to the high costs associated with larger hiking backpacks, also play a significant role in limiting the market's expansion.
+Market Trends of the Global Backpack Market
+The Global Backpack market is experiencing a significant trend driven by advancements in radiography techniques and an increasing focus on patient comfort. Companies are investing heavily in research and development to create innovative backpack care tools that enhance the user experience while minimizing discomfort. This strategic shift not only strengthens market potential but also solidifies brand positions as consumers increasingly seek ergonomic and versatile options. As a result, the market is expected to expand steadily, characterized by technological innovations and a heightened emphasis on user-centric designs, positioning the Global Backpack market for sustained growth in the coming years.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Backpack Market Size by Product Type &amp; CAGR (2024-2031)
+o Travel
+o Hiking/Camping
+o Others
+• Global Backpack Market Size by Material &amp; CAGR (2024-2031)
+o Nylon
+o Polyester
+o Other
+• Global Backpack Market Size by Distribution Channel &amp; CAGR (2024-2031)
+o Online Channel
+o Offline Channel
+• Global Backpack Market Size by Region &amp; CAGR (2024-2031)
+o North America, (By Product Type, By Material, By Distribution Channel)
+ US
+ Canada
+o Europe, (By Product Type, By Material, By Distribution Channel)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (By Product Type, By Material, By Distribution Channel)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (By Product Type, By Material, By Distribution Channel)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (By Product Type, By Material, By Distribution Channel)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Adidas AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Under Armor Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Patagonia Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Puma SE
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wildcraft
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Deuter Sport GmbH
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Moët Hennessy Louis Vuitton (LVMH)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Safari
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o VF Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kering S.A
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nike, Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Herschel Supply Co.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ASICS Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Helen of Troy
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mammut Sports Group AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Salomon S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Columbia Sportswear Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mammut Sports Group AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>◦ Adidas AG
+◦ Under Armor Inc.
+◦ Patagonia Inc.
+◦ Puma SE
+◦ Wildcraft
+◦ Deuter Sport GmbH
+◦ Moet Hennessy Louis Vuitton (LVMH)
+◦ Safari
+◦ VF Corporation
+◦ Kering S.A
+◦ Nike, Inc.
+◦ Herschel Supply Co.
+◦ ASICS Corporation
+◦ Helen of Troy
+◦ Mammut Sports Group AG
+◦ Salomon S.A.
+◦ Columbia Sportswear Company
+◦ Mammut Sports Group AG</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>By Product Type (Travel, Hiking/Camping, Others), By Material Type (Nylon, Polyester, Other), By Distribution Channel (Online Channel, Offline Channel)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>14.601</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>15.9</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>31.38</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>8.96%</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sapphire Market Size, Share, Growth Analysis, By Type (Natural, Synthetic), By End-Use (Aerospace &amp; Defense, Medical), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SQMIG15M2012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/sapphire-market</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Sapphire Market size was valued at USD 7.14 billion in 2022 and is poised to grow from USD 7.61 billion in 2023 to USD 12.7 billion by 2031, at a CAGR of 6.61% during the forecast period (2024-2031).
+The demand for sapphires has significantly surged over the past few years, driven by their increasing use in high-end wristwatches, bangles, and jewelry. Sapphires are primarily categorized into natural and synthetic varieties, with the former being mined directly from the earth and commanding a higher market value. Natural blue sapphires, recognized as the earliest form, continue to be highly sought after. Beyond their aesthetic appeal, sapphires boast unique properties such as exceptional hardness, optical transparency, and chemical stability, making them valuable in various industrial applications. They are increasingly utilized in power integrated circuits, semiconductors, opto-semiconductors, and aerospace and defense sectors. Ongoing advancements in sapphire technology are expected to align with developments in the semiconductor industry, further boosting market potential.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Sapphire market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Sapphire Market Segmental Analysis
+Global Sapphire Market is segmented by Source, by End Use and by Region. Based on Source, the market is segmented into Natural, Synthetic. Based on End Use, the market is segmented into Aerospace &amp; Defense, Medical, Semiconductor Equipment, Electronics &amp; Energy, others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Sapphire Market
+The growth of the global sapphire market is significantly influenced by its increasing applications across several industries, including information technology, telecommunications, aerospace, defense, and power. Sapphire's unique properties are positioning it as a vital material for semiconductors, particularly in radio frequency (RF) applications and power electronics, thereby enhancing market expansion. Moreover, in the healthcare sector, sapphire's durability and optically clear characteristics make it ideal for optical applications such as tomography and CO2 laser surgical equipment, as well as in the production of orthopedic implants, scalpels, and optical probes. Its remarkable mechanical strength enables it to withstand harsh conditions, further underscoring its appeal and driving the market's growth.
+Restraints in the Global Sapphire Market
+The global sapphire market faces several constraints, primarily linked to advancements in technology and the ongoing impacts of the COVID-19 pandemic. As synthetic sapphire production becomes more cost-effective, the increasing supply may lead to lower prices, negatively affecting the perceived value of natural sapphires, which are rare and maintain higher price points. Additionally, the pandemic has disrupted supply chains and manufacturing operations across various industries, particularly in defense, which could diminish demand for defense-related products incorporating sapphire. Collectively, these challenges are likely to impede the steady growth of the sapphire market moving forward.
+Market Trends of the Global Sapphire Market
+The global sapphire market is poised for a significant rebound, driven by a surge in consumer electronics demand and innovations in technology. The post-pandemic recovery is characterized by increased mobile device purchases and the proliferation of high-tech products, notably smartwatches that feature durable sapphire screens and advanced health monitoring capabilities like oximeters. This trend reflects consumers' growing preference for durable materials that enhance product longevity and functionality. As manufacturers respond to heightened demand amidst previous supply chain disruptions, the sapphire market is expected to see robust growth, cementing its importance in the tech landscape and health-driven consumer products.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Sapphire Market Size by Source &amp; CAGR (2024-2031)
+o Natural
+o Synthetic
+• Global Sapphire Market Size by End-Use Industry &amp; CAGR (2024-2031)
+o Aerospace &amp; Defense
+o Medical
+o Semiconductor Equipment
+o Electronics &amp; Energy
+o others
+• Global Sapphire Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Source, by End Use)
+ US
+ Canada
+o Europe, (by Source, by End Use)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Source, by End Use)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Source, by End Use)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Source, by End Use)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Rubicon Technology
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Namiki Precision Jewel Co. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Monocrystal Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o DK Aztec Co. Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sapphire Technology Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CrystalTech HK
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o IntElorg Pte
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o SF Tech
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Omega-crystals
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kyocera
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Advanced Renewable Energy Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Saint-Gobain
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Devyani International Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Precision Sapphire Technologies
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Schott
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Restaurant Brands asia
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ILJIN Display co., Ltd
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Juropol Sp.ZO.o
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>◦ Rubicon Technology
+◦ Namiki Precision Jewel Co. Ltd.
+◦ Monocrystal Inc.
+◦ DK Aztec Co. Ltd
+◦ Sapphire Technology Company
+◦ CrystalTech HK
+◦ IntElorg Pte
+◦ SF Tech
+◦ Omega-crystals
+◦ Kyocera
+◦ Advanced Renewable Energy Company
+◦ Saint-Gobain
+◦ Devyani International Ltd
+◦ Precision Sapphire Technologies
+◦ Schott
+◦ Restaurant Brands asia
+◦ ILJIN Display co., Ltd
+◦ Juropol Sp.ZO.o</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>By Source (Natural, Synthetic), By End-Use (Aerospace &amp; Defense, Medical, Semiconductor Equipment, Electronics &amp; Energy, others)</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Asphalt Market Size, Share, Growth Analysis, By Product Type(Hot Mix Asphalt, Cold Mix Asphalt,), By Product(Asphalt Paving Mixtures and Blocks,), By End-use(Residential and Non-residential), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SQMIG15F2085</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/asphalt-market</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Asphalt Market size was valued at USD 2.7 billion in 2022 and is poised to grow from USD 2.8 billion in 2023 to USD 4.16 billion by 2031, growing at a CAGR of 5.1% in the forecast period (2024-2031).
+The asphalt market is experiencing significant growth driven by rapid global urbanization and increasing demand for sustainable construction materials. Asphalt, a blend of aggregates, binder, and filler, is essential for various infrastructures, including sidewalks, roads, and airport runways. The use of recycled materials, such as construction debris, is further enhancing the sustainability of asphalt production. In India, the extensive road network of over 6 million kilometers—supported by government initiatives—has boosted asphalt demand, with a noteworthy uptick in road construction rates observed between 2014 and 2020. Despite setbacks from the COVID-19 pandemic that disrupted supply chains and construction timelines, the industry is gradually recovering, with many local governments working to recalibrate road development projects and ensure economic stability.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Asphalt market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Asphalt Market Segmental Analysis
+Global Asphalt Market is segmented by Type, by Product, by Application, by End User and by Region. Based on Type, the market is segmented into Hot Mix Asphalt, Warm Mix Asphalt, Cold Mix Asphalt. Based on Product, the market is segmented into Asphalt Paving Mixtures and Blocks, Prepared Asphalt and Tar Roofing and Siding Products, Roofing Asphalts and Pitches, Coatings and Cement. Based on Application, the market is segmented into Roadways, Waterproofing, Recreation, Others. Based on End User, the market is segmented into Non-Residential, Residential, Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Asphalt Market
+The global asphalt market is primarily driven by the growing demand in road construction, which accounts for approximately 70% of bitumen usage. Increasing investments in asphalt paving, particularly in highway and street projects, significantly influence market dynamics. With governments committing substantial resources to infrastructure maintenance and development, favorable economic conditions lead to enhanced revenues in the construction sector. Additionally, advancements in technology for mixing facilities and manufacturers' focus on innovative solutions to meet customer needs further propel market growth. Increased awareness of infrastructure vulnerability to extreme weather conditions, driven by climate change, is prompting consumers to seek protective asphalt solutions for both new and existing buildings, thereby boosting roofing applications. The demand for waterproofing infrastructure to prevent moisture-related issues and ensure longevity is also contributing to the market's expansion.
+Restraints in the Global Asphalt Market
+The global asphalt market faces significant restraints primarily due to the fluctuating costs of raw materials, particularly petroleum and crude oil, which are essential for asphalt production. These prices, influenced by stock exchange trading, often lead to unpredictable and costly production processes. Such volatility in raw material costs can hinder industry growth by restricting supply and increasing operational expenses. Furthermore, the ongoing shift towards using cement for road construction in various regions poses an additional threat, potentially stalling the overall development of the asphalt market as alternative materials gain preference for infrastructure projects.
+Market Trends of the Global Asphalt Market
+The global asphalt market is experiencing a significant trend towards enhanced performance and durability through the adoption of asphalt additives and modifiers. Materials such as styrene-butadiene-styrene, crumb rubber, atactic polypropylene, and natural rubber are increasingly used to improve asphalt's strength, flexibility, and resistance to aging and abrasion. This shift not only bolsters the visual appeal and shelf life of asphalt but also significantly enhances the longevity and durability of roads and building structures. As modified asphalt gains traction—particularly in demanding roofing applications—its application is driving the growth of the bitumen industry, projected to continue expanding due to these advancements.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Asphalt Market Size by Type &amp; CAGR (2024-2031)
+o Hot Mix Asphalt
+o Warm Mix Asphalt
+o Cold Mix Asphalt
+• Global Asphalt Market Size by Product &amp; CAGR (2024-2031)
+o Hot Mix Asphalt Paving Mixtures and Blocks
+o Prepared Asphalt and Tar Roofing and Siding Products
+o Roofing Asphalts and Pitches, Coatings and Cement
+• Global Asphalt Market Size by Application &amp; CAGR (2024-2031)
+o Roadways
+o Waterproofing
+o Recreation
+o Others
+• Global Asphalt Market Size by End-Use &amp; CAGR (2024-2031)
+o Non-Residential
+o Residential
+o Others
+• Global Asphalt Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Type, by Product, by Application, by End User)
+ US
+ Canada
+o Europe, (by Type, by Product, by Application, by End User)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Type, by Product, by Application, by End User)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Type, by Product, by Application, by End User)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Type, by Product, by Application, by End User)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Aggregate Industries Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Atlas Roofing Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o BP Plc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cemex
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chevron Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Exxon Mobil Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Imperial Oil Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Owens Corning
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Petroleos de Venezuela S.A
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Shell plc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Total SA
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o United Refining Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Marathon Petroleum Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o United Refining Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Boral, Australia
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Valero Marketing and Supply Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Heidelbergcement AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CEMEX S.A.B. de C.V.,
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o LOTOS Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>◦ Aggregate Industries Ltd.
+◦ Atlas Roofing Corporation
+◦ BP Plc
+◦ Cemex
+◦ Chevron Corporation
+◦ Exxon Mobil Corporation
+◦ Imperial Oil Limited
+◦ Owens Corning
+◦ Petroleos de Venezuela S.A
+◦ Shell plc
+◦ Total SA
+◦ United Refining Inc.
+◦ Marathon Petroleum Corporation
+◦ United Refining Company
+◦ Boral, Australia
+◦ Valero Marketing and Supply Company
+◦ Heidelbergcement AG
+◦ CEMEX S.A.B. de C.V.,
+◦ LOTOS Group</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>By Type (Hot Mix Asphalt, Warm Mix Asphalt, Cold Mix Asphalt), By Product (Asphalt Paving Mixtures and Blocks, Prepared Asphalt and Tar Roofing and Siding Products, Roofing Asphalts and Pitches, Coatings and Cement), By Application (Roadways, Waterproofing, Recreation, Others), By End-Use (Non-Residential, Residential, Others)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Food Service Market Size, Share, Growth Analysis, By Type(Full-Service Restaurants, Quick-Service Restaurants, And Others), By Service Type(Commercial and Non-Commercial), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SQMIG25Q2005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-service-market</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Food Service Market size was valued at USD 2323.29 billion in 2022 and is poised to grow from USD 2540.05 billion in 2023 to USD 5194.6 billion by 2031, growing at a CAGR of 10.76% in the forecast period (2024-2031).
+The food service sector encompasses the preparation, delivery, and management of meals provided by third parties, including in-house cafeteria services and partnerships with restaurants. Recent years have witnessed significant innovation in this domain, as restaurants, hotels, and cafés enhance their offerings to capture consumer interest. Industry players are increasingly focusing on growth strategies, particularly through the integration of online delivery services to align with the rising demand for at-home dining solutions. A notable example is the new long-term partnership between McDonald's and Deliveroo, aimed at enhancing McDelivery services worldwide. This collaboration not only increases accessibility across new regions but also reinforces their commitment to delivering a seamless customer experience, positioning both companies for continued growth in the competitive food service landscape.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Food Service market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Food Service Market Segmental Analysis
+Global Food Service Market is segmented by Restaurant Type, by Category, by Sector and by Region. Based on Restaurant Type, the market is segmented into Street Food, Cafes and Bars, Quick service restaurants, Full service restaurants. Based on Category, the market is segmented into Independent, Chains. Based on Sector, the market is segmented into Commercial, Non-commercial. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Food Service Market
+The global food service market is experiencing significant growth driven by a surge in demand for dining outside the home, spurred by socioeconomic changes. Factors such as technological advancements have enabled food service providers and large-scale manufacturers to enhance operational efficiency and safety, with computer systems playing a crucial role. Increased migration, urbanization, and globalization have led to a heightened interest in diverse cuisines. In the U.S., retail and food service sales reached approximately $680.6 billion in June 2022, with an upward growth trend attributed to rising household incomes and the prevalence of dual-income households. Additionally, the popularity of franchising and the quick-service restaurant sector, particularly among millennials, underscores the evolving preferences in food consumption, as evidenced by a notable percentage of consumers using delivery apps for convenience.
+Restraints in the Global Food Service Market
+The Global Food Service market faces challenges primarily due to shifts in consumer behavior resulting from the COVID-19 pandemic. As millions lost their jobs during the initial outbreak and subsequent lockdowns in 2020, with estimates indicating that 114 million individuals were affected, consumer spending on dining out decreased significantly. Many people began prioritizing health and hygiene, leading to a heightened focus on essential goods rather than discretionary spending like dining. This trend is expected to persist as consumers adopt more cautious financial habits, hence impacting the growth of the food service sector in the foreseeable future.
+Market Trends of the Global Food Service Market
+The global food service market is experiencing a transformative trend driven by the widespread adoption of e-commerce systems, underpinned by economic growth and increasing disposable incomes. As consumers enjoy greater financial flexibility, reliance on electronic payment methods has surged, enhancing transaction security and convenience. The expansion of delivery networks and a diverse range of service providers have catalyzed this shift, leading to greater consumer adoption of online food services. The COVID-19 pandemic further accelerated this trend, particularly in developing nations, reshaping the interaction between customers and suppliers and solidifying online delivery platforms as a vital component of the modern food service landscape.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Food Service Market Size by Restaurant Type &amp; CAGR (2024-2031)
+o Street Food
+o Cafes and Bars
+o Quick service restaurants
+o Full-service restaurants
+• Global Food Service Market Size by Category &amp; CAGR (2024-2031)
+o Independent
+o Chains
+• Global Food Service Market Size by Service Type &amp; CAGR (2024-2031)
+o Commercial
+o Non-Commercial
+• Global Food Service Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Restaurant Type, by Category, by Sector)
+ US
+ Canada
+o Europe, (by Restaurant Type, by Category, by Sector)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Restaurant Type, by Category, by Sector)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Restaurant Type, by Category, by Sector)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Restaurant Type, by Category, by Sector)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o McDonald’s
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Starbucks
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Restaurant Brands International Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Coca-Cola
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tim Hortons
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dominos
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Supermac’s
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Jollibee
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Subway
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Compass Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sodexo
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Aramark
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Elior Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sysco Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Marriott International
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yum! Brands Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Papa John's International Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wendy's Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o FOOD and LIFE Co. Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>◦ McDonald’s
+◦ Starbucks
+◦ Restaurant Brands International Inc.
+◦ Coca-Cola
+◦ Tim Hortons
+◦ Dominos
+◦ Supermac’s
+◦ Jollibee
+◦ Subway
+◦ Compass Group
+◦ Sodexo
+◦ Aramark
+◦ Elior Group
+◦ Sysco Corporation
+◦ Marriott International
+◦ Yum! Brands Inc.
+◦ Papa John's International Inc.
+◦ Wendy's Company
+◦ Food and Life Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>By Restaurant Type (Street Food, Cafes and Bars, Quick service restaurants, Full service restaurants), By Category (Independent, Chains), By Sector (Commercial, Non-commercial)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2323.29</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2540.05</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>5194.6</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>10.76%</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Recycled Glass Market Size, Share, Growth Analysis, By Product (Cullet, Crushed Glass) By Application (Glass Bottle &amp; container, Flat glass,), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SQMIG15G2055</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/recycled-glass-market</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Recycled Glass Market size was valued at USD 4.24 billion in 2022 and is poised to grow from USD 4.51 billion in 2023 to USD 7.35 billion by 2031, growing at a CAGR of 6.4% in the forecast period (2024-2031).
+The global recycled glass market is experiencing significant growth due to rapid industrial development and increasing volumes of glass waste, which contribute to landfill issues and environmental concerns. Heightened awareness initiatives and management programs are fostering ecological progress and promoting the benefits of recycled glass. With most glass waste currently filling landfills or incinerators—which exacerbates global warming—administrative efforts aimed at enhancing waste management through recycled glass utilization are crucial. The recycling process transforms waste and broken glass into new products, leveraging the material's exceptional recyclability. As sustainable practices gain traction, the demand for eco-friendly glass products is expected to rise, further propelling market growth throughout the forecast period.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Recycled Glass market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Recycled Glass Market Segmental Analysis
+Global Recycled Glass Market is segmented by Product, by Application, and by Region. Based on Product, the market is segmented into Cullet, Crushed Glass, Glass Powder. Based on Application, the market is segmented into Glass Bottle &amp; Containers, Flat Glass, Fiber Glass, Highway Beads, Abrasives, Fillers, Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Recycled Glass Market
+A significant driver for the global recycled glass market is the surge in government initiatives aimed at promoting the use of reprocessed materials to curb waste and mitigate climate change impacts. These efforts underscore the vital role glass recycling plays, as recycled glass products can maintain quality comparable to new items when impurities are properly managed. The recycling of glass from sources like soda bottles and other containers proves beneficial, offering an eco-friendly alternative for storage solutions. This practice not only encourages sustainability but also allows companies to cut costs associated with new container procurement, thereby boosting the demand for recycled glass throughout the analysis period.
+Restraints in the Global Recycled Glass Market
+The Global Recycled Glass market faces several restraints that may hinder its growth over the analysis period. Key challenges include the complexities involved in the recycling process, particularly the issues stemming from contamination, which complicates material recovery. Additionally, the lack of established end markets for recycled glass can create further limitations. Shipping costs pose another significant challenge, as recycled glass is considerably heavier than comparable volumes of plastic or metal, making transportation more expensive and less efficient. These factors combined are expected to inhibit the overall development and expansion of the recycled glass industry in the coming years.
+Market Trends of the Global Recycled Glass Market
+The Global Recycled Glass market is witnessing a robust upward trend, driven by the sustainable circular economy and rising environmental awareness among consumers and industries alike. The ability to infinitely recycle glass without compromising its quality allows manufacturers to produce cost-effective products while significantly reducing raw material consumption and energy use. Innovations in processing methods, such as advanced crushing and melting techniques, enhance efficiency and enable the production of diverse products, further fueling market demand. Additionally, stringent regulations promoting waste reduction and corporate sustainability goals are propelling companies to incorporate recycled glass in their supply chains, solidifying its position as a viable solution for sustainable manufacturing.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Recycled Glass Market Size by Product &amp; CAGR (2024-2031)
+o Crushed Glass
+o Cullets
+ Clear Cullets
+ Amber Cullets
+ Green Cullets
+o Glass Powder
+• Global Recycled Glass Market Size by Application &amp; CAGR (2024-2031)
+o Glass Bottle &amp; Containers
+o Flat Glass
+o Fiber Glass
+o Highway Beads
+o Abrasives
+o Fillers
+o Others
+• Global Recycled Glass Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Product, by Application)
+ US
+ Canada
+o Europe, (by Product, by Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Product, by Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Product, by Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Product, by Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Vetropack Holding
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o URM/Berryman Glass Recycling
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Glass Recycled Surfaces
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Momentum Recycling LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dlubak Glass Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vitro Minerals Inc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Harsco Minerals International
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Coloured Aggregates
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Gallo Glass Company
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Trivitro Corporation, G.R.L
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ardagh Group S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Momentum Recycling LLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Verallia Packaging SAS
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Owens-Illinois Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vidroporto S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Recresco Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Pace Glass Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Richfield Industries
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Triveni Glass Ltd.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o BMT CO. LTD.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>◦ Vetropack Holding
+◦ URM/Berryman Glass Recycling
+◦ Glass Recycled Surfaces
+◦ Momentum Recycling LLC
+◦ Dlubak Glass Company
+◦ Vitro Minerals Inc
+◦ Harsco Minerals International
+◦ Coloured Aggregates
+◦ Gallo Glass Company
+◦ Trivitro Corporation, G.R.L
+◦ Ardagh Group S.A.
+◦ Momentum Recycling LLC
+◦ Verallia Packaging SAS
+◦ Owens-Illinois Inc.
+◦ Vidroporto S.A.
+◦ Recresco Ltd.
+◦ Pace Glass Inc.
+◦ Richfield Industries
+◦ Triveni Glass Ltd.
+◦ BMT CO. LTD.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>By Product (Cullet, Crushed Glass, Glass Powder), By Application (Glass Bottle &amp; Containers, Flat Glass, Fiber Glass, Highway Beads, Abrasives, Fillers, Others)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Automotive Engine Oil Market Size, Share, Growth Analysis, By Grade(Mineral, Synthetic), By Engine Type(Diesel, Gasoline), By Application(Passenger Vehicle, Heavy Commercial Vehicle), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SQMIG10C2033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-engine-oil-market</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Automotive Engine Oil Market size was valued at USD 41.15 billion in 2022 and is poised to grow from USD 42.8 billion in 2023 to USD 60.4 billion by 2031, growing at a CAGR of 4% in the forecast period (2024-2031).
+The automotive engine oil segment is witnessing significant growth, driven by its critical function in minimizing metal-on-metal contact and reducing friction, which are primary contributors to engine heat and wear. By creating a lubricating layer on metal components, Engine oil ensures smoother operation and prolongs the lifespan of engine parts. Traditional engine oils remain popular due to their lower cost compared to advanced synthetic options. However, the increasing awareness of synthetic oils' benefits — including superior vehicle protection and enhanced car part longevity — is anticipated to further accelerate market expansion. As consumers seek better performance and safety for their vehicles, the automotive engine oil market is poised for continued growth, reflecting a dynamic shift toward high-quality lubrication solutions.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Automotive Engine Oil market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Automotive Engine Oil Market Segmental Analysis
+Global Automotive Engine Oil Market is segmented by Grade, by Engine Type, by Application, and by Region. Based on Grade, the market is segmented into Mineral, Synthetic, Semi-Synthetic. Based on Engine Type, the market is segmented into Diesel, Gasoline, Alternative Fuel. Based on Application, the market is segmented into Passenger Vehicle, Heavy Commercial Vehicle, Light Commercial Vehicle, Two Wheelers. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Automotive Engine Oil Market
+The global automotive engine oil market is significantly driven by the growing globalization of the automobile industry. This expansion is fueled by increasing consumer demand for high-performance, reliable vehicles, resulting in a rise in vehicle manufacturing. Additionally, the automotive engine oil market is positively impacted by the demand for conventional oils, which are generally more affordable than newer lubricants. Furthermore, synthetic oils have gained popularity due to their superior protection and performance longevity. As industries such as automotive, marine, and aerospace rely heavily on spark plugs, their extensive use is further benefiting the overall growth of the automotive engine oil sector.
+Restraints in the Global Automotive Engine Oil Market
+The Global Automotive Engine Oil market is currently experiencing various challenges that act as significant restraints. Fluctuations in prices, product shortages, and overconsumption have created instability in the market, alongside unpredictable currency variations. Additionally, the constant evolution of efficient product formulations and stringent environmental regulations further complicate matters. The influx of competitors raises concerns about companies' abilities to thrive in a volatile, high-risk market. Moreover, production costs are substantial due to the intricate manufacturing processes involved, making it difficult for companies to offer competitively priced products. Consequently, consumers face challenges in accessing affordable automotive engine oil, impacting overall market dynamics.
+Market Trends of the Global Automotive Engine Oil Market
+The Global Automotive Engine Oil market is witnessing a substantial shift towards synthetic engine oils, as they increasingly replace traditional mineral-based oils. This trend is largely driven by the growing demand in developed regions such as North America and Europe, where consumers prioritize fuel efficiency and extended oil change intervals. The advanced formulation of synthetic oils, derived from alpha-olefins, offers superior performance characteristics, including enhanced temperature resistance and lower volatility, positioning them as a more reliable option. As awareness of environmental sustainability and engine performance benefits increases, the demand for synthetic motor lubricants is expected to surge, marking a pivotal change in the automotive lubricants landscape during the forecast period.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+• Global Automotive Engine Oil Market Size by Grade &amp; CAGR (2024-2031)
+o Mineral
+o Synthetic
+o Semi-Synthetic
+• Global Automotive Engine Oil Market Size by Engine Type &amp; CAGR (2024-2031)
+o Diesel
+o Petrol
+o Alternative Fuel
+• Global Automotive Engine Oil Market Size by Application &amp; CAGR (2024-2031)
+o Passenger Vehicle
+o Heavy Commercial Vehicle
+o Light Commercial Vehicle
+o Two Wheelers
+• Global Automotive Engine Oil Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Grade, by Engine Type, by Application)
+ US
+ Canada
+o Europe, (by Grade, by Engine Type, by Application)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Grade, by Engine Type, by Application)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Grade, by Engine Type, by Application)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Grade, by Engine Type, by Application)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o Shell plc
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Valvoline
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o BP
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fuchs Petrolub
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Petronas
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chevron Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ebi Gmbh
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Castrol India
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Philips 66
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ExxonMobil Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o RelaDyne
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Pentagon Lubricants Private Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o HINDUJA GROUP
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chevron Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o TotalEnergies
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>◦ Shell plc
+◦ Valvoline
+◦ BP
+◦ Fuchs Petrolub
+◦ Petronas
+◦ Chevron Corporation
+◦ Ebi Gmbh
+◦ Castrol India
+◦ Philips 66
+◦ ExxonMobil Corporation
+◦ RelaDyne
+◦ Pentagon Lubricants Private Limited
+◦ HINDUJA GROUP
+◦ Chevron Corporation
+◦ TotalEnergies</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>By Grade (Mineral, Synthetic, Semi-Synthetic), By Engine Type (Diesel, Gasoline, Alternative Fuel), By Application (Passenger Vehicle, Heavy Commercial Vehicle, Light Commercial Vehicle, Two Wheelers)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>60.4</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Makeup Market Size, Share, Growth Analysis, By Product(Powders, Gels), By Application Area(Lips, Eyes), By Distribution Channel(Supermarkets/hypermarkets, Stores,), By Region - Industry Forecast 2024-2031</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SQMIG30L2197</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/makeup-market</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Makeup Market size was valued at USD 40.37 billion in 2022 and is poised to grow from USD 41.85 billion in 2023 to USD 61.34 billion by 2031, growing at a CAGR of 5.61% in the forecast period (2024-2031).
+The global makeup market has seen a significant surge in popularity as cosmetics become integral to daily grooming routines. Products ranging from powders and creams to gels serve not only to enhance facial features like eyes and lips but also to provide a practical grooming solution. Color cosmetics effectively conceal imperfections while simultaneously highlighting an individual’s best attributes, boosting both their appearance and confidence. As consumers increasingly seek ways to express themselves and perfect their looks, the demand for diverse makeup options continues to rise. This trend underscores the importance of innovation and variety in product offerings to cater to an ever-evolving consumer base seeking beauty solutions that align with their personal style and preferences.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Global Makeup market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Global Makeup Market Segmental Analysis
+Global Makeup Market is segmented by Product, by Application, by Distribution Channel and by Region. Based on Product, the market is segmented into Powders, Gels, Lotions, Others. Based on application, the market is segmented into Lips, Eyes, Face, Others. Based on Distribution Channel, the market is segmented into Supermarkets/hypermarkets, Exclusive Br, Stores, Online/e-commerce Channels, Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; and Africa.
+Driver of the Global Makeup Market
+The global makeup market is being driven by key players who are consistently launching innovative products that incorporate cutting-edge technology. Notable trends include the increasing use of probiotics and microbiome-based cosmetics, which enhance product effectiveness and appeal. Companies are also focusing on creating aesthetically pleasing yet user-friendly packaging, thereby increasing demand among consumers. Compact packaging is gaining traction due to its space-saving attributes, making it easy to store and transport in kits or backpacks. Furthermore, heightened investments in research and development are expected to significantly propel the growth of the makeup market, fostering continuous innovation and expansion.
+Restraints in the Global Makeup Market
+A significant challenge facing the global makeup market is the growing awareness of the negative effects associated with prolonged exposure to chemical ingredients found in these products, including preservatives and pigments. Consumers are becoming increasingly informed about the potential for allergic reactions, which may manifest as symptoms like redness, irritation, and other adverse effects. Moreover, the long-term accumulation of harmful substances in the skin can lead to serious conditions such as dermatitis and even cancer if not treated in a timely manner. Consequently, these health concerns are expected to hinder the growth of the makeup industry as consumers seek safer alternatives.
+Market Trends of the Global Makeup Market
+In the evolving landscape of the Global Makeup market, a significant trend has emerged as consumers increasingly prioritize safer, natural products due to rising awareness regarding the harmful effects of synthetic chemicals on skin health. A 2019 study published in the Journal of Resources highlighted that 70% of respondents favored natural cosmetics, signaling a shift in consumer preferences. In response, brands are innovating by incorporating herbal and botanical extracts, including essential oils and antioxidants, to enhance product value and appeal to health-conscious shoppers. This pivot towards clean beauty not only reflects changing attitudes but is also reshaping market dynamics and driving brand differentiation.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Global Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Driver &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis &amp; Impact
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2023
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+o Technological Advancement
+o Regulatory Landscape
+o Case Studies
+• Global Makeup Market Size by Product &amp; CAGR (2024-2031)
+o Powders
+o Gels
+o Lotions
+o Other
+• Global Makeup Market Size by Application &amp; CAGR (2024-2031)
+o Lips
+o Eyes
+o Face
+o Nails
+• Global Makeup Market Size by Distribution Channel &amp; CAGR (2024-2031)
+o Supermarkets &amp; Hypermarkets
+o Exclusive Brand Stores
+o Online/E-Commerce Channels
+o Others
+• Global Makeup Market Size by Region &amp; CAGR (2024-2031)
+o North America, (by Product, by Application, by Distribution Channel)
+ US
+ Canada
+o Europe, (by Product, by Application, by Distribution Channel)
+ UK
+ Germany
+ Spain
+ France
+ Italy
+ Rest of Europe
+o Asia-Pacific, (by Product, by Application, by Distribution Channel)
+ China
+ India
+ Japan
+ South Korea
+ Rest of Asia Pacific
+o Latin America, (by Product, by Application, by Distribution Channel)
+ Brazil
+ Rest of Latin America
+o Middle East &amp; Africa, (by Product, by Application, by Distribution Channel)
+ GCC Countries
+ South Africa
+ Rest of Middle East &amp; Africa
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2023
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2023
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company’s Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2021-2023)
+• Key Company Profiles
+o L'Oreal
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Estée Lauder Companies
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o LVMH Moet Hennessy Louis Vuitton SE
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Johnson &amp; Johnson Services Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Kao Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Procter &amp; Gamble Co.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Unilever PLC
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Beiersdorf AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o The Body Shop International Limited
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Chanel International B.V.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Oriflame Holding AG
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Natura &amp;Co Holding S.A.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Amorepacific Corporation
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Mary Kay Inc.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yves Rocher International B.V.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Clarins Group
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Natura &amp; Co.
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sugar cosmetics
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendation</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>◦ L'Oreal
+◦ Estee Lauder Companies
+◦ LVMH Moet Hennessy Louis Vuitton SE
+◦ Johnson &amp; Johnson Services Inc.
+◦ Kao Corporation
+◦ Procter &amp; Gamble Co.
+◦ Unilever PLC
+◦ Beiersdorf AG
+◦ The Body Shop International Limited
+◦ Chanel International B.V.
+◦ Oriflame Holding AG
+◦ Natura &amp;Co Holding S.A.
+◦ Amorepacific Corporation
+◦ Mary Kay Inc.
+◦ Yves Rocher International B.V.
+◦ Clarins Group
+◦ Natura &amp; Co.
+◦ Sugar cosmetics</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>By Product (Powders, Gels, Lotions, Others), By Application (Lips, Eyes, Face, Others), By Distribution Channel (Supermarkets/hypermarkets, Exclusive Br, Stores, Online/e-commerce Channels, Others)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>40.37</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>41.85</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>5.61%</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
         </is>
       </c>
     </row>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,9 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,59 +554,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Endodontic Devices Market Size, Share, Growth Analysis, By Product (Instruments, Consumables), By End-User (Dental Clinics, Hospitals), By Region - Industry Forecast 2025-2032</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SQSG35A2096</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/endodontic-devices-market</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Technical Ceramics Market Size, Share, Growth Analysis, By Raw Material (Alumina Ceramics, Titanate Ceramics), By Product (Monolithic ceramics, Ceramic coatings), By Application, By End-use, By Region - Industry Forecast 2025-2032</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SQMIG15E2424</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/technical-ceramics-market</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>5300</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>7100</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Endodontic Devices Market size was valued at USD 1.98 billion in 2023 and is poised to grow from USD 2.08 billion in 2024 to USD 3.02 billion by 2032, growing at a CAGR of 4.8% during the forecast period (2025-2032).
-The global market for endodontic devices is set for significant growth, driven by advancements in dental technology and increasing patient preferences for high-quality surgical treatments at dental hospitals. Electric motor dental units, favored for their high torque and cost-effectiveness compared to air-driven units, enhance the efficiency of root canal procedures. Demand for apex locators is particularly robust, fueled by a rise in dental care facilities, prevalence of periodontal diseases, and a surge in dental tourism, alongside heightened awareness of oral hygiene. These modern electronic devices, boasting over 90% accuracy in locating the apical major foramen, are integral to effective treatment planning, further propelling market growth as dental clinics emphasize personalized care and technological upgrades.
-Top-down and bottom-up approaches were used to estimate and validate the size of the Global Endodontic Devices market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
-Global Endodontic Devices Market Segmental Analysis
-Global Endodontic Devices Market is segmented by Component, End-User and region. Based on Component, the market is segmented into Instruments and Consumables. Based on End-User, the market is segmented into Dental Clinics, Hospitals and Dental Academic and Research Institutes. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
-Driver of the Global Endodontic Devices Market
-The growth of the global endodontic devices market is significantly driven by the rising awareness surrounding oral hygiene and overall well-being. With the influence of social media and celebrities, more individuals are becoming conscious of dental aesthetics and are seeking dental procedures to achieve perfect teeth. This shift in mindset contrasts sharply with previous attitudes, where dental care was often overlooked. Additionally, the demand for personalized endodontic solutions has spurred the adoption of CAD technologies, while cone-beam computed tomography (CT) systems enable dentists to produce detailed 3D images for improved treatment planning. As dental care expenditures rise and tooth decay cases become more prevalent, the market for obturation devices is also projected to grow rapidly.
-Restraints in the Global Endodontic Devices Market
-The Global Endodontic Devices market is currently facing significant challenges that may hinder its growth. One of the primary restraints is the increase in oral infections linked to the use of these devices. Issues such as operational failures of rotary instruments, surgical trauma, complications like apicectomies, ecchymosis, paraesthesia, maxillary sinusitis, and extended gum bleeding are contributing to this concern. These adverse effects not only affect patient outcomes but also lead to hesitancy among dental professionals in adopting these technologies, thereby obstructing the overall advancement and expansion of the market. Addressing these complications will be crucial for future growth.
-Market Trends of the Global Endodontic Devices Market
-The global endodontic devices market is poised for significant growth, driven by escalating dental tourism, advancements in healthcare infrastructure, and favorable reimbursement policies across regions. The rising trend of patients seeking affordable dental care in Asia-Pacific countries, particularly India and China, is a key factor, as these locations offer treatment costs that are 60% to 70% lower than in developed nations. This influx of dental tourists capitalizes on the high number of qualified dental professionals in these regions. As patients increasingly seek value and quality in dental procedures, the endodontic devices market is likely to flourish, reflecting changing global healthcare dynamics.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Report details not available.</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -636,56 +633,66 @@
 o Macro-Economic Indicators
 o Value Chain Analysis
 o Pricing Analysis
-o Case Studies
-o Technology Advancement
-o Regulatory Landscape
+o Raw Material Analysis
+o Technology Analysis
 o Patent Analysis
-o Trade Analysis
-• Global Endodontic Devices Market Size by Component &amp; CAGR (2025-2032)
+o Raw Material Analysis
+• Global Technical Ceramics Market Size by Raw Material &amp; CAGR (2025-2032)
 o Market Overview
-o Instruments
- Endodontic Motors
- Apex Locators
- Endodontic Scalers
- Endodontic Handpieces
-o Consumables
- Endodontic Files
- Stainless Steel Files
- Nickel-Titanium (NiTi) Files
- Endodontic Burs
- Endodontic Irrigating Solutions
- Endodontic Obturation Materials
- Gutta-Percha
- Sealers
- Others
- Lubricants
- Medicaments
-• Global Endodontic Devices Market Size by End-User &amp; CAGR (2025-2032)
+o Alumina Ceramics
+o Titanate Ceramics
+o Zirconate Ceramics
+o Ferrite Ceramics
+o Aluminium Nitride
+o Silicon Carbide
+o Silicon Nitride
+o Others
+• Global Technical Ceramics Market Size by Product &amp; CAGR (2025-2032)
 o Market Overview
-o Dental Clinics
-o Hospitals
-o Dental Academic and Research Institutes
-• Global Endodontic Devices Market Size &amp; CAGR (2025-2032)
-o North America (Component, End-User)
+o Monolithic ceramics
+o Ceramic coatings
+o Ceramic matrix composites
+o Others
+• Global Technical Ceramics Market Size by Application &amp; CAGR (2025-2032)
+o Market Overview
+o Electrical equipment
+o Catalyst supports
+o Electronic devices
+o Wear parts
+o Engine parts
+o Filters
+o Bioceramics
+o Others
+• Global Technical Ceramics Market Size by End-use &amp; CAGR (2025-2032)
+o Market Overview
+o Electrical &amp; Electronics
+o Automotive
+o Machinery
+o Environmental
+o Medical
+o Military &amp; Defense
+o Others
+• Global Technical Ceramics Market Size &amp; CAGR (2025-2032)
+o North America (Raw Material, Product, Application, End-use)
  US
  Canada
-o Europe (Component, End-User)
+o Europe (Raw Material, Product, Application, End-use)
  Germany
  Spain
  France
  UK
  Italy
  Rest of Europe
-o Asia Pacific (Component, End-User)
+o Asia Pacific (Raw Material, Product, Application, End-use)
  China
  India
  Japan
  South Korea
  Rest of Asia-Pacific
-o Latin America (Component, End-User)
+o Latin America (Raw Material, Product, Application, End-use)
  Brazil
  Rest of Latin America
-o Middle East &amp; Africa (Component, End-User)
+o Middle East &amp; Africa (Raw Material, Product, Application, End-use)
  GCC Countries
  South Africa
  Rest of Middle East &amp; Africa
@@ -701,77 +708,102 @@
  Company's Segmental Share Analysis
  Revenue Y-O-Y Comparison (2022-2024)
 • Key Company Profiles
-o Danaher Corporation (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Dentsply Sirona Inc. (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o COLTENE Holding AG (Switzerland)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ivoclar Vivadent AG (Liechtenstein)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Septodont Holding (France)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ultradent Products Inc. (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Brasseler USA (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o FKG Dentaire SA (Switzerland)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o DiaDent Group International (South Korea)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Micro-Mega SA (France)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Kerr Corporation (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Henry Schein, Inc. (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o 3M Company (USA)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Shenzhen Perfect Medical Instruments Co., Ltd. (China)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Pac-Dent, Inc. (USA)
+o Kyocera Corporation (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Morgan Advanced Materials plc (United Kingdom)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Schott AG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CeramTec GmbH (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o CoorsTek, Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NGK Insulators Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o 3M Company (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Saint-Gobain S.A. (France)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Rauschert GmbH (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Murata Manufacturing Co., Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Corning Incorporated (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o McDanel Advanced Ceramic Technologies LLC (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Ceradyne, Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Superior Technical Ceramics Corp. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Krosaki Harima Corporation (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o IBIDEN Co., Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o L3Harris Technologies, Inc. (United States)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o RHI Magnesita N.V. (Austria)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vesuvius plc (United Kingdom)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Sumitomo Electric Industries, Ltd. (Japan)
  Company Overview
  Business Segment Overview
  Financial Updates
@@ -779,14 +811,14 @@
 • Conclusion &amp; Recommendations</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Health Care</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -804,51 +836,56 @@
 ◦ South Africa</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>◦ Danaher Corporation (USA)
-◦ Dentsply Sirona Inc. (USA)
-◦ COLTENE Holding AG (Switzerland)
-◦ Ivoclar Vivadent AG (Liechtenstein)
-◦ Septodont Holding (France)
-◦ Ultradent Products Inc. (USA)
-◦ Brasseler USA (USA)
-◦ FKG Dentaire SA (Switzerland)
-◦ DiaDent Group International (South Korea)
-◦ Micro-Mega SA (France)
-◦ Kerr Corporation (USA)
-◦ Henry Schein, Inc. (USA)
-◦ 3M Company (USA)
-◦ Shenzhen Perfect Medical Instruments Co., Ltd. (China)
-◦ Pac-Dent, Inc. (USA)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>By Component (Instruments (Endodontic Motors, Apex Locators, Endodontic Scalers, Endodontic Handpieces), Consumables (Endodontic Files, Endodontic Burs, Endodontic Irrigating Solutions, Endodontic Obturation Materials, Others)), By End-User (Dental Clinics, Hospitals, Dental Academic and Research Institutes)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>◦ Kyocera Corporation (Japan)
+◦ Morgan Advanced Materials plc (United Kingdom)
+◦ Schott AG (Germany)
+◦ CeramTec GmbH (Germany)
+◦ CoorsTek, Inc. (United States)
+◦ NGK Insulators Ltd. (Japan)
+◦ 3M Company (United States)
+◦ Saint-Gobain S.A. (France)
+◦ Rauschert GmbH (Germany)
+◦ Murata Manufacturing Co., Ltd. (Japan)
+◦ Corning Incorporated (United States)
+◦ McDanel Advanced Ceramic Technologies LLC (United States)
+◦ Ceradyne, Inc. (United States)
+◦ Superior Technical Ceramics Corp. (United States)
+◦ Krosaki Harima Corporation (Japan)
+◦ IBIDEN Co., Ltd. (Japan)
+◦ L3Harris Technologies, Inc. (United States)
+◦ RHI Magnesita N.V. (Austria)
+◦ Vesuvius plc (United Kingdom)
+◦ Sumitomo Electric Industries, Ltd. (Japan)</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>By Raw Material (Alumina Ceramics, Titanate Ceramics, Zirconate Ceramics, Ferrite Ceramics, Aluminium Nitride, Silicon Carbide, Silicon Nitride, Others), By Product (Monolithic ceramics, Ceramic coatings, Ceramic matrix composites, Others), By Application (Electrical equipment, Catalyst supports, Electronic devices, Wear parts, Engine parts, Filters, Bioceramics, Others), By End-use (Electrical &amp; Electronics, Automotive, Machinery, Environmental, Medical, Military &amp; Defense, Others)</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>USD Billion</t>
         </is>

--- a/GII.xlsx
+++ b/GII.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,12 +40,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,10 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,49 +547,59 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Technical Ceramics Market Size, Share, Growth Analysis, By Raw Material (Alumina Ceramics, Titanate Ceramics), By Product (Monolithic ceramics, Ceramic coatings), By Application, By End-use, By Region - Industry Forecast 2025-2032</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SQMIG15E2424</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/technical-ceramics-market</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ventilator Market Size, Share, and Growth Analysis, By Product Type (Intensive Care Ventilators, Portable Ventilators), By Modality (Non-Invasive Ventilation, Invasive Ventilation), By Ventilator Type, By Mode, By End User, By Region - Industry Forecast 2025-2032</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SQMIG35A2176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ventilator-market</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>5300</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>6200</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>7100</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Report details not available.</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Ventilator Market size was valued at USD 3.9 billion in 2023 and is poised to grow from USD 4.15 billion in 2024 to USD 6.76 billion by 2032, growing at a CAGR of 6.3% during the forecast period (2025-2032).
+The ventilator market is poised for significant growth driven by technological advancements, such as sophisticated portable ventilators and enhanced sensor technologies. Contributing factors include rising rates of preterm births, an aging population, a surge in respiratory diseases, and an increase in ICU bed availability. The shift toward home healthcare presents new opportunities, offering cost-effective and comfortable solutions for patients. Advances in microprocessor-controlled ventilation and innovative ventilator modes have revolutionized the treatment of severe respiratory conditions. Upgraded ventilators now feature extensive safeguards, ensuring readiness for emergencies with integrated sensors and monitors tracking crucial parameters like air pressure, volume, flow rate, and mechanical integrity, including battery backups and oxygen levels, thus ensuring comprehensive patient safety and care.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Ventilator market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Ventilator Market Segments Analysis
+Global Ventilator Market is segmented by Product Type, Modality, Ventilator Type, Mode, End User and region. Based on Product Type, the market is segmented into Intensive Care Ventilators, Portable Ventilators and Neonatal Ventilators. Based on Modality, the market is segmented into Non-Invasive Ventilation and Invasive Ventilation. Based on Ventilator Type, the market is segmented into Adult Ventilators, Neonatal Ventilators and Pediatric Ventilators. Based on Mode, the market is segmented into Combined-Mode Ventilation, Volume-Mode Ventilation, Pressure-Mode Ventilator and Other. Based on End User, the market is segmented into Hospitals, Specialty Clinics, Long Term Care Centers, Rehabilitation Centers, Homecare Settings and Others. Based on region, the market is segmented into North America, Europe, Asia Pacific, Latin America and Middle East &amp; Africa.
+Driver of the Ventilator Market
+The global ventilator market is primarily driven by the rising incidence of respiratory conditions, including chronic obstructive pulmonary disease, sleep apnea, acute lung injury, and hypoxemia. Additionally, the growing elderly population and the increase in preterm births are significant factors contributing to market expansion. Furthermore, the widespread prevalence of tobacco use, which is a leading cause of respiratory illnesses, further stimulates the demand for ventilators. As these health challenges escalate, the need for effective respiratory support devices becomes increasingly critical, thereby enhancing market growth and creating opportunities for innovation and development within the ventilator sector.
+Restraints in the Ventilator Market
+The ventilator market faces significant restraints due to the rising number of undiagnosed and undertreated patients, which can be attributed to a lack of awareness about respiratory diseases among the general population. As more individuals remain unaware of their respiratory conditions and thus go untreated, the demand for ventilators may not grow as expected, ultimately impeding market expansion. This issue highlights the need for increased education and awareness campaigns to inform patients about respiratory health, as addressing the gap in diagnosis and treatment could improve market dynamics and encourage better utilization of ventilatory support systems.
+Market Trends of the Ventilator Market
+The ventilator market is witnessing significant growth driven by technological advancements, including the rise of portable ventilators and those equipped with advanced sensors for real-time monitoring and data transfer, enhancing clinical decision-making. This trend is further fueled by the increasing incidence of respiratory diseases globally, particularly in emerging economies like India, China, and Japan, where healthcare infrastructure is rapidly evolving. The demand for innovative solutions that improve patient outcomes and the efficiency of care delivery is propelling market expansion. As healthcare systems adapt to meet rising patient needs, the ventilator market is positioned for sustained growth, highlighting the importance of innovation in medical technology.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>• Introduction
 o Objectives of the Study
@@ -633,66 +636,57 @@
 o Macro-Economic Indicators
 o Value Chain Analysis
 o Pricing Analysis
-o Raw Material Analysis
+o Regulatory Analysis
 o Technology Analysis
-o Patent Analysis
-o Raw Material Analysis
-• Global Technical Ceramics Market Size by Raw Material &amp; CAGR (2025-2032)
-o Market Overview
-o Alumina Ceramics
-o Titanate Ceramics
-o Zirconate Ceramics
-o Ferrite Ceramics
-o Aluminium Nitride
-o Silicon Carbide
-o Silicon Nitride
+• Global Ventilator Market Size by Product Type &amp; CAGR (2025-2032)
+o Market Overview
+o Intensive Care Ventilators
+o Portable Ventilators
+o Neonatal Ventilators
+• Global Ventilator Market Size by Modality &amp; CAGR (2025-2032)
+o Market Overview
+o Non-Invasive Ventilation
+o Invasive Ventilation
+• Global Ventilator Market Size by Ventilator Type &amp; CAGR (2025-2032)
+o Market Overview
+o Adult Ventilators
+o Neonatal Ventilators
+o Pediatric Ventilators
+• Global Ventilator Market Size by Mode &amp; CAGR (2025-2032)
+o Market Overview
+o Combined-Mode Ventilation
+o Volume-Mode Ventilation
+o Pressure-Mode Ventilator
+o Other
+• Global Ventilator Market Size by End User &amp; CAGR (2025-2032)
+o Market Overview
+o Hospitals
+o Specialty Clinics
+o Long Term Care Centers
+o Rehabilitation Centers
+o Homecare Settings
 o Others
-• Global Technical Ceramics Market Size by Product &amp; CAGR (2025-2032)
-o Market Overview
-o Monolithic ceramics
-o Ceramic coatings
-o Ceramic matrix composites
-o Others
-• Global Technical Ceramics Market Size by Application &amp; CAGR (2025-2032)
-o Market Overview
-o Electrical equipment
-o Catalyst supports
-o Electronic devices
-o Wear parts
-o Engine parts
-o Filters
-o Bioceramics
-o Others
-• Global Technical Ceramics Market Size by End-use &amp; CAGR (2025-2032)
-o Market Overview
-o Electrical &amp; Electronics
-o Automotive
-o Machinery
-o Environmental
-o Medical
-o Military &amp; Defense
-o Others
-• Global Technical Ceramics Market Size &amp; CAGR (2025-2032)
-o North America (Raw Material, Product, Application, End-use)
+• Global Ventilator Market Size &amp; CAGR (2025-2032)
+o North America (Product Type, Modality, Ventilator Type, Mode, End User)
  US
  Canada
-o Europe (Raw Material, Product, Application, End-use)
+o Europe (Product Type, Modality, Ventilator Type, Mode, End User)
  Germany
  Spain
  France
  UK
  Italy
  Rest of Europe
-o Asia Pacific (Raw Material, Product, Application, End-use)
+o Asia Pacific (Product Type, Modality, Ventilator Type, Mode, End User)
  China
  India
  Japan
  South Korea
  Rest of Asia-Pacific
-o Latin America (Raw Material, Product, Application, End-use)
+o Latin America (Product Type, Modality, Ventilator Type, Mode, End User)
  Brazil
  Rest of Latin America
-o Middle East &amp; Africa (Raw Material, Product, Application, End-use)
+o Middle East &amp; Africa (Product Type, Modality, Ventilator Type, Mode, End User)
  GCC Countries
  South Africa
  Rest of Middle East &amp; Africa
@@ -708,102 +702,102 @@
  Company's Segmental Share Analysis
  Revenue Y-O-Y Comparison (2022-2024)
 • Key Company Profiles
-o Kyocera Corporation (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Morgan Advanced Materials plc (United Kingdom)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Schott AG (Germany)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o CeramTec GmbH (Germany)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o CoorsTek, Inc. (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o NGK Insulators Ltd. (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o 3M Company (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Saint-Gobain S.A. (France)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Rauschert GmbH (Germany)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Murata Manufacturing Co., Ltd. (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Corning Incorporated (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o McDanel Advanced Ceramic Technologies LLC (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Ceradyne, Inc. (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Superior Technical Ceramics Corp. (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Krosaki Harima Corporation (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o IBIDEN Co., Ltd. (Japan)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o L3Harris Technologies, Inc. (United States)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o RHI Magnesita N.V. (Austria)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Vesuvius plc (United Kingdom)
- Company Overview
- Business Segment Overview
- Financial Updates
- Key Developments
-o Sumitomo Electric Industries, Ltd. (Japan)
+o Medtronic (Ireland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o ResMed (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Philips (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Getinge (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hamilton Medical (Switzerland)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Drägerwerk AG &amp; Co. KGaA (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Vyaire Medical (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fisher &amp; Paykel Healthcare (New Zealand)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Maquet (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o GE Healthcare (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Allied Healthcare Products, Inc. (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Teleflex Incorporated (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Becton, Dickinson and Company (BD) (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Nihon Kohden Corporation (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fukuda Denshi Co., Ltd. (Japan)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Siare Engineering International Group S.r.l. (Italy)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Airon Corporation (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Breas Medical AB (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Loewenstein Medical GmbH + Co. KG (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Beijing Aeonmed Co., Ltd. (China)
  Company Overview
  Business Segment Overview
  Financial Updates
@@ -811,14 +805,14 @@
 • Conclusion &amp; Recommendations</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>◦ USA
 ◦ Canada
@@ -836,58 +830,691 @@
 ◦ South Africa</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>◦ Kyocera Corporation (Japan)
-◦ Morgan Advanced Materials plc (United Kingdom)
-◦ Schott AG (Germany)
-◦ CeramTec GmbH (Germany)
-◦ CoorsTek, Inc. (United States)
-◦ NGK Insulators Ltd. (Japan)
-◦ 3M Company (United States)
-◦ Saint-Gobain S.A. (France)
-◦ Rauschert GmbH (Germany)
-◦ Murata Manufacturing Co., Ltd. (Japan)
-◦ Corning Incorporated (United States)
-◦ McDanel Advanced Ceramic Technologies LLC (United States)
-◦ Ceradyne, Inc. (United States)
-◦ Superior Technical Ceramics Corp. (United States)
-◦ Krosaki Harima Corporation (Japan)
-◦ IBIDEN Co., Ltd. (Japan)
-◦ L3Harris Technologies, Inc. (United States)
-◦ RHI Magnesita N.V. (Austria)
-◦ Vesuvius plc (United Kingdom)
-◦ Sumitomo Electric Industries, Ltd. (Japan)</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>By Raw Material (Alumina Ceramics, Titanate Ceramics, Zirconate Ceramics, Ferrite Ceramics, Aluminium Nitride, Silicon Carbide, Silicon Nitride, Others), By Product (Monolithic ceramics, Ceramic coatings, Ceramic matrix composites, Others), By Application (Electrical equipment, Catalyst supports, Electronic devices, Wear parts, Engine parts, Filters, Bioceramics, Others), By End-use (Electrical &amp; Electronics, Automotive, Machinery, Environmental, Medical, Military &amp; Defense, Others)</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>◦ Medtronic (Ireland)
+◦ ResMed (US)
+◦ Philips (Netherlands)
+◦ Getinge (Sweden)
+◦ Hamilton Medical (Switzerland)
+◦ Drägerwerk AG &amp; Co. KGaA (Germany)
+◦ Vyaire Medical (US)
+◦ Fisher &amp; Paykel Healthcare (New Zealand)
+◦ Maquet (Germany)
+◦ GE Healthcare (US)
+◦ Allied Healthcare Products, Inc. (US)
+◦ Teleflex Incorporated (US)
+◦ Becton, Dickinson and Company (BD) (US)
+◦ Nihon Kohden Corporation (Japan)
+◦ Fukuda Denshi Co., Ltd. (Japan)
+◦ Siare Engineering International Group S.r.l. (Italy)
+◦ Airon Corporation (US)
+◦ Breas Medical AB (Sweden)
+◦ Loewenstein Medical GmbH + Co. KG (Germany)
+◦ Beijing Aeonmed Co., Ltd. (China)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>By Product Type (Intensive Care Ventilators, Portable Ventilators, Neonatal Ventilators), By Modality (Non-Invasive Ventilation, Invasive Ventilation), By Ventilator Type (Adult Ventilators, Neonatal Ventilators, Pediatric Ventilators), By Mode (Combined-Mode Ventilation, Volume-Mode Ventilation, Pressure-Mode Ventilator, Other), By End User (Hospitals, Specialty Clinics, Long Term Care Centers, Rehabilitation Centers, Homecare Settings, Others)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Europe Electric Scooter Market Size, Share, and Growth Analysis, By Vehicle Type (E-Kick Scooters &amp; Bikes, Electric Mopeds), By Power (Less than 3.6 Kw, 3.6 Kw to 7.2 Kw), By Technology, By Motor, By Charging, By Country- Industry Forecast 2025-2032</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIR25C2121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/europe-electric-scooter-market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Europe Electric Scooter Market size was valued at USD 18.2 billion in 2023 and is poised to grow from USD 22.75 billion in 2024 to USD 135.6 billion by 2032, growing at a CAGR of 25.0% during the forecast period (2025-2032).
+The electric scooter market, encompassing various models like kick scooters, electric motorbikes, and mopeds, is witnessing robust growth driven by an increased demand for sustainable transportation solutions. These scooters, characterized by their ease of use, are popular for both private and public transit, shared mobility, and industrial applications. Factors such as rising use in ride-sharing services across Europe, stringent pollution regulations, and the push towards electric mobility in response to environmental concerns further bolster market acceptance. Additionally, the proliferation of service providers and smartphone apps facilitating vehicle reservations and parking solutions enhances user convenience. Technological advancements continue to foster innovative solutions, significantly supporting the expansion of the electric scooter market within Europe.
+Top-down and bottom-up approaches were used to estimate and validate the size of the Europe Electric Scooter market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+Europe Electric Scooter Market Segments Analysis
+Europe Electric Scooter Market is segmented by Vehicle Type, Power, Technology, Motor, Charging, End User and region. Based on Vehicle Type, the market is segmented into E-Kick Scooters &amp; Bikes, Electric Mopeds and Electric Motorcycles. Based on Power, the market is segmented into Less than 3 Kw, 4 Kw to 20 Kw and 21 Kw to 100 Kw. Based on Technology, the market is segmented into Sealed Lead Acid Battery, Lithium-ion Battery and Lithium-ion Polymer Battery. Based on Motor, the market is segmented into Hub Motors and Mid-drive Motors. Based on Charging, the market is segmented into Connector Charging and Wireless Charging. Based on End User, the market is segmented into Government Institutions, Academic Institutes/Universities, Business Organizations, Micromobility Service Providers, Individuals and Other End Users. Based on Country, the market is segmented into Germany, Spain, France, UK, Italy, Rest of Europe.
+Driver of the Europe Electric Scooter Market
+The European electric scooter market is experiencing significant growth, largely due to the rise of e-commerce platforms. This shift towards online shopping has made it more convenient for consumers to purchase electric bikes and scooters, while also providing sellers with the opportunity to reach a broader audience. Online marketplaces offer an extensive range of brands, allowing consumers to explore various options that best meet their needs. As both consumers and businesses capitalize on the efficiency and accessibility of these digital portals, this trend is driving further expansion and innovation within the electric scooter market in Europe.
+Restraints in the Europe Electric Scooter Market
+The Europe Electric Scooter market is currently facing significant challenges due to financial constraints affecting consumers. Many individuals are experiencing job losses and reduced incomes, leading them to cut back on discretionary spending, including non-essential items like electric scooters. The impact of the COVID-19 pandemic has severely disrupted various economic sectors, particularly urban transportation and the automotive industry. As a result of government restrictions, major manufacturers were compelled to halt operations or function at limited capacity, further exacerbating the situation. This financial strain on consumers ultimately hinders the growth potential of the electric scooter market in Europe.
+Market Trends of the Europe Electric Scooter Market
+The European electric scooter market is experiencing a significant upward trend driven by the rising adoption of electric motorcycles and e-bikes for short-distance travel. The proliferation of electric scooters in ride-sharing services is enhancing urban mobility solutions, while stringent emission regulations are further incentivizing consumers to switch to eco-friendly alternatives. Additionally, increasing health consciousness among millennials is propelling demand for sustainable transport options, emphasizing active lifestyles. Combined with supportive government policies promoting green initiatives and infrastructure development, these factors are collectively creating a robust market environment poised for substantial growth in the coming years.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Drivers &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2024
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+• Europe Electric Scooter Market Size by Vehicle Type &amp; CAGR (2025-2032)
+o Market Overview
+o E-Kick Scooters &amp; Bikes
+o Electric Mopeds
+o Electric Motorcycles
+• Europe Electric Scooter Market Size by Power &amp; CAGR (2025-2032)
+o Market Overview
+o Less than 3 Kw
+o 4 Kw to 20 Kw
+o 21 Kw to 100 Kw
+• Europe Electric Scooter Market Size by Technology &amp; CAGR (2025-2032)
+o Market Overview
+o Sealed Lead Acid Battery
+o Lithium-ion Battery
+o Lithium-ion Polymer Battery
+• Europe Electric Scooter Market Size by Motor &amp; CAGR (2025-2032)
+o Market Overview
+o Hub Motors
+o Mid-drive Motors
+• Europe Electric Scooter Market Size by Charging &amp; CAGR (2025-2032)
+o Market Overview
+o Connector Charging
+o Wireless Charging
+• Europe Electric Scooter Market Size by End User &amp; CAGR (2025-2032)
+o Market Overview
+o Government Institutions
+o Academic Institutes/Universities
+o Business Organizations
+o Micromobility Service Providers
+o Individuals
+o Other End Users
+• Europe Electric Scooter Market Size &amp; CAGR (2025-2032)
+o Europe (Vehicle Type, Power, Technology, Motor, Charging, End User)
+ Germany
+ Spain
+ France
+ UK
+ Italy
+ Rest of Europe
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2024
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2024
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company's Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2022-2024)
+• Key Company Profiles
+o Voi Technology (Sweden)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Tier Mobility (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lime (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dott (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bird (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Wind Mobility (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Bolt Technology OÜ (Estonia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cooltra (Spain)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Yego Urban Mobility (Spain)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Circ (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Emmy Sharing (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o COUP (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o unu (Germany)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o NIU Technologies (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Segway-Ninebot (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Felyx (Netherlands)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Cityscoot (France)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hive (Spain)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Taxify (Estonia)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendations</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>◦ Voi Technology (Sweden)
+◦ Tier Mobility (Germany)
+◦ Lime (US)
+◦ Dott (Netherlands)
+◦ Bird (US)
+◦ Wind Mobility (Germany)
+◦ Bolt Technology OÜ (Estonia)
+◦ Cooltra (Spain)
+◦ Yego Urban Mobility (Spain)
+◦ Circ (Germany)
+◦ Emmy Sharing (Germany)
+◦ COUP (Germany)
+◦ Unu (Germany)
+◦ NIU Technologies (China)
+◦ Segway-Ninebot (China)
+◦ Felyx (Netherlands)
+◦ Cityscoot (France)
+◦ Hive (Spain)
+◦ Taxify (Estonia)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>By Vehicle Type (E-Kick Scooters &amp; Bikes, Electric Mopeds), By Power (Less than 3 Kw, 4 Kw to 20 Kw, 21 Kw to 100 Kw), By Technology (Sealed Lead Acid Battery, Lithium-ion Battery, Lithium-ion Polymer Battery), By Motor (Hub Motors, Mid-drive Motors), By Charging (Connector Charging, Wireless Charging), By End User (Government Institutions, Academic Institutes/Universities, Business Organizations, Micromobility Service Providers, Individuals, Other End Users)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>135.6</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>USD Billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>North America Electric Scooter Market Size, Share, and Growth Analysis, By Vehicle Type (E-Kick Scooters &amp; Bikes, Electric Mopeds), By Power (Less than 3 Kw, 4 Kw to 20 Kw), By Technology, By Motor, By Country- Industry Forecast 2025-2032</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SQMIR25C2131</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/north-america-electric-scooter-market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>North America Electric Scooter Market size was valued at USD 800 million in 2023 and is poised to grow from USD 950 million in 2024 to USD 3890 million by 2032, growing at a CAGR of 19.2% during the forecast period (2025-2032).
+The market for electric scooters and motorbikes is witnessing significant growth, driven by their suitability for short-distance commuting and logistics applications such as courier and e-commerce deliveries. With ranges under 100 kilometers per charge and lighter, more efficient designs, these vehicles offer enhanced maneuverability in urban settings. The rise of electric scooter-sharing programs, coupled with increasing concerns about greenhouse gas emissions, is boosting demand for micro-mobility solutions. Additionally, the burgeoning availability of smart charging stations further supports market expansion. While the North American transportation sector is the second-largest contributor to carbon emissions, lingering effects of the COVID-19 pandemic and rising unemployment may temper consumer spending on larger purchases, presenting both challenges and opportunities in this evolving landscape.
+Top-down and bottom-up approaches were used to estimate and validate the size of the North America Electric Scooter market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
+North America Electric Scooter Market Segments Analysis
+North America Electric Scooter Market is segmented by Vehicle Type, Power, Technology, Motor, Charging, End User and region. Based on Vehicle Type, the market is segmented into E-Kick Scooters &amp; Bikes, Electric Mopeds and Electric Motorcycles. Based on Power, the market is segmented into Less than 3 Kw, 4 Kw to 20 Kw and 21 Kw to 100 Kw. Based on Technology, the market is segmented into Sealed Lead Acid Battery, Lithium-ion Battery and Lithium-ion Polymer Battery. Based on Motor, the market is segmented into Hub Motors and Mid-drive Motors. Based on Charging, the market is segmented into Connector Charging and Wireless Charging. Based on End User, the market is segmented into Government Institutions, Academic Institutes/Universities, Business Organizations, Micromobility Service Providers, Individuals and Other End Users. Based on Country, the market is segmented into US, and Canada.
+Driver of the North America Electric Scooter Market
+The North America Electric Scooter market is poised for significant growth as awareness of vehicle emissions and fluctuating gasoline prices rise. An increasing number of young adults are shifting their preferences towards eco-friendly transportation alternatives, driving up the demand for electric scooters across the United States and Canada. This trend reflects a broader societal move towards sustainable mobility solutions, creating a lucrative opportunity for manufacturers and service providers in the electric scooter sector. As consumers prioritize low-emission options, the market is likely to benefit from this change in attitudes and preferences, leading to greater adoption and expansion in the region.
+Restraints in the North America Electric Scooter Market
+The ongoing COVID-19 pandemic has adversely affected the electric scooter market in North America. The outbreak led to a complete halt in the production of electric two-wheelers, resulting in significant disruptions in the supply chain. This interruption in manufacturing processes has further contributed to a decline in sales, highlighting how the pandemic's repercussions have hindered the growth of the electric scooter segment. The challenges faced by manufacturers and retailers alike during this period have created substantial obstacles, impacting the overall market dynamics and restricting the progress anticipated in the electric scooter industry.
+Market Trends of the North America Electric Scooter Market
+The North America electric scooter market is witnessing a robust upward trend, bolstered by a post-COVID-19 surge in e-scooter usage. Average journey distances have soared by 26%, with cities like Detroit reporting remarkable increases of up to 60% in rides. This growth is indicative of a shifting urban mobility landscape, where consumers increasingly favor sustainable and convenient transportation options. The rising emphasis on eco-friendly alternatives, coupled with supportive regulations and urban infrastructure development, is further propelling the e-scooter market. As cities embrace micro-mobility solutions, the North American electric scooter market is poised for continued expansion and innovation in the coming years.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>• Introduction
+o Objectives of the Study
+o Scope of the Report
+o Definitions
+• Research Methodology
+o Information Procurement
+o Secondary &amp; Primary Data Methods
+o Market Size Estimation
+o Market Assumptions &amp; Limitations
+• Executive Summary
+o Market Outlook
+o Supply &amp; Demand Trend Analysis
+o Segmental Opportunity Analysis
+• Market Dynamics &amp; Outlook
+o Market Overview
+o Market Size
+o Market Dynamics
+ Drivers &amp; Opportunities
+ Restraints &amp; Challenges
+o Porters Analysis
+ Competitive rivalry
+ Threat of substitute
+ Bargaining power of buyers
+ Threat of new entrants
+ Bargaining power of suppliers
+• Key Market Insights
+o Key Success Factors
+o Degree of Competition
+o Top Investment Pockets
+o Market Ecosystem
+o Market Attractiveness Index, 2024
+o PESTEL Analysis
+o Macro-Economic Indicators
+o Value Chain Analysis
+o Pricing Analysis
+• North America Electric Scooter Market Size by Vehicle Type &amp; CAGR (2025-2032)
+o Market Overview
+o E-Kick Scooters &amp; Bikes
+o Electric Mopeds
+• North America Electric Scooter Market Size by Power &amp; CAGR (2025-2032)
+o Market Overview
+o Less than 3 Kw
+o 4 Kw to 20 Kw
+o 21 Kw to 100 Kw
+• North America Electric Scooter Market Size by Technology &amp; CAGR (2025-2032)
+o Market Overview
+o Sealed Lead Acid Battery
+o Lithium-ion Battery
+o Lithium-ion Polymer Battery
+• North America Electric Scooter Market Size by Motor &amp; CAGR (2025-2032)
+o Market Overview
+o Hub Motors
+ Gearless Hub Motors
+ Geared Hub Motors
+o Mid-drive Motors
+• North America Electric Scooter Market Size by Charging &amp; CAGR (2025-2032)
+o Market Overview
+o Connector Charging
+o Wireless Charging
+• North America Electric Scooter Market Size by End User &amp; CAGR (2025-2032)
+o Market Overview
+o Government Institutions
+o Academic Institutes/Universities
+o Business Organizations
+o Micromobility Service Providers
+o Individuals
+o Other End Users
+• North America Electric Scooter Market Size &amp; CAGR (2025-2032)
+o North America (Vehicle Type, Power, Technology, Motor, Charging, End User)
+ US
+ Canada
+• Competitive Intelligence
+o Top 5 Player Comparison
+o Market Positioning of Key Players, 2024
+o Strategies Adopted by Key Market Players
+o Recent Developments in the Market
+o Company Market Share Analysis, 2024
+o Company Profiles of All Key Players
+ Company Details
+ Product Portfolio Analysis
+ Company's Segmental Share Analysis
+ Revenue Y-O-Y Comparison (2022-2024)
+• Key Company Profiles
+o Bird (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Lime (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Spin (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Razor USA (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Gotrax (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Unagi Scooters (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Apollo Scooters (Canada)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Fluidfreeride (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Voro Motors (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Glion Scooters (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Hiboy (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Xiaomi (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Superpedestrian (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Okai (China)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o INOKIM (Israel)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Dualtron (South Korea)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o EMOVE (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o Electric Rider (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+o TurboAnt (US)
+ Company Overview
+ Business Segment Overview
+ Financial Updates
+ Key Developments
+• Conclusion &amp; Recommendations</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>◦ USA
+◦ Canada
+◦ Germany
+◦ Spain
+◦ Italy
+◦ France
+◦ UK
+◦ China
+◦ India
+◦ Japan
+◦ South Korea
+◦ Brazil
+◦ GCC Countries
+◦ South Africa</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>◦ Bird (US)
+◦ Lime (US)
+◦ Spin (US)
+◦ Razor USA (US)
+◦ Gotrax (US)
+◦ Unagi Scooters (US)
+◦ Apollo Scooters (Canada)
+◦ Fluidfreeride (US)
+◦ Voro Motors (US)
+◦ Glion Scooters (US)
+◦ Hiboy (China)
+◦ Xiaomi (China)
+◦ Superpedestrian (US)
+◦ Okai (China)
+◦ INOKIM (Israel)
+◦ Dualtron (South Korea)
+◦ EMOVE (US)
+◦ Electric Rider (US)
+◦ TurboAnt (US)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>By Vehicle Type (E-Kick Scooters &amp; Bikes, Electric Mopeds), By Power (Less than 3 Kw, 4 Kw to 20 Kw, 21 Kw to 100 Kw), By Technology (Sealed Lead Acid Battery, Lithium-ion Battery, Lithium-ion Polymer Battery), By Motor (Hub Motors (Gearless Hub Motors, Geared Hub Motors), Mid-drive Motors), By Charging (Connector Charging, Wireless Charging), By End User (Government Institutions, Academic Institutes/Universities, Business Organizations, Micromobility Service Providers, Individuals, Other End Users)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>19.2%</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>USD Million</t>
         </is>
       </c>
     </row>
